--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vick\dev\deadline\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309E2B0B-88B3-4907-81F6-0C18EBF13870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67306ABA-BAA9-4487-8E73-E1FB05216CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="1443">
   <si>
     <t>Language</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5790,18 +5790,6 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>君の残る命は：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t>国家</t>
     </r>
     <r>
@@ -21775,6 +21763,250 @@
   </si>
   <si>
     <t>zh-HK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_DEATH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>君の残る命は：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You can live to {MM}/{DD}/{YYYY} </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以活到{YYYY}年{MM}月{DD}日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你可以活到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{YYYY}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{MM}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{DD}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>君は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{YYYY}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{MM}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{DD}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日まで生きられます</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正态分布标准差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeStd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_PERCENT_BEFORE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击败了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{percent}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>擊敗了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{percent}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{pe​​rcent}% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の人に勝ちました</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better than {percent}% of people</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -21782,7 +22014,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -21867,6 +22099,43 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -21927,7 +22196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -22036,6 +22305,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -22258,13 +22542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5590B4B-DC0D-4AF5-B15D-C9CA28553DC9}">
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -22285,10 +22569,10 @@
         <v>37</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>38</v>
@@ -22333,7 +22617,7 @@
     </row>
     <row r="5" spans="1:5" ht="18.5">
       <c r="A5" s="11" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>584</v>
@@ -22350,7 +22634,7 @@
     </row>
     <row r="6" spans="1:5" ht="18.5">
       <c r="A6" s="11" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>585</v>
@@ -22514,4773 +22798,4807 @@
       <c r="D19" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.5">
+      <c r="E19" s="42" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18">
+      <c r="A20" s="11" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18">
       <c r="A21" s="11" t="s">
-        <v>260</v>
+        <v>1438</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>609</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.5">
-      <c r="A22" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>614</v>
+        <v>1442</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.5">
       <c r="A23" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.5">
       <c r="A24" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.5">
       <c r="A25" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.5">
       <c r="A26" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.5">
       <c r="A27" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.5">
       <c r="A28" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>30</v>
+        <v>622</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>41</v>
+        <v>623</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>30</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.5">
       <c r="A29" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18.5">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>630</v>
+        <v>30</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>631</v>
+        <v>41</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>632</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.5">
       <c r="A31" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.5">
+      <c r="A32" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.5">
+      <c r="A33" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C33" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>634</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A33" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>636</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A34" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>523</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>638</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A35" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A36" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A37" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B37" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D37" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="E37" s="30" t="s">
         <v>640</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18.5">
-      <c r="A36" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.5">
-      <c r="A37" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>525</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.5">
       <c r="A38" s="14" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18.5">
       <c r="A39" s="14" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.5">
       <c r="A40" s="14" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.5">
       <c r="A41" s="14" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18.5">
       <c r="A42" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.5">
+      <c r="A43" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.5">
+      <c r="A44" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B44" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D44" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="E44" s="30" t="s">
         <v>654</v>
       </c>
-      <c r="E42" s="30" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="B43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-    </row>
-    <row r="44" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A44" s="35" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A45" s="35" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>661</v>
-      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A46" s="35" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A47" s="35" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A48" s="35" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A49" s="35" t="s">
         <v>1376</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="4" customFormat="1">
-      <c r="A49" s="3"/>
+      <c r="B49" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="50" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A50" s="35" t="s">
         <v>1375</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A51" s="35" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>676</v>
-      </c>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="4" customFormat="1">
+      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A52" s="35" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>677</v>
+        <v>298</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>670</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A53" s="35" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A54" s="35" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A55" s="35" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A56" s="35" t="s">
         <v>1370</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>686</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="4" customFormat="1">
-      <c r="A56" s="3"/>
+      <c r="B56" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A57" s="35" t="s">
         <v>1369</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>689</v>
+        <v>290</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>685</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A58" s="35" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>694</v>
-      </c>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="4" customFormat="1">
+      <c r="A58" s="3"/>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A59" s="35" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>283</v>
+        <v>1368</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A60" s="35" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A61" s="35" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A62" s="35" t="s">
         <v>1365</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B62" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A63" s="35" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B63" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C63" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="E61" s="4" t="s">
+    </row>
+    <row r="64" spans="1:5" s="4" customFormat="1">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" s="4" customFormat="1" ht="37">
+      <c r="A65" s="35" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" s="4" customFormat="1">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" s="4" customFormat="1" ht="37">
-      <c r="A63" s="35" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C63" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>705</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A64" s="35" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A65" s="35" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A66" s="35" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>713</v>
+        <v>277</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>706</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A67" s="35" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>716</v>
+        <v>278</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A68" s="35" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="4" customFormat="1" ht="37">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A69" s="35" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A70" s="35" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>276</v>
+        <v>1363</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="4" customFormat="1" ht="18.5">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="4" customFormat="1" ht="37">
       <c r="A71" s="35" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>728</v>
+        <v>1356</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A72" s="35" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>731</v>
+        <v>276</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A73" s="35" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A74" s="35" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B74" s="29" t="s">
+        <v>730</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A75" s="35" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>734</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A76" s="35" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>738</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="D76" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="4" customFormat="1">
-      <c r="A75" s="3"/>
-      <c r="C75" s="15"/>
-    </row>
-    <row r="76" spans="1:5" s="4" customFormat="1">
-      <c r="A76" s="3"/>
-      <c r="C76" s="15"/>
-    </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A77" s="35" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>743</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A78" s="34" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>746</v>
-      </c>
+    </row>
+    <row r="77" spans="1:5" s="4" customFormat="1">
+      <c r="A77" s="3"/>
+      <c r="C77" s="15"/>
+    </row>
+    <row r="78" spans="1:5" s="4" customFormat="1">
+      <c r="A78" s="3"/>
+      <c r="C78" s="15"/>
     </row>
     <row r="79" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A79" s="35" t="s">
-        <v>1347</v>
+        <v>1357</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>9</v>
+        <v>301</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>677</v>
+        <v>742</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>678</v>
+        <v>743</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A80" s="35" t="s">
-        <v>1348</v>
+      <c r="A80" s="34" t="s">
+        <v>1345</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>748</v>
+        <v>673</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>748</v>
+        <v>674</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A81" s="35" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>750</v>
+        <v>676</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>750</v>
+        <v>677</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A82" s="35" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A83" s="35" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A84" s="35" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A85" s="35" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C85" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="E83" s="4" t="s">
+    </row>
+    <row r="86" spans="1:5">
+      <c r="C86" s="13"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="C87" s="13"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A88" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="C84" s="13"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="C85" s="13"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A86" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E86" s="4" t="s">
+    <row r="89" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A89" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A87" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="D87" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>758</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A88" s="33" t="s">
-        <v>551</v>
-      </c>
-      <c r="B88" s="29" t="s">
-        <v>580</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" ht="18.5">
-      <c r="A89" s="33" t="s">
-        <v>555</v>
-      </c>
-      <c r="B89" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A90" s="33" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="4" customFormat="1" ht="18.5">
       <c r="A91" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A92" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="4" customFormat="1" ht="18.5">
+      <c r="A93" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B93" s="29" t="s">
         <v>518</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C93" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D93" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="E91" s="4" t="s">
+    </row>
+    <row r="94" spans="1:5" s="4" customFormat="1" ht="37">
+      <c r="A94" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" s="4" customFormat="1" ht="37">
-      <c r="A92" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="B92" s="29" t="s">
-        <v>519</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="D92" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>768</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="4" customFormat="1" ht="31">
-      <c r="A93" s="33" t="s">
-        <v>570</v>
-      </c>
-      <c r="B93" s="29" t="s">
-        <v>520</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="4" customFormat="1" ht="31">
-      <c r="A94" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="B94" s="29" t="s">
-        <v>521</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="4" customFormat="1" ht="31">
       <c r="A95" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="4" customFormat="1" ht="31">
+      <c r="A96" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="4" customFormat="1" ht="31">
+      <c r="A97" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B97" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C97" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D97" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="4" customFormat="1">
-      <c r="A96" s="33"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="30"/>
-    </row>
-    <row r="98" spans="1:5" ht="18.5">
-      <c r="A98" s="11" t="s">
-        <v>776</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>776</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>777</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="18.5">
-      <c r="A99" s="11" t="s">
-        <v>778</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>778</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>779</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>778</v>
-      </c>
+    </row>
+    <row r="98" spans="1:5" s="4" customFormat="1">
+      <c r="A98" s="33"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="30"/>
     </row>
     <row r="100" spans="1:5" ht="18.5">
       <c r="A100" s="11" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18.5">
       <c r="A101" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18.5">
       <c r="A102" s="11" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18.5">
       <c r="A103" s="11" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="18.5">
       <c r="A104" s="11" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.5">
       <c r="A105" s="11" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="18.5">
       <c r="A106" s="11" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="18.5">
       <c r="A107" s="11" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="18.5">
       <c r="A108" s="11" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="18.5">
       <c r="A109" s="11" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="18.5">
       <c r="A110" s="11" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="18.5">
       <c r="A111" s="11" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="18.5">
       <c r="A112" s="11" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="18.5">
       <c r="A113" s="11" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="18.5">
       <c r="A114" s="11" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="18.5">
       <c r="A115" s="11" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="18.5">
       <c r="A116" s="11" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="18.5">
       <c r="A117" s="11" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="18.5">
       <c r="A118" s="11" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="18.5">
       <c r="A119" s="11" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="18.5">
       <c r="A120" s="11" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="18.5">
       <c r="A121" s="11" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="18.5">
       <c r="A122" s="11" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="18.5">
       <c r="A123" s="11" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="18.5">
       <c r="A124" s="11" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="18.5">
       <c r="A125" s="11" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="18.5">
       <c r="A126" s="11" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="18.5">
       <c r="A127" s="11" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="18.5">
       <c r="A128" s="11" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="18.5">
       <c r="A129" s="11" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="18.5">
       <c r="A130" s="11" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="18.5">
       <c r="A131" s="11" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.5">
       <c r="A132" s="11" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="18.5">
       <c r="A133" s="11" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="18.5">
       <c r="A134" s="11" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="18.5">
       <c r="A135" s="11" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="18.5">
       <c r="A136" s="11" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="18.5">
       <c r="A137" s="11" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="18.5">
       <c r="A138" s="11" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="18.5">
       <c r="A139" s="11" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="18.5">
       <c r="A140" s="11" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="18.5">
       <c r="A141" s="11" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="18.5">
       <c r="A142" s="11" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="18.5">
       <c r="A143" s="11" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.5">
       <c r="A144" s="11" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="18.5">
       <c r="A145" s="11" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="18.5">
       <c r="A146" s="11" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="18.5">
       <c r="A147" s="11" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="18.5">
       <c r="A148" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="18.5">
       <c r="A149" s="11" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="18.5">
       <c r="A150" s="11" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="18.5">
       <c r="A151" s="11" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="18.5">
       <c r="A152" s="11" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="18.5">
       <c r="A153" s="11" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="18.5">
       <c r="A154" s="11" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="18.5">
       <c r="A155" s="11" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="18.5">
       <c r="A156" s="11" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="18.5">
       <c r="A157" s="11" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="18.5">
       <c r="A158" s="11" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="18.5">
       <c r="A159" s="11" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="18.5">
       <c r="A160" s="11" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="18.5">
       <c r="A161" s="11" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.5">
       <c r="A162" s="11" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="18.5">
       <c r="A163" s="11" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="18.5">
       <c r="A164" s="11" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="18.5">
       <c r="A165" s="11" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="18.5">
       <c r="A166" s="11" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="18.5">
       <c r="A167" s="11" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="18.5">
       <c r="A168" s="11" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="18.5">
       <c r="A169" s="11" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="18.5">
       <c r="A170" s="11" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="18.5">
       <c r="A171" s="11" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="18.5">
       <c r="A172" s="11" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="18.5">
       <c r="A173" s="11" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="18.5">
       <c r="A174" s="11" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="18.5">
       <c r="A175" s="11" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="18.5">
       <c r="A176" s="11" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="18.5">
       <c r="A177" s="11" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="18.5">
       <c r="A178" s="11" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="18.5">
       <c r="A179" s="11" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="18.5">
       <c r="A180" s="11" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="18.5">
       <c r="A181" s="11" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.5">
       <c r="A182" s="11" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="18.5">
       <c r="A183" s="11" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="18.5">
       <c r="A184" s="11" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="18.5">
       <c r="A185" s="11" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="18.5">
       <c r="A186" s="11" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="18.5">
       <c r="A187" s="11" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="18.5">
       <c r="A188" s="11" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="18.5">
       <c r="A189" s="11" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="18.5">
       <c r="A190" s="11" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="18.5">
       <c r="A191" s="11" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="18.5">
       <c r="A192" s="11" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="18.5">
       <c r="A193" s="11" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="18.5">
       <c r="A194" s="11" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="18.5">
       <c r="A195" s="11" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="18.5">
       <c r="A196" s="11" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="18.5">
       <c r="A197" s="11" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="18.5">
       <c r="A198" s="11" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="18.5">
       <c r="A199" s="11" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="18.5">
       <c r="A200" s="11" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="18.5">
       <c r="A201" s="11" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="18.5">
       <c r="A202" s="11" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.5">
       <c r="A203" s="11" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="18.5">
       <c r="A204" s="11" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="18.5">
       <c r="A205" s="11" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="18.5">
       <c r="A206" s="11" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="18.5">
       <c r="A207" s="11" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="18.5">
       <c r="A208" s="11" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="18.5">
       <c r="A209" s="11" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="18.5">
       <c r="A210" s="11" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="18.5">
       <c r="A211" s="11" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="18.5">
       <c r="A212" s="11" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="18.5">
       <c r="A213" s="11" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="18.5">
       <c r="A214" s="11" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="18.5">
       <c r="A215" s="11" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="18.5">
       <c r="A216" s="11" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="18.5">
       <c r="A217" s="11" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="18.5">
       <c r="A218" s="11" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="18.5">
       <c r="A219" s="11" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="18.5">
       <c r="A220" s="11" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="18.5">
       <c r="A221" s="11" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="18.5">
       <c r="A222" s="11" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="18.5">
       <c r="A223" s="11" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="18.5">
       <c r="A224" s="11" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="18.5">
       <c r="A225" s="11" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="18.5">
       <c r="A226" s="11" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="18.5">
       <c r="A227" s="11" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="18.5">
       <c r="A228" s="11" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="18.5">
       <c r="A229" s="11" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="18.5">
       <c r="A230" s="11" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="18.5">
       <c r="A231" s="11" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="18.5">
       <c r="A232" s="11" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="18.5">
       <c r="A233" s="11" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="18.5">
       <c r="A234" s="11" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="18.5">
       <c r="A235" s="11" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="18.5">
       <c r="A236" s="11" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="18.5">
       <c r="A237" s="11" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="E237" s="12" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="18.5">
       <c r="A238" s="11" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="E238" s="12" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="18.5">
       <c r="A239" s="11" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="18.5">
       <c r="A240" s="11" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="18.5">
       <c r="A241" s="11" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="E241" s="12" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="18.5">
       <c r="A242" s="11" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="E242" s="12" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="18.5">
       <c r="A243" s="11" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="E243" s="12" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="18.5">
       <c r="A244" s="11" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="E244" s="12" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="18.5">
       <c r="A245" s="11" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="18.5">
       <c r="A246" s="11" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="18.5">
       <c r="A247" s="11" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="18.5">
       <c r="A248" s="11" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="18.5">
       <c r="A249" s="11" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="18.5">
       <c r="A250" s="11" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="18.5">
       <c r="A251" s="11" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="18.5">
       <c r="A252" s="11" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="18.5">
       <c r="A253" s="11" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="18.5">
       <c r="A254" s="11" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="18.5">
       <c r="A255" s="11" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="18.5">
       <c r="A256" s="11" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="18.5">
       <c r="A257" s="11" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="18.5">
       <c r="A258" s="11" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="18.5">
       <c r="A259" s="11" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="18.5">
       <c r="A260" s="11" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="18.5">
       <c r="A261" s="11" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="18.5">
       <c r="A262" s="11" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="18.5">
       <c r="A263" s="11" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="18.5">
       <c r="A264" s="11" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="18.5">
       <c r="A265" s="11" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="18.5">
       <c r="A266" s="11" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="18.5">
       <c r="A267" s="11" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="18.5">
       <c r="A268" s="11" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="18.5">
       <c r="A269" s="11" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="18.5">
       <c r="A270" s="11" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="18.5">
       <c r="A271" s="11" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="18.5">
       <c r="A272" s="11" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="18.5">
       <c r="A273" s="11" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="18.5">
       <c r="A274" s="11" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="18.5">
       <c r="A275" s="11" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="18.5">
       <c r="A276" s="11" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="18.5">
       <c r="A277" s="11" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="18.5">
       <c r="A278" s="11" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="18.5">
       <c r="A279" s="11" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="18.5">
       <c r="A280" s="11" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="18.5">
       <c r="A281" s="11" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="E281" s="12" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="18.5">
       <c r="A282" s="11" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="18.5">
       <c r="A283" s="11" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="E283" s="12" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="18.5">
       <c r="A284" s="11" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="E284" s="12" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="18.5">
       <c r="A285" s="11" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="18.5">
       <c r="A286" s="11" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="18.5">
       <c r="A287" s="11" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="E287" s="12" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="18.5">
       <c r="A288" s="11" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="E288" s="12" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="18.5">
       <c r="A289" s="11" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="E289" s="12" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="18.5">
       <c r="A290" s="11" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="E290" s="12" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="18.5">
       <c r="A291" s="11" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="E291" s="12" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="18.5">
       <c r="A292" s="11" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="E292" s="12" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="18.5">
       <c r="A293" s="11" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="E293" s="12" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="18.5">
       <c r="A294" s="11" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="E294" s="12" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="18.5">
       <c r="A295" s="11" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="E295" s="12" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="18.5">
       <c r="A296" s="11" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="B296" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="E296" s="12" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="18.5">
       <c r="A297" s="11" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="E297" s="12" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="18.5">
       <c r="A298" s="11" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="E298" s="12" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="18.5">
       <c r="A299" s="11" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="E299" s="12" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="18.5">
       <c r="A300" s="11" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="E300" s="12" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="18.5">
       <c r="A301" s="11" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="E301" s="12" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="18.5">
       <c r="A302" s="11" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="E302" s="12" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="18.5">
       <c r="A303" s="11" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="E303" s="12" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="18.5">
       <c r="A304" s="11" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="E304" s="12" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="18.5">
       <c r="A305" s="11" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="E305" s="12" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="18.5">
       <c r="A306" s="11" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="E306" s="12" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="18.5">
       <c r="A307" s="11" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="E307" s="12" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="18.5">
       <c r="A308" s="11" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="E308" s="12" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="18.5">
       <c r="A309" s="11" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C309" s="12" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D309" s="12" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E309" s="12" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="18.5">
+      <c r="A310" s="11" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D310" s="12" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E310" s="12" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="18.5">
+      <c r="A311" s="11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D311" s="12" t="s">
         <v>1343</v>
       </c>
-      <c r="B309" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C309" s="12" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D309" s="12" t="s">
+      <c r="E311" s="12" t="s">
         <v>1344</v>
-      </c>
-      <c r="E309" s="12" t="s">
-        <v>1345</v>
       </c>
     </row>
   </sheetData>
@@ -30480,124 +30798,124 @@
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1" ht="62">
       <c r="A3" s="8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1381</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>1382</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>1383</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>1384</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>1385</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1386</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" ht="62">
       <c r="A4" s="8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1387</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>1388</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>1389</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>1390</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>1391</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>1392</v>
       </c>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1" ht="62">
       <c r="A5" s="8" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1393</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>1395</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>1396</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>1397</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" ht="62">
       <c r="A6" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1398</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>1399</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>1400</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>1401</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>1402</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>1403</v>
       </c>
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1" ht="62">
       <c r="A7" s="8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1404</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>1405</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>1407</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>1408</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>1409</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1" ht="62">
       <c r="A8" s="8" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1411</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>1413</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>1414</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1415</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -30678,10 +30996,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CC0ADC-2A79-4F3D-B20D-841E29F3293C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5"/>
@@ -30694,10 +31012,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="26" customFormat="1">
       <c r="A1" s="26" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C1" s="37"/>
     </row>
@@ -30706,35 +31024,62 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31">
       <c r="A4" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>1423</v>
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B7" s="1">
+        <v>31536000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2628000</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vick\dev\deadline\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98558E1-145C-4433-B4A0-41E122FFC488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FA3BF7-8C0E-4E37-AB61-4BA4AB256643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data.i18n" sheetId="2" r:id="rId1"/>
@@ -14747,14 +14747,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>正态分布标准差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lifeStd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>year</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -21325,6 +21317,14 @@
       </rPr>
       <t>の人に勝った</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeBeta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿命分布形状参数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -21903,7 +21903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5590B4B-DC0D-4AF5-B15D-C9CA28553DC9}">
   <dimension ref="A1:E320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -22095,155 +22095,155 @@
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="18">
       <c r="A15" s="3" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1">
       <c r="A16" s="35" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1">
       <c r="A17" s="35" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="16.5">
       <c r="A18" s="35" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1">
       <c r="A19" s="35" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1">
       <c r="A20" s="35" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="16.5">
       <c r="A21" s="35" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" ht="36">
       <c r="A22" s="3" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E22" s="41" t="s">
         <v>1464</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="18">
       <c r="A23" s="3" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D23" s="37" t="s">
         <v>1470</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="E23" s="40" t="s">
         <v>1471</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.5">
@@ -22268,16 +22268,16 @@
         <v>253</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>556</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.5">
@@ -22285,7 +22285,7 @@
         <v>254</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>557</v>
@@ -22302,16 +22302,16 @@
         <v>255</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>560</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18">
@@ -22319,7 +22319,7 @@
         <v>1171</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>1172</v>
@@ -22328,24 +22328,24 @@
         <v>1173</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18">
       <c r="A30" s="8" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.5">
@@ -22537,172 +22537,172 @@
     </row>
     <row r="44" spans="1:5" ht="18.5">
       <c r="A44" s="29" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18.5">
       <c r="A45" s="29" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>520</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18.5">
       <c r="A46" s="29" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>521</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18.5">
       <c r="A47" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>523</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18.5">
       <c r="A48" s="29" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>522</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.5">
       <c r="A49" s="29" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>528</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.5">
       <c r="A50" s="29" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>524</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.5">
       <c r="A51" s="29" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>525</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.5">
       <c r="A52" s="29" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>526</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.5">
       <c r="A53" s="29" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>527</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -22712,767 +22712,767 @@
     </row>
     <row r="55" spans="1:5" ht="18.5">
       <c r="A55" s="30" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>293</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18.5">
       <c r="A56" s="30" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>289</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.5">
       <c r="A57" s="30" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>290</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.5">
       <c r="A58" s="30" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>291</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.5">
       <c r="A59" s="30" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>292</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.5">
       <c r="A61" s="30" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>295</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18.5">
       <c r="A62" s="30" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>283</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18.5">
       <c r="A63" s="30" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>284</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="18.5">
       <c r="A64" s="30" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>285</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18.5">
       <c r="A65" s="30" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>286</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="18.5">
       <c r="A66" s="30" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>287</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="18.5">
       <c r="A68" s="30" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>294</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="18.5">
       <c r="A69" s="30" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>279</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="18.5">
       <c r="A70" s="30" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>280</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18.5">
       <c r="A71" s="30" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>281</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="18.5">
       <c r="A72" s="30" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>282</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="37">
       <c r="A74" s="30" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>296</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.5">
       <c r="A75" s="30" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>274</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="18.5">
       <c r="A76" s="30" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>275</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18.5">
       <c r="A77" s="30" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>276</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="18.5">
       <c r="A78" s="30" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="18.5">
       <c r="A79" s="30" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>278</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="37">
       <c r="A80" s="30" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>297</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="18.5">
       <c r="A81" s="30" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>273</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="18.5">
       <c r="A82" s="30" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>1283</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="D82" s="9" t="s">
         <v>1284</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>1286</v>
-      </c>
       <c r="E82" s="9" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18.5">
       <c r="A83" s="30" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>1287</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="D83" s="9" t="s">
         <v>1288</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>1290</v>
-      </c>
       <c r="E83" s="9" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="18.5">
       <c r="A84" s="30" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>1291</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="D84" s="9" t="s">
         <v>1292</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>1294</v>
-      </c>
       <c r="E84" s="9" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="18.5">
       <c r="A85" s="30" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>1295</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="D85" s="9" t="s">
         <v>1296</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>1298</v>
-      </c>
       <c r="E85" s="9" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="18.5">
       <c r="A88" s="30" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>298</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="18.5">
       <c r="A89" s="31" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="18.5">
       <c r="A90" s="30" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="18.5">
       <c r="A91" s="30" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="18.5">
       <c r="A92" s="30" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="18.5">
       <c r="A93" s="30" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="18.5">
       <c r="A94" s="30" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>288</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="18.5">
       <c r="A97" s="8" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>511</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="18.5">
       <c r="A98" s="8" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>512</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18.5">
       <c r="A99" s="32" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>536</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="18.5">
       <c r="A100" s="32" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>513</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18.5">
       <c r="A101" s="32" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>514</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18.5">
       <c r="A102" s="32" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>515</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="37">
       <c r="A103" s="32" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>516</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="31">
       <c r="A104" s="32" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>517</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="31">
       <c r="A105" s="32" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>518</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="31">
       <c r="A106" s="32" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>519</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -30026,186 +30026,186 @@
     </row>
     <row r="2" spans="1:5" s="16" customFormat="1" ht="18.5">
       <c r="A2" s="16" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>1332</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>1333</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="82.5">
       <c r="A3" s="7" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="74.5">
       <c r="A4" s="7" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>532</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="188">
       <c r="A5" s="7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="95">
       <c r="A6" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="89">
       <c r="A7" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>535</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="91">
       <c r="A8" s="7" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="91">
       <c r="A9" s="7" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B9" s="7">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="194.5">
       <c r="A10" s="7" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B10" s="7">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="190.5">
       <c r="A11" s="7" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B11" s="7">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>533</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="275">
       <c r="A12" s="7" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B12" s="7">
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -30262,7 +30262,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="33" customFormat="1">
@@ -30288,141 +30288,141 @@
     </row>
     <row r="3" spans="1:8" ht="62">
       <c r="A3" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>1353</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>1354</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>1355</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1356</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>1357</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="42" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="62">
       <c r="A4" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>1358</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>1359</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>1360</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>1362</v>
-      </c>
       <c r="H4" s="42" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="62">
       <c r="A5" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>1363</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>1364</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1366</v>
       </c>
       <c r="F5" s="9"/>
       <c r="H5" s="42" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="62">
       <c r="A6" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>1367</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>1368</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>1369</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1371</v>
-      </c>
       <c r="H6" s="42" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="62">
       <c r="A7" s="5" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>1372</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>1373</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>1374</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>1375</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>1376</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>1377</v>
-      </c>
       <c r="H7" s="42" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="62">
       <c r="A8" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>1378</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>1379</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1381</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="42" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="18" spans="7:7">
@@ -30495,8 +30495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CC0ADC-2A79-4F3D-B20D-841E29F3293C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5"/>
@@ -30554,18 +30554,18 @@
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="1" t="s">
-        <v>1175</v>
+        <v>1474</v>
       </c>
       <c r="B6" s="1">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>1174</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B7" s="1">
         <v>31536000</v>
@@ -30573,7 +30573,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B8" s="1">
         <v>2628000</v>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vick\dev\deadline\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FA3BF7-8C0E-4E37-AB61-4BA4AB256643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7366A8-7163-410A-AFD1-A5B2294F51D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="1477">
   <si>
     <t>Language</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -21320,11 +21320,29 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>lifeBeta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寿命分布形状参数</t>
+    <t>lifeDistributed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    [0, 0],
+    [10, 50],
+    [20, 80],
+    [30, 150],
+    [40, 300],
+    [50, 600],
+    [60, 1300],
+    [70, 5600],
+    [80, 8500],
+    [90, 9968],
+    [100, 9998],
+    [105, 9999],
+    [120, 10000],
+]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿命累积分布（万人）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -21332,7 +21350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -21425,13 +21443,6 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -21559,7 +21570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -21634,18 +21645,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -21657,6 +21665,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -21666,16 +21677,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -22100,24 +22108,24 @@
       <c r="B15" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>1434</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>1448</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>1442</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -22128,13 +22136,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>1453</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>1443</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>1453</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -22145,16 +22153,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="16.5">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>1436</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>1444</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>1436</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="35" t="s">
         <v>1436</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -22162,13 +22170,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>1439</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>1445</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>1439</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -22179,13 +22187,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="34" t="s">
         <v>1437</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>1446</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>1437</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -22196,19 +22204,19 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="16.5">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>1440</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1447</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>1440</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -22219,13 +22227,13 @@
       <c r="B22" s="4" t="s">
         <v>1462</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>1461</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="34" t="s">
         <v>1463</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="40" t="s">
         <v>1464</v>
       </c>
     </row>
@@ -22236,13 +22244,13 @@
       <c r="B23" s="4" t="s">
         <v>1468</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>1469</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="36" t="s">
         <v>1470</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="39" t="s">
         <v>1471</v>
       </c>
     </row>
@@ -22273,10 +22281,10 @@
       <c r="C26" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>1179</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="27" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -22304,13 +22312,13 @@
       <c r="B28" s="9" t="s">
         <v>1183</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>1182</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="27" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -22536,7 +22544,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.5">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>1189</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -22553,7 +22561,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="18.5">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>1191</v>
       </c>
       <c r="B45" s="18" t="s">
@@ -22570,7 +22578,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="18.5">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>1193</v>
       </c>
       <c r="B46" s="19" t="s">
@@ -22587,7 +22595,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="18.5">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>1195</v>
       </c>
       <c r="B47" s="19" t="s">
@@ -22604,7 +22612,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="18.5">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>1197</v>
       </c>
       <c r="B48" s="19" t="s">
@@ -22621,7 +22629,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.5">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="28" t="s">
         <v>1199</v>
       </c>
       <c r="B49" s="19" t="s">
@@ -22638,7 +22646,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.5">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>1201</v>
       </c>
       <c r="B50" s="19" t="s">
@@ -22655,7 +22663,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.5">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="28" t="s">
         <v>1203</v>
       </c>
       <c r="B51" s="19" t="s">
@@ -22672,7 +22680,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.5">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="28" t="s">
         <v>1205</v>
       </c>
       <c r="B52" s="19" t="s">
@@ -22689,7 +22697,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.5">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>1207</v>
       </c>
       <c r="B53" s="19" t="s">
@@ -22711,7 +22719,7 @@
       <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:5" ht="18.5">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="29" t="s">
         <v>1209</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -22728,7 +22736,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="18.5">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="29" t="s">
         <v>1212</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -22745,7 +22753,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.5">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="29" t="s">
         <v>1215</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -22762,7 +22770,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.5">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="29" t="s">
         <v>1218</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -22779,7 +22787,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.5">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="29" t="s">
         <v>1221</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -22796,7 +22804,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.5">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="29" t="s">
         <v>1224</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -22813,7 +22821,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="18.5">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="29" t="s">
         <v>1227</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -22830,7 +22838,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="18.5">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="29" t="s">
         <v>1230</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -22847,7 +22855,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="18.5">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="29" t="s">
         <v>1233</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -22864,7 +22872,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="18.5">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="29" t="s">
         <v>1236</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -22881,7 +22889,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="18.5">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="29" t="s">
         <v>1239</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -22898,7 +22906,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="18.5">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="29" t="s">
         <v>1242</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -22915,7 +22923,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="18.5">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="B69" s="18" t="s">
@@ -22932,7 +22940,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="18.5">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="29" t="s">
         <v>1248</v>
       </c>
       <c r="B70" s="18" t="s">
@@ -22949,7 +22957,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="18.5">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="29" t="s">
         <v>1251</v>
       </c>
       <c r="B71" s="18" t="s">
@@ -22966,7 +22974,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="18.5">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="29" t="s">
         <v>1254</v>
       </c>
       <c r="B72" s="18" t="s">
@@ -22983,7 +22991,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="37">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="29" t="s">
         <v>1257</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -23000,7 +23008,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.5">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="29" t="s">
         <v>1260</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -23017,7 +23025,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="18.5">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="29" t="s">
         <v>1263</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -23034,7 +23042,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="18.5">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="29" t="s">
         <v>1266</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -23051,7 +23059,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="18.5">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="29" t="s">
         <v>1269</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -23068,7 +23076,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="18.5">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="29" t="s">
         <v>1272</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -23085,7 +23093,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="37">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="29" t="s">
         <v>1275</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -23102,7 +23110,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="18.5">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="29" t="s">
         <v>1278</v>
       </c>
       <c r="B81" s="18" t="s">
@@ -23119,7 +23127,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="18.5">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="29" t="s">
         <v>1281</v>
       </c>
       <c r="B82" s="18" t="s">
@@ -23136,7 +23144,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="18.5">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="29" t="s">
         <v>1285</v>
       </c>
       <c r="B83" s="18" t="s">
@@ -23153,7 +23161,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="18.5">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="29" t="s">
         <v>1289</v>
       </c>
       <c r="B84" s="18" t="s">
@@ -23170,7 +23178,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="18.5">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="29" t="s">
         <v>1293</v>
       </c>
       <c r="B85" s="18" t="s">
@@ -23187,7 +23195,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="18.5">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="29" t="s">
         <v>1297</v>
       </c>
       <c r="B88" s="9" t="s">
@@ -23204,7 +23212,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="18.5">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="30" t="s">
         <v>1300</v>
       </c>
       <c r="B89" s="9" t="s">
@@ -23221,7 +23229,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="18.5">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="29" t="s">
         <v>1301</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -23238,7 +23246,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="18.5">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="29" t="s">
         <v>1302</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -23255,7 +23263,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="18.5">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="29" t="s">
         <v>1304</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -23272,7 +23280,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="18.5">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="29" t="s">
         <v>1306</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -23289,7 +23297,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="18.5">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="29" t="s">
         <v>1308</v>
       </c>
       <c r="B94" s="9" t="s">
@@ -23340,7 +23348,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="18.5">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="31" t="s">
         <v>1314</v>
       </c>
       <c r="B99" s="18" t="s">
@@ -23357,7 +23365,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="18.5">
-      <c r="A100" s="32" t="s">
+      <c r="A100" s="31" t="s">
         <v>1316</v>
       </c>
       <c r="B100" s="18" t="s">
@@ -23374,7 +23382,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="18.5">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="31" t="s">
         <v>1318</v>
       </c>
       <c r="B101" s="18" t="s">
@@ -23391,7 +23399,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="18.5">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="31" t="s">
         <v>1320</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -23408,7 +23416,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="37">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="31" t="s">
         <v>1322</v>
       </c>
       <c r="B103" s="18" t="s">
@@ -23425,7 +23433,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="31">
-      <c r="A104" s="32" t="s">
+      <c r="A104" s="31" t="s">
         <v>1324</v>
       </c>
       <c r="B104" s="18" t="s">
@@ -23442,7 +23450,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="31">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="31" t="s">
         <v>1326</v>
       </c>
       <c r="B105" s="18" t="s">
@@ -23459,7 +23467,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="31">
-      <c r="A106" s="32" t="s">
+      <c r="A106" s="31" t="s">
         <v>1328</v>
       </c>
       <c r="B106" s="18" t="s">
@@ -23476,7 +23484,7 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="32"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="18"/>
       <c r="C107" s="6"/>
       <c r="D107" s="18"/>
@@ -30239,52 +30247,52 @@
     <col min="9" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" s="32" customFormat="1">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="33" customFormat="1">
-      <c r="B2" s="34">
+    <row r="2" spans="1:8" s="32" customFormat="1">
+      <c r="B2" s="33">
         <v>0</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="33">
         <v>1</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="33">
         <v>2</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="33">
         <v>3</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="33">
         <v>4</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <v>5</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="62">
       <c r="A3" s="5" t="s">
@@ -30306,7 +30314,7 @@
         <v>1355</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="41" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -30329,7 +30337,7 @@
       <c r="F4" s="9" t="s">
         <v>1360</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="41" t="s">
         <v>1453</v>
       </c>
     </row>
@@ -30350,7 +30358,7 @@
         <v>1364</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>1436</v>
       </c>
     </row>
@@ -30373,7 +30381,7 @@
       <c r="F6" s="9" t="s">
         <v>1369</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="41" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -30399,7 +30407,7 @@
       <c r="G7" s="9" t="s">
         <v>1375</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="41" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -30421,7 +30429,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="41" t="s">
         <v>1440</v>
       </c>
     </row>
@@ -30496,13 +30504,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5"/>
   <cols>
     <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -30552,31 +30560,31 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>1474</v>
+        <v>1174</v>
       </c>
       <c r="B6" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>1475</v>
+        <v>31536000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B7" s="1">
-        <v>31536000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>2628000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="219.5">
       <c r="A8" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2628000</v>
+        <v>1474</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>1476</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vick\dev\deadline\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qiuyuan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7366A8-7163-410A-AFD1-A5B2294F51D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9CCC40-D223-4A6C-AD19-F035CCC8242E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data.i18n" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="1484">
   <si>
     <t>Language</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -21100,9 +21100,6 @@
   </si>
   <si>
     <t>戒酒</t>
-  </si>
-  <si>
-    <t>戒酒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -21114,83 +21111,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Maintain a healthy weight</t>
-  </si>
-  <si>
-    <t>Exercise regularly</t>
-  </si>
-  <si>
-    <t>Ensure adequate and healthy sleep</t>
-  </si>
-  <si>
-    <t>Quit drinking alcohol</t>
-  </si>
-  <si>
-    <t>Quit smoking</t>
-  </si>
-  <si>
-    <t>Reduce physical and mental stress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>健康建議</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>維持健康體重</t>
-  </si>
-  <si>
-    <t>定期運動</t>
-  </si>
-  <si>
-    <t>戒煙</t>
-  </si>
-  <si>
-    <t>降低身心壓力</t>
-  </si>
-  <si>
     <t>定期运动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>健康アドバイス</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康的な体重を維持する</t>
-  </si>
-  <si>
-    <t>定期的に運動する</t>
-  </si>
-  <si>
-    <t>健康的な睡眠を確保する</t>
-  </si>
-  <si>
-    <t>アルコールを断つ</t>
-  </si>
-  <si>
-    <t>喫煙を断つ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身体的および精神的ストレスを減らす</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> </t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -21345,12 +21274,1072 @@
     <t>寿命累积分布（万人）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>控制健康体重：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天减少相当于一杯奶茶的热量摄入，每月可减重 2 公斤，降低肥胖相关疾病风险。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定期运动：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天步行时加快走路速度，可大幅降低心血管疾病和猝死风险。或选择喜欢的运动形式，如打球或骑行，逐渐让锻炼成为日常习惯。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保持健康睡眠：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每晚保持 7-9 小时睡眠，可以先从今晚定闹钟固定时间睡觉开始，然后逐步提前闹钟时间，养成习惯。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少饮酒：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每周减少 2 次饮酒，肝脏修复能力可显著提升，长期降低癌症风险。在非必要场合尽量选择无酒精饮料替代。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少吸烟：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先尝试戒烟一天，24 小时后，心脏病风险开始下降，1 年后降低 50%。试着每天少抽一根烟，逐步摆脱烟瘾。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降低身心压力：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天进行 10 分钟深呼吸或冥想，听一听放松的音乐，有助于降低焦虑，提高专注力，帮助恢复心理平衡。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Maintain a Healthy Weight:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Reducing daily calorie intake by the equivalent of a piece of fried chicken. can help lose 2 kg per month and lower the risk of obesity-related diseases.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Regular Exercise:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Increasing walking speed during daily walks can significantly reduce the risk of cardiovascular disease. Alternatively, choose a preferred activity such as playing sports or cycling to gradually make exercise a habit.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Healthy Sleep Habits:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Maintaining 7-9 hours of sleep per night is beneficial. Start by setting an alarm for a fixed bedtime tonight, then gradually adjust it earlier to establish a routine.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Reduce Alcohol Consumption: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Cutting down alcohol intake by two occasions per week can significantly enhance liver recovery and reduce long-term cancer risk. Opt for non-alcoholic beverages in non-essential drinking situations.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Reduce Smoking: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Try quitting smoking for just one day—within 24 hours, your risk of heart disease begins to decline, and after one year, it is reduced by 50%. Gradually decrease the number of cigarettes smoked each day to break the habit.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Lower Mental and Physical Stress:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Practicing deep breathing or meditation for 10 minutes daily, or listening to relaxing music, can help alleviate anxiety, improve focus, and restore mental balance.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保持健康睡眠：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 每晚維持 7-9 小時睡眠有助於身心健康。可從今晚開始設定固定睡覺時間，然後逐步提前，建立良好作息。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定期運動：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天步行時加快步速，可大幅降低心血管疾病及猝死風險。或者選擇喜愛的運動，如打球或騎單車，逐步養成運動習慣。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>控制健康體重：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天減少相當於一杯奶茶的熱量攝取，每月可減重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公斤，降低肥胖相關疾病風險。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>減少飲酒：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每週減少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次飲酒，有助於肝臟修復，並降低長遠的癌症風險。在非必要場合，盡量選擇無酒精飲品作替代。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>減少吸煙：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嘗試先戒煙一天，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小時後，心臟病風險開始下降，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年後可減少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。每天減少吸煙數量，逐步擺脫煙癮。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降低身心壓力：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天進行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分鐘深呼吸或冥想，或聆聽輕鬆音樂，有助減輕焦慮、提升專注力，並幫助恢復心理平衡。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>健康的な体重を維持する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日あたりミルクティー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>杯分のカロリーを減らすことで、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>か月に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>2kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の減量が可能になり、肥満関連疾患のリスクを低減できます。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定期的な運動</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>毎日のウォーキングで歩く速度を上げるだけで、心血管疾患や突然死のリスクを大幅に減らすことができます。また、スポーツやサイクリングなど好きな運動を選び、少しずつ習慣化しましょう。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>健康的な睡眠習慣</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>毎晩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時間の睡眠を確保することが重要です。まずは今夜、就寝時間を固定するアラームを設定し、徐々に早めて習慣化しましょう。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>飲酒を減らす</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回の飲酒を減らすことで、肝臓の回復力が向上し、長期的にがんのリスクを低減できます。不要な飲酒の場面では、できるだけノンアルコール飲料を選びましょう。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喫煙を減らす</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>まず</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日禁煙してみましょう。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時間後には心臓病のリスクが低下し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>年後には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>減少します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>本ずつ本数を減らし、徐々に禁煙を達成しましょう。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心身のストレスを軽減する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>毎日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>分間の深呼吸や瞑想、リラックスできる音楽を聴くことで、不安を和らげ、集中力を高め、精神的なバランスを取り戻すのに役立ちます。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -21509,6 +22498,49 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -21911,18 +22943,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5590B4B-DC0D-4AF5-B15D-C9CA28553DC9}">
   <dimension ref="A1:E320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="50.08203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="64.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="49.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="50.9140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="48.83203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="65.83203125" style="9" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="9"/>
@@ -21948,7 +22980,7 @@
     <row r="2" spans="1:5" s="14" customFormat="1">
       <c r="A2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="18.5">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>269</v>
       </c>
@@ -21982,7 +23014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.5">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
         <v>1169</v>
       </c>
@@ -21999,7 +23031,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.5">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>1170</v>
       </c>
@@ -22016,7 +23048,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.5">
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -22033,7 +23065,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.5">
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
@@ -22050,7 +23082,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.5">
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -22067,7 +23099,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.5">
+    <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
         <v>267</v>
       </c>
@@ -22084,7 +23116,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="55.5">
+    <row r="13" spans="1:5" ht="43.5">
       <c r="A13" s="8" t="s">
         <v>268</v>
       </c>
@@ -22103,158 +23135,158 @@
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="18">
       <c r="A15" s="3" t="s">
-        <v>1466</v>
+        <v>1449</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>1434</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="94.5" customHeight="1">
       <c r="A16" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
+      <c r="A17" s="34" t="s">
         <v>1442</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1">
-      <c r="A17" s="34" t="s">
-        <v>1453</v>
-      </c>
       <c r="B17" s="4" t="s">
-        <v>1443</v>
+        <v>1467</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="16.5">
+        <v>1461</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
       <c r="A18" s="34" t="s">
         <v>1436</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1444</v>
+        <v>1468</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>1436</v>
+        <v>1462</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1">
+        <v>1472</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1445</v>
+        <v>1469</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1">
+        <v>1463</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
       <c r="A20" s="34" t="s">
         <v>1437</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1446</v>
+        <v>1470</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="16.5">
+        <v>1464</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
       <c r="A21" s="34" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1447</v>
+        <v>1471</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>1452</v>
+        <v>1465</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>1477</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>1460</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" ht="36">
       <c r="A22" s="3" t="s">
-        <v>1467</v>
+        <v>1450</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1462</v>
+        <v>1445</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>1461</v>
+        <v>1444</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>1463</v>
+        <v>1446</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>1464</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="18">
       <c r="A23" s="3" t="s">
-        <v>1472</v>
+        <v>1455</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1468</v>
+        <v>1451</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>1469</v>
+        <v>1452</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>1470</v>
+        <v>1453</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18.5">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
         <v>252</v>
       </c>
@@ -22271,7 +23303,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.5">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="8" t="s">
         <v>253</v>
       </c>
@@ -22288,7 +23320,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.5">
+    <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
         <v>254</v>
       </c>
@@ -22305,7 +23337,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.5">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="8" t="s">
         <v>255</v>
       </c>
@@ -22353,10 +23385,10 @@
         <v>1186</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18.5">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
         <v>257</v>
       </c>
@@ -22373,7 +23405,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18.5">
+    <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
         <v>256</v>
       </c>
@@ -22390,7 +23422,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18.5">
+    <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
         <v>258</v>
       </c>
@@ -22407,7 +23439,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18.5">
+    <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
         <v>259</v>
       </c>
@@ -22424,7 +23456,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18.5">
+    <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
         <v>260</v>
       </c>
@@ -22441,7 +23473,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18.5">
+    <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
         <v>261</v>
       </c>
@@ -22458,7 +23490,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.5">
+    <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
         <v>262</v>
       </c>
@@ -22492,7 +23524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18.5">
+    <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
         <v>264</v>
       </c>
@@ -22509,7 +23541,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18.5">
+    <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
         <v>265</v>
       </c>
@@ -22526,7 +23558,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18.5">
+    <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
         <v>266</v>
       </c>
@@ -22543,7 +23575,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.5">
+    <row r="44" spans="1:5">
       <c r="A44" s="28" t="s">
         <v>1189</v>
       </c>
@@ -22560,7 +23592,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18.5">
+    <row r="45" spans="1:5">
       <c r="A45" s="28" t="s">
         <v>1191</v>
       </c>
@@ -22577,7 +23609,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18.5">
+    <row r="46" spans="1:5">
       <c r="A46" s="28" t="s">
         <v>1193</v>
       </c>
@@ -22594,7 +23626,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18.5">
+    <row r="47" spans="1:5">
       <c r="A47" s="28" t="s">
         <v>1195</v>
       </c>
@@ -22611,7 +23643,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.5">
+    <row r="48" spans="1:5">
       <c r="A48" s="28" t="s">
         <v>1197</v>
       </c>
@@ -22628,7 +23660,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.5">
+    <row r="49" spans="1:5">
       <c r="A49" s="28" t="s">
         <v>1199</v>
       </c>
@@ -22645,7 +23677,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.5">
+    <row r="50" spans="1:5">
       <c r="A50" s="28" t="s">
         <v>1201</v>
       </c>
@@ -22662,7 +23694,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.5">
+    <row r="51" spans="1:5">
       <c r="A51" s="28" t="s">
         <v>1203</v>
       </c>
@@ -22679,7 +23711,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.5">
+    <row r="52" spans="1:5">
       <c r="A52" s="28" t="s">
         <v>1205</v>
       </c>
@@ -22696,7 +23728,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.5">
+    <row r="53" spans="1:5">
       <c r="A53" s="28" t="s">
         <v>1207</v>
       </c>
@@ -22718,7 +23750,7 @@
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
     </row>
-    <row r="55" spans="1:5" ht="18.5">
+    <row r="55" spans="1:5">
       <c r="A55" s="29" t="s">
         <v>1209</v>
       </c>
@@ -22735,7 +23767,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.5">
+    <row r="56" spans="1:5">
       <c r="A56" s="29" t="s">
         <v>1212</v>
       </c>
@@ -22752,7 +23784,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.5">
+    <row r="57" spans="1:5">
       <c r="A57" s="29" t="s">
         <v>1215</v>
       </c>
@@ -22769,7 +23801,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18.5">
+    <row r="58" spans="1:5">
       <c r="A58" s="29" t="s">
         <v>1218</v>
       </c>
@@ -22786,7 +23818,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.5">
+    <row r="59" spans="1:5">
       <c r="A59" s="29" t="s">
         <v>1221</v>
       </c>
@@ -22803,7 +23835,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18.5">
+    <row r="61" spans="1:5">
       <c r="A61" s="29" t="s">
         <v>1224</v>
       </c>
@@ -22820,7 +23852,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18.5">
+    <row r="62" spans="1:5">
       <c r="A62" s="29" t="s">
         <v>1227</v>
       </c>
@@ -22837,7 +23869,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18.5">
+    <row r="63" spans="1:5">
       <c r="A63" s="29" t="s">
         <v>1230</v>
       </c>
@@ -22854,7 +23886,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18.5">
+    <row r="64" spans="1:5">
       <c r="A64" s="29" t="s">
         <v>1233</v>
       </c>
@@ -22871,7 +23903,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18.5">
+    <row r="65" spans="1:5">
       <c r="A65" s="29" t="s">
         <v>1236</v>
       </c>
@@ -22888,7 +23920,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18.5">
+    <row r="66" spans="1:5">
       <c r="A66" s="29" t="s">
         <v>1239</v>
       </c>
@@ -22905,7 +23937,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18.5">
+    <row r="68" spans="1:5">
       <c r="A68" s="29" t="s">
         <v>1242</v>
       </c>
@@ -22922,7 +23954,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18.5">
+    <row r="69" spans="1:5">
       <c r="A69" s="29" t="s">
         <v>1245</v>
       </c>
@@ -22939,7 +23971,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18.5">
+    <row r="70" spans="1:5">
       <c r="A70" s="29" t="s">
         <v>1248</v>
       </c>
@@ -22956,7 +23988,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18.5">
+    <row r="71" spans="1:5">
       <c r="A71" s="29" t="s">
         <v>1251</v>
       </c>
@@ -22973,7 +24005,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18.5">
+    <row r="72" spans="1:5">
       <c r="A72" s="29" t="s">
         <v>1254</v>
       </c>
@@ -22990,7 +24022,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="37">
+    <row r="74" spans="1:5" ht="29">
       <c r="A74" s="29" t="s">
         <v>1257</v>
       </c>
@@ -23007,7 +24039,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18.5">
+    <row r="75" spans="1:5">
       <c r="A75" s="29" t="s">
         <v>1260</v>
       </c>
@@ -23024,7 +24056,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18.5">
+    <row r="76" spans="1:5">
       <c r="A76" s="29" t="s">
         <v>1263</v>
       </c>
@@ -23041,7 +24073,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18.5">
+    <row r="77" spans="1:5">
       <c r="A77" s="29" t="s">
         <v>1266</v>
       </c>
@@ -23058,7 +24090,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18.5">
+    <row r="78" spans="1:5">
       <c r="A78" s="29" t="s">
         <v>1269</v>
       </c>
@@ -23075,7 +24107,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18.5">
+    <row r="79" spans="1:5">
       <c r="A79" s="29" t="s">
         <v>1272</v>
       </c>
@@ -23092,7 +24124,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="37">
+    <row r="80" spans="1:5" ht="29">
       <c r="A80" s="29" t="s">
         <v>1275</v>
       </c>
@@ -23109,7 +24141,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="18.5">
+    <row r="81" spans="1:5">
       <c r="A81" s="29" t="s">
         <v>1278</v>
       </c>
@@ -23126,7 +24158,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18.5">
+    <row r="82" spans="1:5">
       <c r="A82" s="29" t="s">
         <v>1281</v>
       </c>
@@ -23143,7 +24175,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="18.5">
+    <row r="83" spans="1:5">
       <c r="A83" s="29" t="s">
         <v>1285</v>
       </c>
@@ -23160,7 +24192,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="18.5">
+    <row r="84" spans="1:5">
       <c r="A84" s="29" t="s">
         <v>1289</v>
       </c>
@@ -23177,7 +24209,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="18.5">
+    <row r="85" spans="1:5">
       <c r="A85" s="29" t="s">
         <v>1293</v>
       </c>
@@ -23194,7 +24226,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="18.5">
+    <row r="88" spans="1:5">
       <c r="A88" s="29" t="s">
         <v>1297</v>
       </c>
@@ -23211,7 +24243,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="18.5">
+    <row r="89" spans="1:5">
       <c r="A89" s="30" t="s">
         <v>1300</v>
       </c>
@@ -23228,7 +24260,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="18.5">
+    <row r="90" spans="1:5">
       <c r="A90" s="29" t="s">
         <v>1301</v>
       </c>
@@ -23245,7 +24277,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="18.5">
+    <row r="91" spans="1:5">
       <c r="A91" s="29" t="s">
         <v>1302</v>
       </c>
@@ -23262,7 +24294,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="18.5">
+    <row r="92" spans="1:5">
       <c r="A92" s="29" t="s">
         <v>1304</v>
       </c>
@@ -23279,7 +24311,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="18.5">
+    <row r="93" spans="1:5">
       <c r="A93" s="29" t="s">
         <v>1306</v>
       </c>
@@ -23296,7 +24328,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="18.5">
+    <row r="94" spans="1:5">
       <c r="A94" s="29" t="s">
         <v>1308</v>
       </c>
@@ -23313,7 +24345,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="18.5">
+    <row r="97" spans="1:5">
       <c r="A97" s="8" t="s">
         <v>1311</v>
       </c>
@@ -23330,7 +24362,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="18.5">
+    <row r="98" spans="1:5">
       <c r="A98" s="8" t="s">
         <v>1312</v>
       </c>
@@ -23347,7 +24379,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="18.5">
+    <row r="99" spans="1:5">
       <c r="A99" s="31" t="s">
         <v>1314</v>
       </c>
@@ -23364,7 +24396,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="18.5">
+    <row r="100" spans="1:5">
       <c r="A100" s="31" t="s">
         <v>1316</v>
       </c>
@@ -23381,7 +24413,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="18.5">
+    <row r="101" spans="1:5">
       <c r="A101" s="31" t="s">
         <v>1318</v>
       </c>
@@ -23398,7 +24430,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="18.5">
+    <row r="102" spans="1:5">
       <c r="A102" s="31" t="s">
         <v>1320</v>
       </c>
@@ -23415,7 +24447,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="37">
+    <row r="103" spans="1:5" ht="29">
       <c r="A103" s="31" t="s">
         <v>1322</v>
       </c>
@@ -23432,7 +24464,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="31">
+    <row r="104" spans="1:5" ht="29">
       <c r="A104" s="31" t="s">
         <v>1324</v>
       </c>
@@ -23449,7 +24481,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="31">
+    <row r="105" spans="1:5" ht="29">
       <c r="A105" s="31" t="s">
         <v>1326</v>
       </c>
@@ -23466,7 +24498,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="31">
+    <row r="106" spans="1:5" ht="29">
       <c r="A106" s="31" t="s">
         <v>1328</v>
       </c>
@@ -23490,7 +24522,7 @@
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
     </row>
-    <row r="109" spans="1:5" ht="18.5">
+    <row r="109" spans="1:5">
       <c r="A109" s="8" t="s">
         <v>588</v>
       </c>
@@ -23507,7 +24539,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="18.5">
+    <row r="110" spans="1:5">
       <c r="A110" s="8" t="s">
         <v>590</v>
       </c>
@@ -23524,7 +24556,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="18.5">
+    <row r="111" spans="1:5">
       <c r="A111" s="8" t="s">
         <v>592</v>
       </c>
@@ -23541,7 +24573,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="18.5">
+    <row r="112" spans="1:5">
       <c r="A112" s="8" t="s">
         <v>595</v>
       </c>
@@ -23558,7 +24590,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="18.5">
+    <row r="113" spans="1:5">
       <c r="A113" s="8" t="s">
         <v>598</v>
       </c>
@@ -23575,7 +24607,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="18.5">
+    <row r="114" spans="1:5">
       <c r="A114" s="8" t="s">
         <v>600</v>
       </c>
@@ -23592,7 +24624,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="18.5">
+    <row r="115" spans="1:5">
       <c r="A115" s="8" t="s">
         <v>603</v>
       </c>
@@ -23609,7 +24641,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="18.5">
+    <row r="116" spans="1:5">
       <c r="A116" s="8" t="s">
         <v>605</v>
       </c>
@@ -23626,7 +24658,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="18.5">
+    <row r="117" spans="1:5">
       <c r="A117" s="8" t="s">
         <v>607</v>
       </c>
@@ -23643,7 +24675,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="18.5">
+    <row r="118" spans="1:5">
       <c r="A118" s="8" t="s">
         <v>609</v>
       </c>
@@ -23660,7 +24692,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="18.5">
+    <row r="119" spans="1:5">
       <c r="A119" s="8" t="s">
         <v>612</v>
       </c>
@@ -23677,7 +24709,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="18.5">
+    <row r="120" spans="1:5">
       <c r="A120" s="8" t="s">
         <v>615</v>
       </c>
@@ -23694,7 +24726,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="18.5">
+    <row r="121" spans="1:5">
       <c r="A121" s="8" t="s">
         <v>617</v>
       </c>
@@ -23711,7 +24743,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="18.5">
+    <row r="122" spans="1:5">
       <c r="A122" s="8" t="s">
         <v>619</v>
       </c>
@@ -23728,7 +24760,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="18.5">
+    <row r="123" spans="1:5">
       <c r="A123" s="8" t="s">
         <v>622</v>
       </c>
@@ -23745,7 +24777,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="18.5">
+    <row r="124" spans="1:5">
       <c r="A124" s="8" t="s">
         <v>625</v>
       </c>
@@ -23762,7 +24794,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="18.5">
+    <row r="125" spans="1:5">
       <c r="A125" s="8" t="s">
         <v>628</v>
       </c>
@@ -23779,7 +24811,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="18.5">
+    <row r="126" spans="1:5">
       <c r="A126" s="8" t="s">
         <v>631</v>
       </c>
@@ -23796,7 +24828,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="18.5">
+    <row r="127" spans="1:5">
       <c r="A127" s="8" t="s">
         <v>633</v>
       </c>
@@ -23813,7 +24845,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="18.5">
+    <row r="128" spans="1:5">
       <c r="A128" s="8" t="s">
         <v>635</v>
       </c>
@@ -23830,7 +24862,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="18.5">
+    <row r="129" spans="1:5">
       <c r="A129" s="8" t="s">
         <v>637</v>
       </c>
@@ -23847,7 +24879,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="18.5">
+    <row r="130" spans="1:5">
       <c r="A130" s="8" t="s">
         <v>639</v>
       </c>
@@ -23864,7 +24896,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="18.5">
+    <row r="131" spans="1:5">
       <c r="A131" s="8" t="s">
         <v>641</v>
       </c>
@@ -23881,7 +24913,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="18.5">
+    <row r="132" spans="1:5">
       <c r="A132" s="8" t="s">
         <v>644</v>
       </c>
@@ -23898,7 +24930,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="18.5">
+    <row r="133" spans="1:5">
       <c r="A133" s="8" t="s">
         <v>647</v>
       </c>
@@ -23915,7 +24947,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="18.5">
+    <row r="134" spans="1:5">
       <c r="A134" s="8" t="s">
         <v>650</v>
       </c>
@@ -23932,7 +24964,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="18.5">
+    <row r="135" spans="1:5">
       <c r="A135" s="8" t="s">
         <v>652</v>
       </c>
@@ -23949,7 +24981,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="18.5">
+    <row r="136" spans="1:5">
       <c r="A136" s="8" t="s">
         <v>655</v>
       </c>
@@ -23966,7 +24998,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="18.5">
+    <row r="137" spans="1:5">
       <c r="A137" s="8" t="s">
         <v>658</v>
       </c>
@@ -23983,7 +25015,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="18.5">
+    <row r="138" spans="1:5">
       <c r="A138" s="8" t="s">
         <v>660</v>
       </c>
@@ -24000,7 +25032,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="18.5">
+    <row r="139" spans="1:5">
       <c r="A139" s="8" t="s">
         <v>663</v>
       </c>
@@ -24017,7 +25049,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="18.5">
+    <row r="140" spans="1:5">
       <c r="A140" s="8" t="s">
         <v>665</v>
       </c>
@@ -24034,7 +25066,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="18.5">
+    <row r="141" spans="1:5">
       <c r="A141" s="8" t="s">
         <v>668</v>
       </c>
@@ -24051,7 +25083,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="18.5">
+    <row r="142" spans="1:5">
       <c r="A142" s="8" t="s">
         <v>671</v>
       </c>
@@ -24068,7 +25100,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="18.5">
+    <row r="143" spans="1:5">
       <c r="A143" s="8" t="s">
         <v>674</v>
       </c>
@@ -24085,7 +25117,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="18.5">
+    <row r="144" spans="1:5">
       <c r="A144" s="8" t="s">
         <v>677</v>
       </c>
@@ -24102,7 +25134,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="18.5">
+    <row r="145" spans="1:5">
       <c r="A145" s="8" t="s">
         <v>680</v>
       </c>
@@ -24119,7 +25151,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="18.5">
+    <row r="146" spans="1:5">
       <c r="A146" s="8" t="s">
         <v>683</v>
       </c>
@@ -24136,7 +25168,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="18.5">
+    <row r="147" spans="1:5">
       <c r="A147" s="8" t="s">
         <v>686</v>
       </c>
@@ -24153,7 +25185,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="18.5">
+    <row r="148" spans="1:5">
       <c r="A148" s="8" t="s">
         <v>689</v>
       </c>
@@ -24170,7 +25202,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="18.5">
+    <row r="149" spans="1:5">
       <c r="A149" s="8" t="s">
         <v>692</v>
       </c>
@@ -24187,7 +25219,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="18.5">
+    <row r="150" spans="1:5">
       <c r="A150" s="8" t="s">
         <v>694</v>
       </c>
@@ -24204,7 +25236,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="18.5">
+    <row r="151" spans="1:5">
       <c r="A151" s="8" t="s">
         <v>697</v>
       </c>
@@ -24221,7 +25253,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="18.5">
+    <row r="152" spans="1:5">
       <c r="A152" s="8" t="s">
         <v>699</v>
       </c>
@@ -24238,7 +25270,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="18.5">
+    <row r="153" spans="1:5">
       <c r="A153" s="8" t="s">
         <v>702</v>
       </c>
@@ -24255,7 +25287,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="18.5">
+    <row r="154" spans="1:5">
       <c r="A154" s="8" t="s">
         <v>705</v>
       </c>
@@ -24272,7 +25304,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="18.5">
+    <row r="155" spans="1:5">
       <c r="A155" s="8" t="s">
         <v>708</v>
       </c>
@@ -24289,7 +25321,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="18.5">
+    <row r="156" spans="1:5">
       <c r="A156" s="8" t="s">
         <v>711</v>
       </c>
@@ -24306,7 +25338,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="18.5">
+    <row r="157" spans="1:5">
       <c r="A157" s="8" t="s">
         <v>714</v>
       </c>
@@ -24323,7 +25355,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="18.5">
+    <row r="158" spans="1:5">
       <c r="A158" s="8" t="s">
         <v>716</v>
       </c>
@@ -24340,7 +25372,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="18.5">
+    <row r="159" spans="1:5">
       <c r="A159" s="8" t="s">
         <v>719</v>
       </c>
@@ -24357,7 +25389,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="18.5">
+    <row r="160" spans="1:5">
       <c r="A160" s="8" t="s">
         <v>722</v>
       </c>
@@ -24374,7 +25406,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="18.5">
+    <row r="161" spans="1:5">
       <c r="A161" s="8" t="s">
         <v>725</v>
       </c>
@@ -24391,7 +25423,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="18.5">
+    <row r="162" spans="1:5">
       <c r="A162" s="8" t="s">
         <v>728</v>
       </c>
@@ -24408,7 +25440,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="18.5">
+    <row r="163" spans="1:5">
       <c r="A163" s="8" t="s">
         <v>731</v>
       </c>
@@ -24425,7 +25457,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="18.5">
+    <row r="164" spans="1:5">
       <c r="A164" s="8" t="s">
         <v>734</v>
       </c>
@@ -24442,7 +25474,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="18.5">
+    <row r="165" spans="1:5">
       <c r="A165" s="8" t="s">
         <v>736</v>
       </c>
@@ -24459,7 +25491,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="18.5">
+    <row r="166" spans="1:5">
       <c r="A166" s="8" t="s">
         <v>739</v>
       </c>
@@ -24476,7 +25508,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="18.5">
+    <row r="167" spans="1:5">
       <c r="A167" s="8" t="s">
         <v>742</v>
       </c>
@@ -24493,7 +25525,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="18.5">
+    <row r="168" spans="1:5">
       <c r="A168" s="8" t="s">
         <v>745</v>
       </c>
@@ -24510,7 +25542,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="18.5">
+    <row r="169" spans="1:5">
       <c r="A169" s="8" t="s">
         <v>748</v>
       </c>
@@ -24527,7 +25559,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="18.5">
+    <row r="170" spans="1:5">
       <c r="A170" s="8" t="s">
         <v>751</v>
       </c>
@@ -24544,7 +25576,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="18.5">
+    <row r="171" spans="1:5">
       <c r="A171" s="8" t="s">
         <v>754</v>
       </c>
@@ -24561,7 +25593,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="18.5">
+    <row r="172" spans="1:5">
       <c r="A172" s="8" t="s">
         <v>757</v>
       </c>
@@ -24578,7 +25610,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="18.5">
+    <row r="173" spans="1:5">
       <c r="A173" s="8" t="s">
         <v>759</v>
       </c>
@@ -24595,7 +25627,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="18.5">
+    <row r="174" spans="1:5">
       <c r="A174" s="8" t="s">
         <v>762</v>
       </c>
@@ -24612,7 +25644,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="18.5">
+    <row r="175" spans="1:5">
       <c r="A175" s="8" t="s">
         <v>764</v>
       </c>
@@ -24629,7 +25661,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="18.5">
+    <row r="176" spans="1:5">
       <c r="A176" s="8" t="s">
         <v>767</v>
       </c>
@@ -24646,7 +25678,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="18.5">
+    <row r="177" spans="1:5">
       <c r="A177" s="8" t="s">
         <v>769</v>
       </c>
@@ -24663,7 +25695,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="18.5">
+    <row r="178" spans="1:5">
       <c r="A178" s="8" t="s">
         <v>772</v>
       </c>
@@ -24680,7 +25712,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="18.5">
+    <row r="179" spans="1:5">
       <c r="A179" s="8" t="s">
         <v>775</v>
       </c>
@@ -24697,7 +25729,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="18.5">
+    <row r="180" spans="1:5">
       <c r="A180" s="8" t="s">
         <v>778</v>
       </c>
@@ -24714,7 +25746,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="18.5">
+    <row r="181" spans="1:5">
       <c r="A181" s="8" t="s">
         <v>780</v>
       </c>
@@ -24731,7 +25763,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="18.5">
+    <row r="182" spans="1:5">
       <c r="A182" s="8" t="s">
         <v>782</v>
       </c>
@@ -24748,7 +25780,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="18.5">
+    <row r="183" spans="1:5">
       <c r="A183" s="8" t="s">
         <v>785</v>
       </c>
@@ -24765,7 +25797,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="18.5">
+    <row r="184" spans="1:5">
       <c r="A184" s="8" t="s">
         <v>787</v>
       </c>
@@ -24782,7 +25814,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="18.5">
+    <row r="185" spans="1:5">
       <c r="A185" s="8" t="s">
         <v>790</v>
       </c>
@@ -24799,7 +25831,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="18.5">
+    <row r="186" spans="1:5">
       <c r="A186" s="8" t="s">
         <v>793</v>
       </c>
@@ -24816,7 +25848,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="18.5">
+    <row r="187" spans="1:5">
       <c r="A187" s="8" t="s">
         <v>796</v>
       </c>
@@ -24833,7 +25865,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="18.5">
+    <row r="188" spans="1:5">
       <c r="A188" s="8" t="s">
         <v>798</v>
       </c>
@@ -24850,7 +25882,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="18.5">
+    <row r="189" spans="1:5">
       <c r="A189" s="8" t="s">
         <v>800</v>
       </c>
@@ -24867,7 +25899,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="18.5">
+    <row r="190" spans="1:5">
       <c r="A190" s="8" t="s">
         <v>803</v>
       </c>
@@ -24884,7 +25916,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="18.5">
+    <row r="191" spans="1:5">
       <c r="A191" s="8" t="s">
         <v>805</v>
       </c>
@@ -24901,7 +25933,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="18.5">
+    <row r="192" spans="1:5">
       <c r="A192" s="8" t="s">
         <v>808</v>
       </c>
@@ -24918,7 +25950,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="18.5">
+    <row r="193" spans="1:5">
       <c r="A193" s="8" t="s">
         <v>810</v>
       </c>
@@ -24935,7 +25967,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="18.5">
+    <row r="194" spans="1:5">
       <c r="A194" s="8" t="s">
         <v>812</v>
       </c>
@@ -24952,7 +25984,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="18.5">
+    <row r="195" spans="1:5">
       <c r="A195" s="8" t="s">
         <v>814</v>
       </c>
@@ -24969,7 +26001,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="18.5">
+    <row r="196" spans="1:5">
       <c r="A196" s="8" t="s">
         <v>817</v>
       </c>
@@ -24986,7 +26018,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="18.5">
+    <row r="197" spans="1:5">
       <c r="A197" s="8" t="s">
         <v>820</v>
       </c>
@@ -25003,7 +26035,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="18.5">
+    <row r="198" spans="1:5">
       <c r="A198" s="8" t="s">
         <v>823</v>
       </c>
@@ -25020,7 +26052,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="18.5">
+    <row r="199" spans="1:5">
       <c r="A199" s="8" t="s">
         <v>826</v>
       </c>
@@ -25037,7 +26069,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="18.5">
+    <row r="200" spans="1:5">
       <c r="A200" s="8" t="s">
         <v>829</v>
       </c>
@@ -25054,7 +26086,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="18.5">
+    <row r="201" spans="1:5">
       <c r="A201" s="8" t="s">
         <v>831</v>
       </c>
@@ -25071,7 +26103,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="18.5">
+    <row r="202" spans="1:5">
       <c r="A202" s="8" t="s">
         <v>834</v>
       </c>
@@ -25088,7 +26120,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="18.5">
+    <row r="203" spans="1:5">
       <c r="A203" s="8" t="s">
         <v>837</v>
       </c>
@@ -25105,7 +26137,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="18.5">
+    <row r="204" spans="1:5">
       <c r="A204" s="8" t="s">
         <v>839</v>
       </c>
@@ -25122,7 +26154,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="18.5">
+    <row r="205" spans="1:5">
       <c r="A205" s="8" t="s">
         <v>842</v>
       </c>
@@ -25139,7 +26171,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="18.5">
+    <row r="206" spans="1:5">
       <c r="A206" s="8" t="s">
         <v>845</v>
       </c>
@@ -25156,7 +26188,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="18.5">
+    <row r="207" spans="1:5">
       <c r="A207" s="8" t="s">
         <v>848</v>
       </c>
@@ -25173,7 +26205,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="18.5">
+    <row r="208" spans="1:5">
       <c r="A208" s="8" t="s">
         <v>851</v>
       </c>
@@ -25190,7 +26222,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="18.5">
+    <row r="209" spans="1:5">
       <c r="A209" s="8" t="s">
         <v>854</v>
       </c>
@@ -25207,7 +26239,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="18.5">
+    <row r="210" spans="1:5">
       <c r="A210" s="8" t="s">
         <v>858</v>
       </c>
@@ -25224,7 +26256,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="18.5">
+    <row r="211" spans="1:5">
       <c r="A211" s="8" t="s">
         <v>862</v>
       </c>
@@ -25241,7 +26273,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="18.5">
+    <row r="212" spans="1:5">
       <c r="A212" s="8" t="s">
         <v>865</v>
       </c>
@@ -25258,7 +26290,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="18.5">
+    <row r="213" spans="1:5">
       <c r="A213" s="8" t="s">
         <v>868</v>
       </c>
@@ -25275,7 +26307,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="18.5">
+    <row r="214" spans="1:5">
       <c r="A214" s="8" t="s">
         <v>871</v>
       </c>
@@ -25292,7 +26324,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="18.5">
+    <row r="215" spans="1:5">
       <c r="A215" s="8" t="s">
         <v>874</v>
       </c>
@@ -25309,7 +26341,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="18.5">
+    <row r="216" spans="1:5">
       <c r="A216" s="8" t="s">
         <v>876</v>
       </c>
@@ -25326,7 +26358,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="18.5">
+    <row r="217" spans="1:5">
       <c r="A217" s="8" t="s">
         <v>879</v>
       </c>
@@ -25343,7 +26375,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="18.5">
+    <row r="218" spans="1:5">
       <c r="A218" s="8" t="s">
         <v>882</v>
       </c>
@@ -25360,7 +26392,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="18.5">
+    <row r="219" spans="1:5">
       <c r="A219" s="8" t="s">
         <v>884</v>
       </c>
@@ -25377,7 +26409,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="18.5">
+    <row r="220" spans="1:5">
       <c r="A220" s="8" t="s">
         <v>886</v>
       </c>
@@ -25394,7 +26426,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="18.5">
+    <row r="221" spans="1:5">
       <c r="A221" s="8" t="s">
         <v>889</v>
       </c>
@@ -25411,7 +26443,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="18.5">
+    <row r="222" spans="1:5">
       <c r="A222" s="8" t="s">
         <v>892</v>
       </c>
@@ -25428,7 +26460,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="18.5">
+    <row r="223" spans="1:5">
       <c r="A223" s="8" t="s">
         <v>895</v>
       </c>
@@ -25445,7 +26477,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="18.5">
+    <row r="224" spans="1:5">
       <c r="A224" s="8" t="s">
         <v>898</v>
       </c>
@@ -25462,7 +26494,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="18.5">
+    <row r="225" spans="1:5">
       <c r="A225" s="8" t="s">
         <v>901</v>
       </c>
@@ -25479,7 +26511,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="18.5">
+    <row r="226" spans="1:5">
       <c r="A226" s="8" t="s">
         <v>904</v>
       </c>
@@ -25496,7 +26528,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="18.5">
+    <row r="227" spans="1:5">
       <c r="A227" s="8" t="s">
         <v>906</v>
       </c>
@@ -25513,7 +26545,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="18.5">
+    <row r="228" spans="1:5">
       <c r="A228" s="8" t="s">
         <v>908</v>
       </c>
@@ -25530,7 +26562,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="18.5">
+    <row r="229" spans="1:5">
       <c r="A229" s="8" t="s">
         <v>910</v>
       </c>
@@ -25547,7 +26579,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="18.5">
+    <row r="230" spans="1:5">
       <c r="A230" s="8" t="s">
         <v>913</v>
       </c>
@@ -25564,7 +26596,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="18.5">
+    <row r="231" spans="1:5">
       <c r="A231" s="8" t="s">
         <v>916</v>
       </c>
@@ -25581,7 +26613,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="18.5">
+    <row r="232" spans="1:5">
       <c r="A232" s="8" t="s">
         <v>919</v>
       </c>
@@ -25598,7 +26630,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="18.5">
+    <row r="233" spans="1:5">
       <c r="A233" s="8" t="s">
         <v>922</v>
       </c>
@@ -25615,7 +26647,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="18.5">
+    <row r="234" spans="1:5">
       <c r="A234" s="8" t="s">
         <v>925</v>
       </c>
@@ -25632,7 +26664,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="18.5">
+    <row r="235" spans="1:5">
       <c r="A235" s="8" t="s">
         <v>928</v>
       </c>
@@ -25649,7 +26681,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="18.5">
+    <row r="236" spans="1:5">
       <c r="A236" s="8" t="s">
         <v>930</v>
       </c>
@@ -25666,7 +26698,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="18.5">
+    <row r="237" spans="1:5">
       <c r="A237" s="8" t="s">
         <v>932</v>
       </c>
@@ -25683,7 +26715,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="18.5">
+    <row r="238" spans="1:5">
       <c r="A238" s="8" t="s">
         <v>935</v>
       </c>
@@ -25700,7 +26732,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="18.5">
+    <row r="239" spans="1:5">
       <c r="A239" s="8" t="s">
         <v>937</v>
       </c>
@@ -25717,7 +26749,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="18.5">
+    <row r="240" spans="1:5">
       <c r="A240" s="8" t="s">
         <v>940</v>
       </c>
@@ -25734,7 +26766,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="18.5">
+    <row r="241" spans="1:5">
       <c r="A241" s="8" t="s">
         <v>943</v>
       </c>
@@ -25751,7 +26783,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="18.5">
+    <row r="242" spans="1:5">
       <c r="A242" s="8" t="s">
         <v>946</v>
       </c>
@@ -25768,7 +26800,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="18.5">
+    <row r="243" spans="1:5">
       <c r="A243" s="8" t="s">
         <v>948</v>
       </c>
@@ -25785,7 +26817,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="18.5">
+    <row r="244" spans="1:5">
       <c r="A244" s="8" t="s">
         <v>950</v>
       </c>
@@ -25802,7 +26834,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="18.5">
+    <row r="245" spans="1:5">
       <c r="A245" s="8" t="s">
         <v>952</v>
       </c>
@@ -25819,7 +26851,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="18.5">
+    <row r="246" spans="1:5">
       <c r="A246" s="8" t="s">
         <v>954</v>
       </c>
@@ -25836,7 +26868,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="18.5">
+    <row r="247" spans="1:5">
       <c r="A247" s="8" t="s">
         <v>957</v>
       </c>
@@ -25853,7 +26885,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="18.5">
+    <row r="248" spans="1:5">
       <c r="A248" s="8" t="s">
         <v>960</v>
       </c>
@@ -25870,7 +26902,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="18.5">
+    <row r="249" spans="1:5">
       <c r="A249" s="8" t="s">
         <v>962</v>
       </c>
@@ -25887,7 +26919,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="18.5">
+    <row r="250" spans="1:5">
       <c r="A250" s="8" t="s">
         <v>965</v>
       </c>
@@ -25904,7 +26936,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="18.5">
+    <row r="251" spans="1:5">
       <c r="A251" s="8" t="s">
         <v>968</v>
       </c>
@@ -25921,7 +26953,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="18.5">
+    <row r="252" spans="1:5">
       <c r="A252" s="8" t="s">
         <v>971</v>
       </c>
@@ -25938,7 +26970,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="18.5">
+    <row r="253" spans="1:5">
       <c r="A253" s="8" t="s">
         <v>973</v>
       </c>
@@ -25955,7 +26987,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="18.5">
+    <row r="254" spans="1:5">
       <c r="A254" s="8" t="s">
         <v>976</v>
       </c>
@@ -25972,7 +27004,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="18.5">
+    <row r="255" spans="1:5">
       <c r="A255" s="8" t="s">
         <v>979</v>
       </c>
@@ -25989,7 +27021,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="18.5">
+    <row r="256" spans="1:5">
       <c r="A256" s="8" t="s">
         <v>982</v>
       </c>
@@ -26006,7 +27038,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="18.5">
+    <row r="257" spans="1:5">
       <c r="A257" s="8" t="s">
         <v>985</v>
       </c>
@@ -26023,7 +27055,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="18.5">
+    <row r="258" spans="1:5">
       <c r="A258" s="8" t="s">
         <v>988</v>
       </c>
@@ -26040,7 +27072,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="18.5">
+    <row r="259" spans="1:5">
       <c r="A259" s="8" t="s">
         <v>991</v>
       </c>
@@ -26057,7 +27089,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="18.5">
+    <row r="260" spans="1:5">
       <c r="A260" s="8" t="s">
         <v>994</v>
       </c>
@@ -26074,7 +27106,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="18.5">
+    <row r="261" spans="1:5">
       <c r="A261" s="8" t="s">
         <v>997</v>
       </c>
@@ -26091,7 +27123,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="18.5">
+    <row r="262" spans="1:5">
       <c r="A262" s="8" t="s">
         <v>999</v>
       </c>
@@ -26108,7 +27140,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="18.5">
+    <row r="263" spans="1:5">
       <c r="A263" s="8" t="s">
         <v>1002</v>
       </c>
@@ -26125,7 +27157,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="18.5">
+    <row r="264" spans="1:5">
       <c r="A264" s="8" t="s">
         <v>1005</v>
       </c>
@@ -26142,7 +27174,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="18.5">
+    <row r="265" spans="1:5">
       <c r="A265" s="8" t="s">
         <v>1008</v>
       </c>
@@ -26159,7 +27191,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="18.5">
+    <row r="266" spans="1:5">
       <c r="A266" s="8" t="s">
         <v>1011</v>
       </c>
@@ -26176,7 +27208,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="18.5">
+    <row r="267" spans="1:5">
       <c r="A267" s="8" t="s">
         <v>1014</v>
       </c>
@@ -26193,7 +27225,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="18.5">
+    <row r="268" spans="1:5">
       <c r="A268" s="8" t="s">
         <v>1017</v>
       </c>
@@ -26210,7 +27242,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="18.5">
+    <row r="269" spans="1:5">
       <c r="A269" s="8" t="s">
         <v>1020</v>
       </c>
@@ -26227,7 +27259,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="18.5">
+    <row r="270" spans="1:5">
       <c r="A270" s="8" t="s">
         <v>1023</v>
       </c>
@@ -26244,7 +27276,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="18.5">
+    <row r="271" spans="1:5">
       <c r="A271" s="8" t="s">
         <v>1026</v>
       </c>
@@ -26261,7 +27293,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="18.5">
+    <row r="272" spans="1:5">
       <c r="A272" s="8" t="s">
         <v>1028</v>
       </c>
@@ -26278,7 +27310,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="18.5">
+    <row r="273" spans="1:5">
       <c r="A273" s="8" t="s">
         <v>1031</v>
       </c>
@@ -26295,7 +27327,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="18.5">
+    <row r="274" spans="1:5">
       <c r="A274" s="8" t="s">
         <v>1033</v>
       </c>
@@ -26312,7 +27344,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="18.5">
+    <row r="275" spans="1:5">
       <c r="A275" s="8" t="s">
         <v>1036</v>
       </c>
@@ -26329,7 +27361,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="18.5">
+    <row r="276" spans="1:5">
       <c r="A276" s="8" t="s">
         <v>1039</v>
       </c>
@@ -26346,7 +27378,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="18.5">
+    <row r="277" spans="1:5">
       <c r="A277" s="8" t="s">
         <v>1042</v>
       </c>
@@ -26363,7 +27395,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="18.5">
+    <row r="278" spans="1:5">
       <c r="A278" s="8" t="s">
         <v>1045</v>
       </c>
@@ -26380,7 +27412,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="18.5">
+    <row r="279" spans="1:5">
       <c r="A279" s="8" t="s">
         <v>1048</v>
       </c>
@@ -26397,7 +27429,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="18.5">
+    <row r="280" spans="1:5">
       <c r="A280" s="8" t="s">
         <v>1051</v>
       </c>
@@ -26414,7 +27446,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="18.5">
+    <row r="281" spans="1:5">
       <c r="A281" s="8" t="s">
         <v>1053</v>
       </c>
@@ -26431,7 +27463,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="18.5">
+    <row r="282" spans="1:5">
       <c r="A282" s="8" t="s">
         <v>1056</v>
       </c>
@@ -26448,7 +27480,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="18.5">
+    <row r="283" spans="1:5">
       <c r="A283" s="8" t="s">
         <v>1058</v>
       </c>
@@ -26465,7 +27497,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="18.5">
+    <row r="284" spans="1:5">
       <c r="A284" s="8" t="s">
         <v>1061</v>
       </c>
@@ -26482,7 +27514,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="18.5">
+    <row r="285" spans="1:5">
       <c r="A285" s="8" t="s">
         <v>1064</v>
       </c>
@@ -26499,7 +27531,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="18.5">
+    <row r="286" spans="1:5">
       <c r="A286" s="8" t="s">
         <v>1067</v>
       </c>
@@ -26516,7 +27548,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="18.5">
+    <row r="287" spans="1:5">
       <c r="A287" s="8" t="s">
         <v>1069</v>
       </c>
@@ -26533,7 +27565,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="18.5">
+    <row r="288" spans="1:5">
       <c r="A288" s="8" t="s">
         <v>1072</v>
       </c>
@@ -26550,7 +27582,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="18.5">
+    <row r="289" spans="1:5">
       <c r="A289" s="8" t="s">
         <v>1074</v>
       </c>
@@ -26567,7 +27599,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="18.5">
+    <row r="290" spans="1:5">
       <c r="A290" s="8" t="s">
         <v>1077</v>
       </c>
@@ -26584,7 +27616,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="18.5">
+    <row r="291" spans="1:5">
       <c r="A291" s="8" t="s">
         <v>1080</v>
       </c>
@@ -26601,7 +27633,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="18.5">
+    <row r="292" spans="1:5">
       <c r="A292" s="8" t="s">
         <v>1083</v>
       </c>
@@ -26618,7 +27650,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="18.5">
+    <row r="293" spans="1:5">
       <c r="A293" s="8" t="s">
         <v>1086</v>
       </c>
@@ -26635,7 +27667,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="18.5">
+    <row r="294" spans="1:5">
       <c r="A294" s="8" t="s">
         <v>1089</v>
       </c>
@@ -26652,7 +27684,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="18.5">
+    <row r="295" spans="1:5">
       <c r="A295" s="8" t="s">
         <v>1091</v>
       </c>
@@ -26669,7 +27701,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="18.5">
+    <row r="296" spans="1:5">
       <c r="A296" s="8" t="s">
         <v>1094</v>
       </c>
@@ -26686,7 +27718,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="18.5">
+    <row r="297" spans="1:5">
       <c r="A297" s="8" t="s">
         <v>1096</v>
       </c>
@@ -26703,7 +27735,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="18.5">
+    <row r="298" spans="1:5">
       <c r="A298" s="8" t="s">
         <v>1099</v>
       </c>
@@ -26720,7 +27752,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="18.5">
+    <row r="299" spans="1:5">
       <c r="A299" s="8" t="s">
         <v>1101</v>
       </c>
@@ -26737,7 +27769,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="18.5">
+    <row r="300" spans="1:5">
       <c r="A300" s="8" t="s">
         <v>1103</v>
       </c>
@@ -26754,7 +27786,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="18.5">
+    <row r="301" spans="1:5">
       <c r="A301" s="8" t="s">
         <v>1105</v>
       </c>
@@ -26771,7 +27803,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="18.5">
+    <row r="302" spans="1:5">
       <c r="A302" s="8" t="s">
         <v>1108</v>
       </c>
@@ -26788,7 +27820,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="18.5">
+    <row r="303" spans="1:5">
       <c r="A303" s="8" t="s">
         <v>1111</v>
       </c>
@@ -26805,7 +27837,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="18.5">
+    <row r="304" spans="1:5">
       <c r="A304" s="8" t="s">
         <v>1113</v>
       </c>
@@ -26822,7 +27854,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="18.5">
+    <row r="305" spans="1:5">
       <c r="A305" s="8" t="s">
         <v>1116</v>
       </c>
@@ -26839,7 +27871,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="18.5">
+    <row r="306" spans="1:5">
       <c r="A306" s="8" t="s">
         <v>1119</v>
       </c>
@@ -26856,7 +27888,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="18.5">
+    <row r="307" spans="1:5">
       <c r="A307" s="8" t="s">
         <v>1122</v>
       </c>
@@ -26873,7 +27905,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="18.5">
+    <row r="308" spans="1:5">
       <c r="A308" s="8" t="s">
         <v>1124</v>
       </c>
@@ -26890,7 +27922,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="18.5">
+    <row r="309" spans="1:5">
       <c r="A309" s="8" t="s">
         <v>1127</v>
       </c>
@@ -26907,7 +27939,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="18.5">
+    <row r="310" spans="1:5">
       <c r="A310" s="8" t="s">
         <v>1130</v>
       </c>
@@ -26924,7 +27956,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="18.5">
+    <row r="311" spans="1:5">
       <c r="A311" s="8" t="s">
         <v>1133</v>
       </c>
@@ -26941,7 +27973,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="18.5">
+    <row r="312" spans="1:5">
       <c r="A312" s="8" t="s">
         <v>1135</v>
       </c>
@@ -26958,7 +27990,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="18.5">
+    <row r="313" spans="1:5">
       <c r="A313" s="8" t="s">
         <v>1137</v>
       </c>
@@ -26975,7 +28007,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="18.5">
+    <row r="314" spans="1:5">
       <c r="A314" s="8" t="s">
         <v>1140</v>
       </c>
@@ -26992,7 +28024,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="18.5">
+    <row r="315" spans="1:5">
       <c r="A315" s="8" t="s">
         <v>1143</v>
       </c>
@@ -27009,7 +28041,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="18.5">
+    <row r="316" spans="1:5">
       <c r="A316" s="8" t="s">
         <v>1146</v>
       </c>
@@ -27026,7 +28058,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="18.5">
+    <row r="317" spans="1:5">
       <c r="A317" s="8" t="s">
         <v>1148</v>
       </c>
@@ -27043,7 +28075,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="18.5">
+    <row r="318" spans="1:5">
       <c r="A318" s="8" t="s">
         <v>1150</v>
       </c>
@@ -27060,7 +28092,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="18.5">
+    <row r="319" spans="1:5">
       <c r="A319" s="8" t="s">
         <v>1152</v>
       </c>
@@ -27077,7 +28109,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="18.5">
+    <row r="320" spans="1:5">
       <c r="A320" s="8" t="s">
         <v>1155</v>
       </c>
@@ -27136,7 +28168,7 @@
     <row r="2" spans="1:3" s="17" customFormat="1">
       <c r="A2" s="16"/>
     </row>
-    <row r="3" spans="1:3" ht="18.5">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>299</v>
       </c>
@@ -27147,7 +28179,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.5">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>300</v>
       </c>
@@ -27158,7 +28190,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.5">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>301</v>
       </c>
@@ -27169,7 +28201,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.5">
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>302</v>
       </c>
@@ -27180,7 +28212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.5">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>303</v>
       </c>
@@ -27191,7 +28223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.5">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>304</v>
       </c>
@@ -27202,7 +28234,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.5">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>305</v>
       </c>
@@ -27213,7 +28245,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.5">
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>306</v>
       </c>
@@ -27224,7 +28256,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.5">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>307</v>
       </c>
@@ -27235,7 +28267,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.5">
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>308</v>
       </c>
@@ -27246,7 +28278,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.5">
+    <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>309</v>
       </c>
@@ -27257,7 +28289,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.5">
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>310</v>
       </c>
@@ -27268,7 +28300,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.5">
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>311</v>
       </c>
@@ -27279,7 +28311,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.5">
+    <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>312</v>
       </c>
@@ -27290,7 +28322,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.5">
+    <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>313</v>
       </c>
@@ -27301,7 +28333,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.5">
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>314</v>
       </c>
@@ -27312,7 +28344,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.5">
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>315</v>
       </c>
@@ -27323,7 +28355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.5">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>316</v>
       </c>
@@ -27334,7 +28366,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.5">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>317</v>
       </c>
@@ -27345,7 +28377,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.5">
+    <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>318</v>
       </c>
@@ -27356,7 +28388,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.5">
+    <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>319</v>
       </c>
@@ -27367,7 +28399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.5">
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>320</v>
       </c>
@@ -27378,7 +28410,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.5">
+    <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>321</v>
       </c>
@@ -27389,7 +28421,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.5">
+    <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>322</v>
       </c>
@@ -27400,7 +28432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.5">
+    <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>323</v>
       </c>
@@ -27411,7 +28443,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.5">
+    <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>324</v>
       </c>
@@ -27422,7 +28454,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.5">
+    <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>325</v>
       </c>
@@ -27433,7 +28465,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.5">
+    <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>326</v>
       </c>
@@ -27444,7 +28476,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.5">
+    <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>327</v>
       </c>
@@ -27455,7 +28487,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.5">
+    <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>328</v>
       </c>
@@ -27466,7 +28498,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.5">
+    <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>329</v>
       </c>
@@ -27477,7 +28509,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.5">
+    <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>330</v>
       </c>
@@ -27488,7 +28520,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.5">
+    <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>331</v>
       </c>
@@ -27499,7 +28531,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.5">
+    <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>332</v>
       </c>
@@ -27510,7 +28542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.5">
+    <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>333</v>
       </c>
@@ -27521,7 +28553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.5">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>334</v>
       </c>
@@ -27532,7 +28564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.5">
+    <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>335</v>
       </c>
@@ -27543,7 +28575,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.5">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>336</v>
       </c>
@@ -27554,7 +28586,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.5">
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>337</v>
       </c>
@@ -27565,7 +28597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18.5">
+    <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>338</v>
       </c>
@@ -27576,7 +28608,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18.5">
+    <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
         <v>339</v>
       </c>
@@ -27587,7 +28619,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18.5">
+    <row r="44" spans="1:3">
       <c r="A44" s="6" t="s">
         <v>340</v>
       </c>
@@ -27598,7 +28630,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18.5">
+    <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
         <v>341</v>
       </c>
@@ -27609,7 +28641,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18.5">
+    <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
         <v>342</v>
       </c>
@@ -27620,7 +28652,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18.5">
+    <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
         <v>343</v>
       </c>
@@ -27631,7 +28663,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18.5">
+    <row r="48" spans="1:3">
       <c r="A48" s="6" t="s">
         <v>344</v>
       </c>
@@ -27642,7 +28674,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18.5">
+    <row r="49" spans="1:3">
       <c r="A49" s="6" t="s">
         <v>345</v>
       </c>
@@ -27653,7 +28685,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.5">
+    <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
         <v>346</v>
       </c>
@@ -27664,7 +28696,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.5">
+    <row r="51" spans="1:3">
       <c r="A51" s="6" t="s">
         <v>347</v>
       </c>
@@ -27675,7 +28707,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18.5">
+    <row r="52" spans="1:3">
       <c r="A52" s="6" t="s">
         <v>348</v>
       </c>
@@ -27686,7 +28718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18.5">
+    <row r="53" spans="1:3">
       <c r="A53" s="6" t="s">
         <v>349</v>
       </c>
@@ -27697,7 +28729,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.5">
+    <row r="54" spans="1:3">
       <c r="A54" s="6" t="s">
         <v>350</v>
       </c>
@@ -27708,7 +28740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18.5">
+    <row r="55" spans="1:3">
       <c r="A55" s="6" t="s">
         <v>351</v>
       </c>
@@ -27719,7 +28751,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.5">
+    <row r="56" spans="1:3">
       <c r="A56" s="6" t="s">
         <v>352</v>
       </c>
@@ -27730,7 +28762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18.5">
+    <row r="57" spans="1:3">
       <c r="A57" s="6" t="s">
         <v>353</v>
       </c>
@@ -27741,7 +28773,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18.5">
+    <row r="58" spans="1:3">
       <c r="A58" s="6" t="s">
         <v>354</v>
       </c>
@@ -27752,7 +28784,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.5">
+    <row r="59" spans="1:3">
       <c r="A59" s="6" t="s">
         <v>355</v>
       </c>
@@ -27763,7 +28795,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="37">
+    <row r="60" spans="1:3" ht="29">
       <c r="A60" s="6" t="s">
         <v>356</v>
       </c>
@@ -27774,7 +28806,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18.5">
+    <row r="61" spans="1:3">
       <c r="A61" s="6" t="s">
         <v>357</v>
       </c>
@@ -27785,7 +28817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18.5">
+    <row r="62" spans="1:3">
       <c r="A62" s="6" t="s">
         <v>358</v>
       </c>
@@ -27796,7 +28828,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18.5">
+    <row r="63" spans="1:3">
       <c r="A63" s="6" t="s">
         <v>359</v>
       </c>
@@ -27807,7 +28839,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18.5">
+    <row r="64" spans="1:3">
       <c r="A64" s="6" t="s">
         <v>360</v>
       </c>
@@ -27818,7 +28850,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18.5">
+    <row r="65" spans="1:3">
       <c r="A65" s="6" t="s">
         <v>361</v>
       </c>
@@ -27829,7 +28861,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18.5">
+    <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
         <v>362</v>
       </c>
@@ -27840,7 +28872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.5">
+    <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>363</v>
       </c>
@@ -27851,7 +28883,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18.5">
+    <row r="68" spans="1:3">
       <c r="A68" s="6" t="s">
         <v>364</v>
       </c>
@@ -27862,7 +28894,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18.5">
+    <row r="69" spans="1:3">
       <c r="A69" s="6" t="s">
         <v>365</v>
       </c>
@@ -27873,7 +28905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18.5">
+    <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
         <v>366</v>
       </c>
@@ -27884,7 +28916,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.5">
+    <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
         <v>367</v>
       </c>
@@ -27895,7 +28927,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18.5">
+    <row r="72" spans="1:3">
       <c r="A72" s="6" t="s">
         <v>368</v>
       </c>
@@ -27906,7 +28938,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18.5">
+    <row r="73" spans="1:3">
       <c r="A73" s="6" t="s">
         <v>369</v>
       </c>
@@ -27917,7 +28949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18.5">
+    <row r="74" spans="1:3">
       <c r="A74" s="6" t="s">
         <v>370</v>
       </c>
@@ -27928,7 +28960,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18.5">
+    <row r="75" spans="1:3">
       <c r="A75" s="6" t="s">
         <v>371</v>
       </c>
@@ -27939,7 +28971,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18.5">
+    <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
         <v>372</v>
       </c>
@@ -27950,7 +28982,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18.5">
+    <row r="77" spans="1:3">
       <c r="A77" s="6" t="s">
         <v>373</v>
       </c>
@@ -27961,7 +28993,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18.5">
+    <row r="78" spans="1:3">
       <c r="A78" s="6" t="s">
         <v>374</v>
       </c>
@@ -27972,7 +29004,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18.5">
+    <row r="79" spans="1:3">
       <c r="A79" s="6" t="s">
         <v>375</v>
       </c>
@@ -27983,7 +29015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="18.5">
+    <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
         <v>376</v>
       </c>
@@ -27994,7 +29026,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18.5">
+    <row r="81" spans="1:3">
       <c r="A81" s="6" t="s">
         <v>377</v>
       </c>
@@ -28005,7 +29037,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="18.5">
+    <row r="82" spans="1:3">
       <c r="A82" s="6" t="s">
         <v>378</v>
       </c>
@@ -28016,7 +29048,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18.5">
+    <row r="83" spans="1:3">
       <c r="A83" s="6" t="s">
         <v>379</v>
       </c>
@@ -28027,7 +29059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18.5">
+    <row r="84" spans="1:3">
       <c r="A84" s="6" t="s">
         <v>380</v>
       </c>
@@ -28038,7 +29070,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18.5">
+    <row r="85" spans="1:3">
       <c r="A85" s="6" t="s">
         <v>381</v>
       </c>
@@ -28049,7 +29081,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18.5">
+    <row r="86" spans="1:3">
       <c r="A86" s="6" t="s">
         <v>382</v>
       </c>
@@ -28060,7 +29092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="18.5">
+    <row r="87" spans="1:3">
       <c r="A87" s="6" t="s">
         <v>383</v>
       </c>
@@ -28071,7 +29103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18.5">
+    <row r="88" spans="1:3">
       <c r="A88" s="6" t="s">
         <v>384</v>
       </c>
@@ -28082,7 +29114,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18.5">
+    <row r="89" spans="1:3">
       <c r="A89" s="6" t="s">
         <v>385</v>
       </c>
@@ -28093,7 +29125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18.5">
+    <row r="90" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>386</v>
       </c>
@@ -28104,7 +29136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="18.5">
+    <row r="91" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>387</v>
       </c>
@@ -28115,7 +29147,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="18.5">
+    <row r="92" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>388</v>
       </c>
@@ -28126,7 +29158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18.5">
+    <row r="93" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>389</v>
       </c>
@@ -28137,7 +29169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18.5">
+    <row r="94" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>390</v>
       </c>
@@ -28148,7 +29180,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="18.5">
+    <row r="95" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>391</v>
       </c>
@@ -28159,7 +29191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="18.5">
+    <row r="96" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>392</v>
       </c>
@@ -28170,7 +29202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="18.5">
+    <row r="97" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>393</v>
       </c>
@@ -28181,7 +29213,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="18.5">
+    <row r="98" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>394</v>
       </c>
@@ -28192,7 +29224,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="18.5">
+    <row r="99" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>395</v>
       </c>
@@ -28203,7 +29235,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="18.5">
+    <row r="100" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>396</v>
       </c>
@@ -28214,7 +29246,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18.5">
+    <row r="101" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>397</v>
       </c>
@@ -28225,7 +29257,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="18.5">
+    <row r="102" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>398</v>
       </c>
@@ -28236,7 +29268,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18.5">
+    <row r="103" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>399</v>
       </c>
@@ -28247,7 +29279,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="18.5">
+    <row r="104" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>400</v>
       </c>
@@ -28258,7 +29290,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="18.5">
+    <row r="105" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>401</v>
       </c>
@@ -28269,7 +29301,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="18.5">
+    <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>402</v>
       </c>
@@ -28280,7 +29312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="18.5">
+    <row r="107" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>403</v>
       </c>
@@ -28291,7 +29323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="18.5">
+    <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>404</v>
       </c>
@@ -28302,7 +29334,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="18.5">
+    <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>405</v>
       </c>
@@ -28313,7 +29345,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="18.5">
+    <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>406</v>
       </c>
@@ -28324,7 +29356,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="18.5">
+    <row r="111" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>407</v>
       </c>
@@ -28335,7 +29367,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="18.5">
+    <row r="112" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>408</v>
       </c>
@@ -28346,7 +29378,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18.5">
+    <row r="113" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>409</v>
       </c>
@@ -28357,7 +29389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="18.5">
+    <row r="114" spans="1:3">
       <c r="A114" s="6" t="s">
         <v>410</v>
       </c>
@@ -28368,7 +29400,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="18.5">
+    <row r="115" spans="1:3">
       <c r="A115" s="6" t="s">
         <v>411</v>
       </c>
@@ -28379,7 +29411,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="18.5">
+    <row r="116" spans="1:3">
       <c r="A116" s="6" t="s">
         <v>412</v>
       </c>
@@ -28390,7 +29422,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="18.5">
+    <row r="117" spans="1:3">
       <c r="A117" s="6" t="s">
         <v>413</v>
       </c>
@@ -28401,7 +29433,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="18.5">
+    <row r="118" spans="1:3">
       <c r="A118" s="6" t="s">
         <v>414</v>
       </c>
@@ -28412,7 +29444,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="18.5">
+    <row r="119" spans="1:3">
       <c r="A119" s="6" t="s">
         <v>415</v>
       </c>
@@ -28423,7 +29455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="18.5">
+    <row r="120" spans="1:3">
       <c r="A120" s="6" t="s">
         <v>416</v>
       </c>
@@ -28434,7 +29466,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="18.5">
+    <row r="121" spans="1:3">
       <c r="A121" s="6" t="s">
         <v>417</v>
       </c>
@@ -28445,7 +29477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="18.5">
+    <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
         <v>418</v>
       </c>
@@ -28456,7 +29488,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="18.5">
+    <row r="123" spans="1:3">
       <c r="A123" s="6" t="s">
         <v>419</v>
       </c>
@@ -28467,7 +29499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18.5">
+    <row r="124" spans="1:3">
       <c r="A124" s="6" t="s">
         <v>420</v>
       </c>
@@ -28478,7 +29510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="18.5">
+    <row r="125" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>421</v>
       </c>
@@ -28489,7 +29521,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="18.5">
+    <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
         <v>422</v>
       </c>
@@ -28500,7 +29532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="18.5">
+    <row r="127" spans="1:3">
       <c r="A127" s="6" t="s">
         <v>423</v>
       </c>
@@ -28511,7 +29543,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="18.5">
+    <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
         <v>424</v>
       </c>
@@ -28522,7 +29554,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="18.5">
+    <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
         <v>425</v>
       </c>
@@ -28533,7 +29565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="18.5">
+    <row r="130" spans="1:3">
       <c r="A130" s="6" t="s">
         <v>426</v>
       </c>
@@ -28544,7 +29576,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="18.5">
+    <row r="131" spans="1:3">
       <c r="A131" s="6" t="s">
         <v>427</v>
       </c>
@@ -28555,7 +29587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="18.5">
+    <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
         <v>428</v>
       </c>
@@ -28566,7 +29598,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="37">
+    <row r="133" spans="1:3" ht="29">
       <c r="A133" s="6" t="s">
         <v>429</v>
       </c>
@@ -28577,7 +29609,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="18.5">
+    <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
         <v>430</v>
       </c>
@@ -28588,7 +29620,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="18.5">
+    <row r="135" spans="1:3">
       <c r="A135" s="6" t="s">
         <v>431</v>
       </c>
@@ -28599,7 +29631,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="18.5">
+    <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
         <v>432</v>
       </c>
@@ -28610,7 +29642,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="18.5">
+    <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
         <v>433</v>
       </c>
@@ -28621,7 +29653,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="18.5">
+    <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
         <v>434</v>
       </c>
@@ -28632,7 +29664,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="18.5">
+    <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
         <v>435</v>
       </c>
@@ -28643,7 +29675,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="18.5">
+    <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
         <v>436</v>
       </c>
@@ -28654,7 +29686,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="18.5">
+    <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
         <v>437</v>
       </c>
@@ -28665,7 +29697,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="18.5">
+    <row r="142" spans="1:3">
       <c r="A142" s="6" t="s">
         <v>438</v>
       </c>
@@ -28676,7 +29708,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="18.5">
+    <row r="143" spans="1:3">
       <c r="A143" s="6" t="s">
         <v>439</v>
       </c>
@@ -28687,7 +29719,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="18.5">
+    <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
         <v>440</v>
       </c>
@@ -28698,7 +29730,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="18.5">
+    <row r="145" spans="1:3">
       <c r="A145" s="6" t="s">
         <v>441</v>
       </c>
@@ -28709,7 +29741,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="18.5">
+    <row r="146" spans="1:3">
       <c r="A146" s="6" t="s">
         <v>442</v>
       </c>
@@ -28720,7 +29752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="18.5">
+    <row r="147" spans="1:3">
       <c r="A147" s="6" t="s">
         <v>443</v>
       </c>
@@ -28731,7 +29763,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="18.5">
+    <row r="148" spans="1:3">
       <c r="A148" s="6" t="s">
         <v>444</v>
       </c>
@@ -28742,7 +29774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="18.5">
+    <row r="149" spans="1:3">
       <c r="A149" s="6" t="s">
         <v>445</v>
       </c>
@@ -28753,7 +29785,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="18.5">
+    <row r="150" spans="1:3">
       <c r="A150" s="6" t="s">
         <v>446</v>
       </c>
@@ -28764,7 +29796,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="18.5">
+    <row r="151" spans="1:3">
       <c r="A151" s="6" t="s">
         <v>447</v>
       </c>
@@ -28775,7 +29807,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="18.5">
+    <row r="152" spans="1:3">
       <c r="A152" s="6" t="s">
         <v>448</v>
       </c>
@@ -28786,7 +29818,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="18.5">
+    <row r="153" spans="1:3">
       <c r="A153" s="6" t="s">
         <v>449</v>
       </c>
@@ -28797,7 +29829,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="18.5">
+    <row r="154" spans="1:3">
       <c r="A154" s="6" t="s">
         <v>450</v>
       </c>
@@ -28808,7 +29840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="18.5">
+    <row r="155" spans="1:3">
       <c r="A155" s="6" t="s">
         <v>451</v>
       </c>
@@ -28819,7 +29851,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="18.5">
+    <row r="156" spans="1:3">
       <c r="A156" s="6" t="s">
         <v>452</v>
       </c>
@@ -28830,7 +29862,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="18.5">
+    <row r="157" spans="1:3">
       <c r="A157" s="6" t="s">
         <v>453</v>
       </c>
@@ -28841,7 +29873,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="18.5">
+    <row r="158" spans="1:3">
       <c r="A158" s="6" t="s">
         <v>454</v>
       </c>
@@ -28852,7 +29884,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="18.5">
+    <row r="159" spans="1:3">
       <c r="A159" s="6" t="s">
         <v>455</v>
       </c>
@@ -28863,7 +29895,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="18.5">
+    <row r="160" spans="1:3">
       <c r="A160" s="6" t="s">
         <v>456</v>
       </c>
@@ -28874,7 +29906,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="18.5">
+    <row r="161" spans="1:3">
       <c r="A161" s="6" t="s">
         <v>457</v>
       </c>
@@ -28885,7 +29917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="18.5">
+    <row r="162" spans="1:3">
       <c r="A162" s="6" t="s">
         <v>458</v>
       </c>
@@ -28896,7 +29928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="18.5">
+    <row r="163" spans="1:3">
       <c r="A163" s="6" t="s">
         <v>459</v>
       </c>
@@ -28907,7 +29939,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="18.5">
+    <row r="164" spans="1:3">
       <c r="A164" s="6" t="s">
         <v>460</v>
       </c>
@@ -28918,7 +29950,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="18.5">
+    <row r="165" spans="1:3">
       <c r="A165" s="6" t="s">
         <v>461</v>
       </c>
@@ -28929,7 +29961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="18.5">
+    <row r="166" spans="1:3">
       <c r="A166" s="6" t="s">
         <v>462</v>
       </c>
@@ -28940,7 +29972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="18.5">
+    <row r="167" spans="1:3">
       <c r="A167" s="6" t="s">
         <v>463</v>
       </c>
@@ -28951,7 +29983,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="18.5">
+    <row r="168" spans="1:3">
       <c r="A168" s="6" t="s">
         <v>464</v>
       </c>
@@ -28962,7 +29994,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="18.5">
+    <row r="169" spans="1:3">
       <c r="A169" s="6" t="s">
         <v>465</v>
       </c>
@@ -28973,7 +30005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="18.5">
+    <row r="170" spans="1:3">
       <c r="A170" s="6" t="s">
         <v>466</v>
       </c>
@@ -28984,7 +30016,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="18.5">
+    <row r="171" spans="1:3">
       <c r="A171" s="6" t="s">
         <v>467</v>
       </c>
@@ -28995,7 +30027,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="18.5">
+    <row r="172" spans="1:3">
       <c r="A172" s="6" t="s">
         <v>468</v>
       </c>
@@ -29006,7 +30038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="18.5">
+    <row r="173" spans="1:3">
       <c r="A173" s="6" t="s">
         <v>469</v>
       </c>
@@ -29017,7 +30049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="18.5">
+    <row r="174" spans="1:3">
       <c r="A174" s="6" t="s">
         <v>470</v>
       </c>
@@ -29028,7 +30060,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="18.5">
+    <row r="175" spans="1:3">
       <c r="A175" s="6" t="s">
         <v>471</v>
       </c>
@@ -29039,7 +30071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="18.5">
+    <row r="176" spans="1:3">
       <c r="A176" s="6" t="s">
         <v>472</v>
       </c>
@@ -29050,7 +30082,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="18.5">
+    <row r="177" spans="1:3">
       <c r="A177" s="6" t="s">
         <v>473</v>
       </c>
@@ -29061,7 +30093,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="18.5">
+    <row r="178" spans="1:3">
       <c r="A178" s="6" t="s">
         <v>474</v>
       </c>
@@ -29072,7 +30104,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="18.5">
+    <row r="179" spans="1:3">
       <c r="A179" s="6" t="s">
         <v>475</v>
       </c>
@@ -29083,7 +30115,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="18.5">
+    <row r="180" spans="1:3">
       <c r="A180" s="6" t="s">
         <v>476</v>
       </c>
@@ -29094,7 +30126,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="18.5">
+    <row r="181" spans="1:3">
       <c r="A181" s="6" t="s">
         <v>477</v>
       </c>
@@ -29105,7 +30137,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="18.5">
+    <row r="182" spans="1:3">
       <c r="A182" s="6" t="s">
         <v>478</v>
       </c>
@@ -29116,7 +30148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="18.5">
+    <row r="183" spans="1:3">
       <c r="A183" s="6" t="s">
         <v>479</v>
       </c>
@@ -29127,7 +30159,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="18.5">
+    <row r="184" spans="1:3">
       <c r="A184" s="6" t="s">
         <v>480</v>
       </c>
@@ -29138,7 +30170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="18.5">
+    <row r="185" spans="1:3">
       <c r="A185" s="6" t="s">
         <v>481</v>
       </c>
@@ -29149,7 +30181,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="18.5">
+    <row r="186" spans="1:3">
       <c r="A186" s="6" t="s">
         <v>482</v>
       </c>
@@ -29160,7 +30192,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="18.5">
+    <row r="187" spans="1:3">
       <c r="A187" s="6" t="s">
         <v>483</v>
       </c>
@@ -29171,7 +30203,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="18.5">
+    <row r="188" spans="1:3">
       <c r="A188" s="6" t="s">
         <v>484</v>
       </c>
@@ -29182,7 +30214,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="18.5">
+    <row r="189" spans="1:3">
       <c r="A189" s="6" t="s">
         <v>485</v>
       </c>
@@ -29193,7 +30225,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="18.5">
+    <row r="190" spans="1:3">
       <c r="A190" s="6" t="s">
         <v>486</v>
       </c>
@@ -29204,7 +30236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="18.5">
+    <row r="191" spans="1:3">
       <c r="A191" s="6" t="s">
         <v>487</v>
       </c>
@@ -29215,7 +30247,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="18.5">
+    <row r="192" spans="1:3">
       <c r="A192" s="6" t="s">
         <v>488</v>
       </c>
@@ -29226,7 +30258,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="18.5">
+    <row r="193" spans="1:3">
       <c r="A193" s="6" t="s">
         <v>489</v>
       </c>
@@ -29237,7 +30269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="18.5">
+    <row r="194" spans="1:3">
       <c r="A194" s="6" t="s">
         <v>490</v>
       </c>
@@ -29248,7 +30280,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="18.5">
+    <row r="195" spans="1:3">
       <c r="A195" s="6" t="s">
         <v>491</v>
       </c>
@@ -29259,7 +30291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="18.5">
+    <row r="196" spans="1:3">
       <c r="A196" s="6" t="s">
         <v>492</v>
       </c>
@@ -29270,7 +30302,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="18.5">
+    <row r="197" spans="1:3">
       <c r="A197" s="6" t="s">
         <v>493</v>
       </c>
@@ -29281,7 +30313,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="18.5">
+    <row r="198" spans="1:3">
       <c r="A198" s="6" t="s">
         <v>494</v>
       </c>
@@ -29292,7 +30324,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="18.5">
+    <row r="199" spans="1:3">
       <c r="A199" s="6" t="s">
         <v>495</v>
       </c>
@@ -29303,7 +30335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="18.5">
+    <row r="200" spans="1:3">
       <c r="A200" s="6" t="s">
         <v>496</v>
       </c>
@@ -29314,7 +30346,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="18.5">
+    <row r="201" spans="1:3">
       <c r="A201" s="6" t="s">
         <v>497</v>
       </c>
@@ -29325,7 +30357,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="18.5">
+    <row r="202" spans="1:3">
       <c r="A202" s="6" t="s">
         <v>498</v>
       </c>
@@ -29336,7 +30368,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="18.5">
+    <row r="203" spans="1:3">
       <c r="A203" s="6" t="s">
         <v>499</v>
       </c>
@@ -29347,7 +30379,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="18.5">
+    <row r="204" spans="1:3">
       <c r="A204" s="6" t="s">
         <v>500</v>
       </c>
@@ -29358,7 +30390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="18.5">
+    <row r="205" spans="1:3">
       <c r="A205" s="6" t="s">
         <v>501</v>
       </c>
@@ -29369,7 +30401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="18.5">
+    <row r="206" spans="1:3">
       <c r="A206" s="6" t="s">
         <v>502</v>
       </c>
@@ -29380,7 +30412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="18.5">
+    <row r="207" spans="1:3">
       <c r="A207" s="6" t="s">
         <v>503</v>
       </c>
@@ -29391,7 +30423,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="18.5">
+    <row r="208" spans="1:3">
       <c r="A208" s="6" t="s">
         <v>504</v>
       </c>
@@ -29402,7 +30434,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="18.5">
+    <row r="209" spans="1:3">
       <c r="A209" s="6" t="s">
         <v>505</v>
       </c>
@@ -29413,7 +30445,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="18.5">
+    <row r="210" spans="1:3">
       <c r="A210" s="6" t="s">
         <v>506</v>
       </c>
@@ -29424,7 +30456,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="18.5">
+    <row r="211" spans="1:3">
       <c r="A211" s="6" t="s">
         <v>507</v>
       </c>
@@ -29435,7 +30467,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="18.5">
+    <row r="212" spans="1:3">
       <c r="A212" s="6" t="s">
         <v>508</v>
       </c>
@@ -29446,7 +30478,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="18.5">
+    <row r="213" spans="1:3">
       <c r="A213" s="6" t="s">
         <v>509</v>
       </c>
@@ -29457,7 +30489,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="18.5">
+    <row r="214" spans="1:3">
       <c r="A214" s="6" t="s">
         <v>510</v>
       </c>
@@ -30002,7 +31034,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
@@ -30032,7 +31064,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" ht="18.5">
+    <row r="2" spans="1:5" s="16" customFormat="1">
       <c r="A2" s="16" t="s">
         <v>1330</v>
       </c>
@@ -30046,7 +31078,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="82.5">
+    <row r="3" spans="1:5" ht="72.5">
       <c r="A3" s="7" t="s">
         <v>1189</v>
       </c>
@@ -30063,7 +31095,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="74.5">
+    <row r="4" spans="1:5" ht="72.5">
       <c r="A4" s="7" t="s">
         <v>1191</v>
       </c>
@@ -30080,7 +31112,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="188">
+    <row r="5" spans="1:5" ht="174">
       <c r="A5" s="7" t="s">
         <v>1193</v>
       </c>
@@ -30097,7 +31129,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="95">
+    <row r="6" spans="1:5" ht="87">
       <c r="A6" s="7" t="s">
         <v>1195</v>
       </c>
@@ -30114,7 +31146,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="89">
+    <row r="7" spans="1:5" ht="87">
       <c r="A7" s="7" t="s">
         <v>1197</v>
       </c>
@@ -30131,7 +31163,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="91">
+    <row r="8" spans="1:5" ht="87">
       <c r="A8" s="7" t="s">
         <v>1199</v>
       </c>
@@ -30148,7 +31180,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="91">
+    <row r="9" spans="1:5" ht="87">
       <c r="A9" s="7" t="s">
         <v>1201</v>
       </c>
@@ -30165,7 +31197,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="194.5">
+    <row r="10" spans="1:5" ht="188.5">
       <c r="A10" s="7" t="s">
         <v>1203</v>
       </c>
@@ -30182,7 +31214,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="190.5">
+    <row r="11" spans="1:5" ht="188.5">
       <c r="A11" s="7" t="s">
         <v>1205</v>
       </c>
@@ -30199,7 +31231,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="275">
+    <row r="12" spans="1:5" ht="261">
       <c r="A12" s="7" t="s">
         <v>1207</v>
       </c>
@@ -30270,7 +31302,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>1465</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="32" customFormat="1">
@@ -30294,7 +31326,7 @@
       </c>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:8" ht="62">
+    <row r="3" spans="1:8" ht="58">
       <c r="A3" s="5" t="s">
         <v>1275</v>
       </c>
@@ -30318,7 +31350,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="62">
+    <row r="4" spans="1:8" ht="58">
       <c r="A4" s="5" t="s">
         <v>1257</v>
       </c>
@@ -30338,10 +31370,10 @@
         <v>1360</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="62">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="58">
       <c r="A5" s="5" t="s">
         <v>1242</v>
       </c>
@@ -30362,7 +31394,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="62">
+    <row r="6" spans="1:8" ht="58">
       <c r="A6" s="5" t="s">
         <v>1224</v>
       </c>
@@ -30382,10 +31414,10 @@
         <v>1369</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="62">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="58">
       <c r="A7" s="5" t="s">
         <v>1297</v>
       </c>
@@ -30411,7 +31443,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="62">
+    <row r="8" spans="1:8" ht="58">
       <c r="A8" s="5" t="s">
         <v>1209</v>
       </c>
@@ -30430,7 +31462,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="41" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="18" spans="7:7">
@@ -30503,11 +31535,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CC0ADC-2A79-4F3D-B20D-841E29F3293C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.08203125" style="1" customWidth="1"/>
@@ -30538,7 +31570,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31">
+    <row r="4" spans="1:3" ht="29">
       <c r="A4" s="1" t="s">
         <v>1163</v>
       </c>
@@ -30576,15 +31608,15 @@
         <v>2628000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="219.5">
+    <row r="8" spans="1:3" ht="217.5">
       <c r="A8" s="1" t="s">
-        <v>1474</v>
+        <v>1457</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1475</v>
+        <v>1458</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>1476</v>
+        <v>1459</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qiuyuan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vick\dev\deadline\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9CCC40-D223-4A6C-AD19-F035CCC8242E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759CE794-E1B9-4384-BEFD-379B0891B0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data.i18n" sheetId="2" r:id="rId1"/>
@@ -21153,78 +21153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Your life expectancy will increase by: {years} years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的寿命将延长：{years}年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>您的壽命將延長：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>{years}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>あなたの寿命は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>{years}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>年延びます</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI_SUGGESS_EXTEND</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -22331,6 +22259,106 @@
         <charset val="128"/>
       </rPr>
       <t>分間の深呼吸や瞑想、リラックスできる音楽を聴くことで、不安を和らげ、集中力を高め、精神的なバランスを取り戻すのに役立ちます。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your life expectancy will increase by: &lt;span style="color:#49da54;"&gt;{years} years&lt;/span&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的寿命将延长：&lt;span style="color:#49da54;"&gt;{years} 年&lt;/span&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您的壽命將延長：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;span style="color:#49da54;"&gt;{years} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>あなたの寿命は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;span style="color:#49da54;"&gt;{years} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>延びます</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -22944,10 +22972,10 @@
   <dimension ref="A1:E320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -22980,7 +23008,7 @@
     <row r="2" spans="1:5" s="14" customFormat="1">
       <c r="A2" s="15"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="18.5">
       <c r="A3" s="8" t="s">
         <v>269</v>
       </c>
@@ -23014,7 +23042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="18.5">
       <c r="A5" s="8" t="s">
         <v>1169</v>
       </c>
@@ -23031,7 +23059,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="18.5">
       <c r="A6" s="8" t="s">
         <v>1170</v>
       </c>
@@ -23048,7 +23076,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="18.5">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -23065,7 +23093,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="18.5">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
@@ -23082,7 +23110,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="18.5">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -23099,7 +23127,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="18.5">
       <c r="A12" s="8" t="s">
         <v>267</v>
       </c>
@@ -23116,7 +23144,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.5">
+    <row r="13" spans="1:5" ht="55.5">
       <c r="A13" s="8" t="s">
         <v>268</v>
       </c>
@@ -23155,16 +23183,16 @@
         <v>1435</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="D16" s="38" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>1474</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23172,16 +23200,16 @@
         <v>1442</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23189,16 +23217,16 @@
         <v>1436</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>1468</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>1472</v>
-      </c>
       <c r="E18" s="38" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23206,16 +23234,16 @@
         <v>1438</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23223,16 +23251,16 @@
         <v>1437</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23240,16 +23268,16 @@
         <v>1439</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" ht="36">
@@ -23269,24 +23297,24 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="18">
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="36">
       <c r="A23" s="3" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1451</v>
+        <v>1480</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>1452</v>
+        <v>1481</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>1453</v>
+        <v>1482</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.5">
       <c r="A25" s="8" t="s">
         <v>252</v>
       </c>
@@ -23303,7 +23331,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="18.5">
       <c r="A26" s="8" t="s">
         <v>253</v>
       </c>
@@ -23320,7 +23348,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="18.5">
       <c r="A27" s="8" t="s">
         <v>254</v>
       </c>
@@ -23337,7 +23365,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="18.5">
       <c r="A28" s="8" t="s">
         <v>255</v>
       </c>
@@ -23385,10 +23413,10 @@
         <v>1186</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.5">
       <c r="A32" s="8" t="s">
         <v>257</v>
       </c>
@@ -23405,7 +23433,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="18.5">
       <c r="A33" s="8" t="s">
         <v>256</v>
       </c>
@@ -23422,7 +23450,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="18.5">
       <c r="A34" s="8" t="s">
         <v>258</v>
       </c>
@@ -23439,7 +23467,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="18.5">
       <c r="A35" s="8" t="s">
         <v>259</v>
       </c>
@@ -23456,7 +23484,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="18.5">
       <c r="A36" s="8" t="s">
         <v>260</v>
       </c>
@@ -23473,7 +23501,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="18.5">
       <c r="A37" s="8" t="s">
         <v>261</v>
       </c>
@@ -23490,7 +23518,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="18.5">
       <c r="A38" s="8" t="s">
         <v>262</v>
       </c>
@@ -23524,7 +23552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="18.5">
       <c r="A40" s="8" t="s">
         <v>264</v>
       </c>
@@ -23541,7 +23569,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="18.5">
       <c r="A41" s="8" t="s">
         <v>265</v>
       </c>
@@ -23558,7 +23586,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="18.5">
       <c r="A42" s="8" t="s">
         <v>266</v>
       </c>
@@ -23575,7 +23603,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="18.5">
       <c r="A44" s="28" t="s">
         <v>1189</v>
       </c>
@@ -23592,7 +23620,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="18.5">
       <c r="A45" s="28" t="s">
         <v>1191</v>
       </c>
@@ -23609,7 +23637,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="18.5">
       <c r="A46" s="28" t="s">
         <v>1193</v>
       </c>
@@ -23626,7 +23654,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="18.5">
       <c r="A47" s="28" t="s">
         <v>1195</v>
       </c>
@@ -23643,7 +23671,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="18.5">
       <c r="A48" s="28" t="s">
         <v>1197</v>
       </c>
@@ -23660,7 +23688,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="18.5">
       <c r="A49" s="28" t="s">
         <v>1199</v>
       </c>
@@ -23677,7 +23705,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="18.5">
       <c r="A50" s="28" t="s">
         <v>1201</v>
       </c>
@@ -23694,7 +23722,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="18.5">
       <c r="A51" s="28" t="s">
         <v>1203</v>
       </c>
@@ -23711,7 +23739,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="18.5">
       <c r="A52" s="28" t="s">
         <v>1205</v>
       </c>
@@ -23728,7 +23756,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="18.5">
       <c r="A53" s="28" t="s">
         <v>1207</v>
       </c>
@@ -23750,7 +23778,7 @@
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="18.5">
       <c r="A55" s="29" t="s">
         <v>1209</v>
       </c>
@@ -23767,7 +23795,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="18.5">
       <c r="A56" s="29" t="s">
         <v>1212</v>
       </c>
@@ -23784,7 +23812,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="18.5">
       <c r="A57" s="29" t="s">
         <v>1215</v>
       </c>
@@ -23801,7 +23829,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" ht="18.5">
       <c r="A58" s="29" t="s">
         <v>1218</v>
       </c>
@@ -23818,7 +23846,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" ht="18.5">
       <c r="A59" s="29" t="s">
         <v>1221</v>
       </c>
@@ -23835,7 +23863,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="18.5">
       <c r="A61" s="29" t="s">
         <v>1224</v>
       </c>
@@ -23852,7 +23880,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="18.5">
       <c r="A62" s="29" t="s">
         <v>1227</v>
       </c>
@@ -23869,7 +23897,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="18.5">
       <c r="A63" s="29" t="s">
         <v>1230</v>
       </c>
@@ -23886,7 +23914,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="18.5">
       <c r="A64" s="29" t="s">
         <v>1233</v>
       </c>
@@ -23903,7 +23931,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="18.5">
       <c r="A65" s="29" t="s">
         <v>1236</v>
       </c>
@@ -23920,7 +23948,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="18.5">
       <c r="A66" s="29" t="s">
         <v>1239</v>
       </c>
@@ -23937,7 +23965,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" ht="18.5">
       <c r="A68" s="29" t="s">
         <v>1242</v>
       </c>
@@ -23954,7 +23982,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="18.5">
       <c r="A69" s="29" t="s">
         <v>1245</v>
       </c>
@@ -23971,7 +23999,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="18.5">
       <c r="A70" s="29" t="s">
         <v>1248</v>
       </c>
@@ -23988,7 +24016,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="18.5">
       <c r="A71" s="29" t="s">
         <v>1251</v>
       </c>
@@ -24005,7 +24033,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="18.5">
       <c r="A72" s="29" t="s">
         <v>1254</v>
       </c>
@@ -24022,7 +24050,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="29">
+    <row r="74" spans="1:5" ht="37">
       <c r="A74" s="29" t="s">
         <v>1257</v>
       </c>
@@ -24039,7 +24067,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" ht="18.5">
       <c r="A75" s="29" t="s">
         <v>1260</v>
       </c>
@@ -24056,7 +24084,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" ht="18.5">
       <c r="A76" s="29" t="s">
         <v>1263</v>
       </c>
@@ -24073,7 +24101,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="18.5">
       <c r="A77" s="29" t="s">
         <v>1266</v>
       </c>
@@ -24090,7 +24118,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="18.5">
       <c r="A78" s="29" t="s">
         <v>1269</v>
       </c>
@@ -24107,7 +24135,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="18.5">
       <c r="A79" s="29" t="s">
         <v>1272</v>
       </c>
@@ -24124,7 +24152,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="29">
+    <row r="80" spans="1:5" ht="37">
       <c r="A80" s="29" t="s">
         <v>1275</v>
       </c>
@@ -24141,7 +24169,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="18.5">
       <c r="A81" s="29" t="s">
         <v>1278</v>
       </c>
@@ -24158,7 +24186,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" ht="18.5">
       <c r="A82" s="29" t="s">
         <v>1281</v>
       </c>
@@ -24175,7 +24203,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" ht="18.5">
       <c r="A83" s="29" t="s">
         <v>1285</v>
       </c>
@@ -24192,7 +24220,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" ht="18.5">
       <c r="A84" s="29" t="s">
         <v>1289</v>
       </c>
@@ -24209,7 +24237,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="18.5">
       <c r="A85" s="29" t="s">
         <v>1293</v>
       </c>
@@ -24226,7 +24254,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="18.5">
       <c r="A88" s="29" t="s">
         <v>1297</v>
       </c>
@@ -24243,7 +24271,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" ht="18.5">
       <c r="A89" s="30" t="s">
         <v>1300</v>
       </c>
@@ -24260,7 +24288,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" ht="18.5">
       <c r="A90" s="29" t="s">
         <v>1301</v>
       </c>
@@ -24277,7 +24305,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" ht="18.5">
       <c r="A91" s="29" t="s">
         <v>1302</v>
       </c>
@@ -24294,7 +24322,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" ht="18.5">
       <c r="A92" s="29" t="s">
         <v>1304</v>
       </c>
@@ -24311,7 +24339,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" ht="18.5">
       <c r="A93" s="29" t="s">
         <v>1306</v>
       </c>
@@ -24328,7 +24356,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" ht="18.5">
       <c r="A94" s="29" t="s">
         <v>1308</v>
       </c>
@@ -24345,7 +24373,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="18.5">
       <c r="A97" s="8" t="s">
         <v>1311</v>
       </c>
@@ -24362,7 +24390,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" ht="18.5">
       <c r="A98" s="8" t="s">
         <v>1312</v>
       </c>
@@ -24379,7 +24407,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" ht="18.5">
       <c r="A99" s="31" t="s">
         <v>1314</v>
       </c>
@@ -24396,7 +24424,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" ht="18.5">
       <c r="A100" s="31" t="s">
         <v>1316</v>
       </c>
@@ -24413,7 +24441,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="18.5">
       <c r="A101" s="31" t="s">
         <v>1318</v>
       </c>
@@ -24430,7 +24458,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" ht="18.5">
       <c r="A102" s="31" t="s">
         <v>1320</v>
       </c>
@@ -24447,7 +24475,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="29">
+    <row r="103" spans="1:5" ht="37">
       <c r="A103" s="31" t="s">
         <v>1322</v>
       </c>
@@ -24464,7 +24492,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="29">
+    <row r="104" spans="1:5" ht="31">
       <c r="A104" s="31" t="s">
         <v>1324</v>
       </c>
@@ -24481,7 +24509,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="29">
+    <row r="105" spans="1:5" ht="31">
       <c r="A105" s="31" t="s">
         <v>1326</v>
       </c>
@@ -24498,7 +24526,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="29">
+    <row r="106" spans="1:5" ht="31">
       <c r="A106" s="31" t="s">
         <v>1328</v>
       </c>
@@ -24522,7 +24550,7 @@
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" ht="18.5">
       <c r="A109" s="8" t="s">
         <v>588</v>
       </c>
@@ -24539,7 +24567,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" ht="18.5">
       <c r="A110" s="8" t="s">
         <v>590</v>
       </c>
@@ -24556,7 +24584,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" ht="18.5">
       <c r="A111" s="8" t="s">
         <v>592</v>
       </c>
@@ -24573,7 +24601,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" ht="18.5">
       <c r="A112" s="8" t="s">
         <v>595</v>
       </c>
@@ -24590,7 +24618,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" ht="18.5">
       <c r="A113" s="8" t="s">
         <v>598</v>
       </c>
@@ -24607,7 +24635,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" ht="18.5">
       <c r="A114" s="8" t="s">
         <v>600</v>
       </c>
@@ -24624,7 +24652,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" ht="18.5">
       <c r="A115" s="8" t="s">
         <v>603</v>
       </c>
@@ -24641,7 +24669,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" ht="18.5">
       <c r="A116" s="8" t="s">
         <v>605</v>
       </c>
@@ -24658,7 +24686,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="18.5">
       <c r="A117" s="8" t="s">
         <v>607</v>
       </c>
@@ -24675,7 +24703,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="18.5">
       <c r="A118" s="8" t="s">
         <v>609</v>
       </c>
@@ -24692,7 +24720,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="18.5">
       <c r="A119" s="8" t="s">
         <v>612</v>
       </c>
@@ -24709,7 +24737,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" ht="18.5">
       <c r="A120" s="8" t="s">
         <v>615</v>
       </c>
@@ -24726,7 +24754,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" ht="18.5">
       <c r="A121" s="8" t="s">
         <v>617</v>
       </c>
@@ -24743,7 +24771,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" ht="18.5">
       <c r="A122" s="8" t="s">
         <v>619</v>
       </c>
@@ -24760,7 +24788,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" ht="18.5">
       <c r="A123" s="8" t="s">
         <v>622</v>
       </c>
@@ -24777,7 +24805,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" ht="18.5">
       <c r="A124" s="8" t="s">
         <v>625</v>
       </c>
@@ -24794,7 +24822,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="18.5">
       <c r="A125" s="8" t="s">
         <v>628</v>
       </c>
@@ -24811,7 +24839,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" ht="18.5">
       <c r="A126" s="8" t="s">
         <v>631</v>
       </c>
@@ -24828,7 +24856,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" ht="18.5">
       <c r="A127" s="8" t="s">
         <v>633</v>
       </c>
@@ -24845,7 +24873,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" ht="18.5">
       <c r="A128" s="8" t="s">
         <v>635</v>
       </c>
@@ -24862,7 +24890,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" ht="18.5">
       <c r="A129" s="8" t="s">
         <v>637</v>
       </c>
@@ -24879,7 +24907,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" ht="18.5">
       <c r="A130" s="8" t="s">
         <v>639</v>
       </c>
@@ -24896,7 +24924,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" ht="18.5">
       <c r="A131" s="8" t="s">
         <v>641</v>
       </c>
@@ -24913,7 +24941,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" ht="18.5">
       <c r="A132" s="8" t="s">
         <v>644</v>
       </c>
@@ -24930,7 +24958,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" ht="18.5">
       <c r="A133" s="8" t="s">
         <v>647</v>
       </c>
@@ -24947,7 +24975,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" ht="18.5">
       <c r="A134" s="8" t="s">
         <v>650</v>
       </c>
@@ -24964,7 +24992,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" ht="18.5">
       <c r="A135" s="8" t="s">
         <v>652</v>
       </c>
@@ -24981,7 +25009,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" ht="18.5">
       <c r="A136" s="8" t="s">
         <v>655</v>
       </c>
@@ -24998,7 +25026,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" ht="18.5">
       <c r="A137" s="8" t="s">
         <v>658</v>
       </c>
@@ -25015,7 +25043,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" ht="18.5">
       <c r="A138" s="8" t="s">
         <v>660</v>
       </c>
@@ -25032,7 +25060,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" ht="18.5">
       <c r="A139" s="8" t="s">
         <v>663</v>
       </c>
@@ -25049,7 +25077,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" ht="18.5">
       <c r="A140" s="8" t="s">
         <v>665</v>
       </c>
@@ -25066,7 +25094,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" ht="18.5">
       <c r="A141" s="8" t="s">
         <v>668</v>
       </c>
@@ -25083,7 +25111,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" ht="18.5">
       <c r="A142" s="8" t="s">
         <v>671</v>
       </c>
@@ -25100,7 +25128,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" ht="18.5">
       <c r="A143" s="8" t="s">
         <v>674</v>
       </c>
@@ -25117,7 +25145,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" ht="18.5">
       <c r="A144" s="8" t="s">
         <v>677</v>
       </c>
@@ -25134,7 +25162,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" ht="18.5">
       <c r="A145" s="8" t="s">
         <v>680</v>
       </c>
@@ -25151,7 +25179,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" ht="18.5">
       <c r="A146" s="8" t="s">
         <v>683</v>
       </c>
@@ -25168,7 +25196,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" ht="18.5">
       <c r="A147" s="8" t="s">
         <v>686</v>
       </c>
@@ -25185,7 +25213,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" ht="18.5">
       <c r="A148" s="8" t="s">
         <v>689</v>
       </c>
@@ -25202,7 +25230,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" ht="18.5">
       <c r="A149" s="8" t="s">
         <v>692</v>
       </c>
@@ -25219,7 +25247,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" ht="18.5">
       <c r="A150" s="8" t="s">
         <v>694</v>
       </c>
@@ -25236,7 +25264,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" ht="18.5">
       <c r="A151" s="8" t="s">
         <v>697</v>
       </c>
@@ -25253,7 +25281,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" ht="18.5">
       <c r="A152" s="8" t="s">
         <v>699</v>
       </c>
@@ -25270,7 +25298,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" ht="18.5">
       <c r="A153" s="8" t="s">
         <v>702</v>
       </c>
@@ -25287,7 +25315,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" ht="18.5">
       <c r="A154" s="8" t="s">
         <v>705</v>
       </c>
@@ -25304,7 +25332,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" ht="18.5">
       <c r="A155" s="8" t="s">
         <v>708</v>
       </c>
@@ -25321,7 +25349,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" ht="18.5">
       <c r="A156" s="8" t="s">
         <v>711</v>
       </c>
@@ -25338,7 +25366,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" ht="18.5">
       <c r="A157" s="8" t="s">
         <v>714</v>
       </c>
@@ -25355,7 +25383,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" ht="18.5">
       <c r="A158" s="8" t="s">
         <v>716</v>
       </c>
@@ -25372,7 +25400,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" ht="18.5">
       <c r="A159" s="8" t="s">
         <v>719</v>
       </c>
@@ -25389,7 +25417,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" ht="18.5">
       <c r="A160" s="8" t="s">
         <v>722</v>
       </c>
@@ -25406,7 +25434,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" ht="18.5">
       <c r="A161" s="8" t="s">
         <v>725</v>
       </c>
@@ -25423,7 +25451,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" ht="18.5">
       <c r="A162" s="8" t="s">
         <v>728</v>
       </c>
@@ -25440,7 +25468,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" ht="18.5">
       <c r="A163" s="8" t="s">
         <v>731</v>
       </c>
@@ -25457,7 +25485,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" ht="18.5">
       <c r="A164" s="8" t="s">
         <v>734</v>
       </c>
@@ -25474,7 +25502,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" ht="18.5">
       <c r="A165" s="8" t="s">
         <v>736</v>
       </c>
@@ -25491,7 +25519,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" ht="18.5">
       <c r="A166" s="8" t="s">
         <v>739</v>
       </c>
@@ -25508,7 +25536,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" ht="18.5">
       <c r="A167" s="8" t="s">
         <v>742</v>
       </c>
@@ -25525,7 +25553,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" ht="18.5">
       <c r="A168" s="8" t="s">
         <v>745</v>
       </c>
@@ -25542,7 +25570,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" ht="18.5">
       <c r="A169" s="8" t="s">
         <v>748</v>
       </c>
@@ -25559,7 +25587,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" ht="18.5">
       <c r="A170" s="8" t="s">
         <v>751</v>
       </c>
@@ -25576,7 +25604,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" ht="18.5">
       <c r="A171" s="8" t="s">
         <v>754</v>
       </c>
@@ -25593,7 +25621,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" ht="18.5">
       <c r="A172" s="8" t="s">
         <v>757</v>
       </c>
@@ -25610,7 +25638,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" ht="18.5">
       <c r="A173" s="8" t="s">
         <v>759</v>
       </c>
@@ -25627,7 +25655,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" ht="18.5">
       <c r="A174" s="8" t="s">
         <v>762</v>
       </c>
@@ -25644,7 +25672,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" ht="18.5">
       <c r="A175" s="8" t="s">
         <v>764</v>
       </c>
@@ -25661,7 +25689,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" ht="18.5">
       <c r="A176" s="8" t="s">
         <v>767</v>
       </c>
@@ -25678,7 +25706,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" ht="18.5">
       <c r="A177" s="8" t="s">
         <v>769</v>
       </c>
@@ -25695,7 +25723,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" ht="18.5">
       <c r="A178" s="8" t="s">
         <v>772</v>
       </c>
@@ -25712,7 +25740,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" ht="18.5">
       <c r="A179" s="8" t="s">
         <v>775</v>
       </c>
@@ -25729,7 +25757,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" ht="18.5">
       <c r="A180" s="8" t="s">
         <v>778</v>
       </c>
@@ -25746,7 +25774,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" ht="18.5">
       <c r="A181" s="8" t="s">
         <v>780</v>
       </c>
@@ -25763,7 +25791,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" ht="18.5">
       <c r="A182" s="8" t="s">
         <v>782</v>
       </c>
@@ -25780,7 +25808,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" ht="18.5">
       <c r="A183" s="8" t="s">
         <v>785</v>
       </c>
@@ -25797,7 +25825,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" ht="18.5">
       <c r="A184" s="8" t="s">
         <v>787</v>
       </c>
@@ -25814,7 +25842,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" ht="18.5">
       <c r="A185" s="8" t="s">
         <v>790</v>
       </c>
@@ -25831,7 +25859,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" ht="18.5">
       <c r="A186" s="8" t="s">
         <v>793</v>
       </c>
@@ -25848,7 +25876,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" ht="18.5">
       <c r="A187" s="8" t="s">
         <v>796</v>
       </c>
@@ -25865,7 +25893,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" ht="18.5">
       <c r="A188" s="8" t="s">
         <v>798</v>
       </c>
@@ -25882,7 +25910,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" ht="18.5">
       <c r="A189" s="8" t="s">
         <v>800</v>
       </c>
@@ -25899,7 +25927,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" ht="18.5">
       <c r="A190" s="8" t="s">
         <v>803</v>
       </c>
@@ -25916,7 +25944,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" ht="18.5">
       <c r="A191" s="8" t="s">
         <v>805</v>
       </c>
@@ -25933,7 +25961,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" ht="18.5">
       <c r="A192" s="8" t="s">
         <v>808</v>
       </c>
@@ -25950,7 +25978,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" ht="18.5">
       <c r="A193" s="8" t="s">
         <v>810</v>
       </c>
@@ -25967,7 +25995,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" ht="18.5">
       <c r="A194" s="8" t="s">
         <v>812</v>
       </c>
@@ -25984,7 +26012,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" ht="18.5">
       <c r="A195" s="8" t="s">
         <v>814</v>
       </c>
@@ -26001,7 +26029,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" ht="18.5">
       <c r="A196" s="8" t="s">
         <v>817</v>
       </c>
@@ -26018,7 +26046,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" ht="18.5">
       <c r="A197" s="8" t="s">
         <v>820</v>
       </c>
@@ -26035,7 +26063,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" ht="18.5">
       <c r="A198" s="8" t="s">
         <v>823</v>
       </c>
@@ -26052,7 +26080,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" ht="18.5">
       <c r="A199" s="8" t="s">
         <v>826</v>
       </c>
@@ -26069,7 +26097,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" ht="18.5">
       <c r="A200" s="8" t="s">
         <v>829</v>
       </c>
@@ -26086,7 +26114,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" ht="18.5">
       <c r="A201" s="8" t="s">
         <v>831</v>
       </c>
@@ -26103,7 +26131,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" ht="18.5">
       <c r="A202" s="8" t="s">
         <v>834</v>
       </c>
@@ -26120,7 +26148,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" ht="18.5">
       <c r="A203" s="8" t="s">
         <v>837</v>
       </c>
@@ -26137,7 +26165,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" ht="18.5">
       <c r="A204" s="8" t="s">
         <v>839</v>
       </c>
@@ -26154,7 +26182,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" ht="18.5">
       <c r="A205" s="8" t="s">
         <v>842</v>
       </c>
@@ -26171,7 +26199,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" ht="18.5">
       <c r="A206" s="8" t="s">
         <v>845</v>
       </c>
@@ -26188,7 +26216,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" ht="18.5">
       <c r="A207" s="8" t="s">
         <v>848</v>
       </c>
@@ -26205,7 +26233,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" ht="18.5">
       <c r="A208" s="8" t="s">
         <v>851</v>
       </c>
@@ -26222,7 +26250,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" ht="18.5">
       <c r="A209" s="8" t="s">
         <v>854</v>
       </c>
@@ -26239,7 +26267,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" ht="18.5">
       <c r="A210" s="8" t="s">
         <v>858</v>
       </c>
@@ -26256,7 +26284,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" ht="18.5">
       <c r="A211" s="8" t="s">
         <v>862</v>
       </c>
@@ -26273,7 +26301,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" ht="18.5">
       <c r="A212" s="8" t="s">
         <v>865</v>
       </c>
@@ -26290,7 +26318,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" ht="18.5">
       <c r="A213" s="8" t="s">
         <v>868</v>
       </c>
@@ -26307,7 +26335,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" ht="18.5">
       <c r="A214" s="8" t="s">
         <v>871</v>
       </c>
@@ -26324,7 +26352,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" ht="18.5">
       <c r="A215" s="8" t="s">
         <v>874</v>
       </c>
@@ -26341,7 +26369,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" ht="18.5">
       <c r="A216" s="8" t="s">
         <v>876</v>
       </c>
@@ -26358,7 +26386,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" ht="18.5">
       <c r="A217" s="8" t="s">
         <v>879</v>
       </c>
@@ -26375,7 +26403,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" ht="18.5">
       <c r="A218" s="8" t="s">
         <v>882</v>
       </c>
@@ -26392,7 +26420,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" ht="18.5">
       <c r="A219" s="8" t="s">
         <v>884</v>
       </c>
@@ -26409,7 +26437,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" ht="18.5">
       <c r="A220" s="8" t="s">
         <v>886</v>
       </c>
@@ -26426,7 +26454,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" ht="18.5">
       <c r="A221" s="8" t="s">
         <v>889</v>
       </c>
@@ -26443,7 +26471,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" ht="18.5">
       <c r="A222" s="8" t="s">
         <v>892</v>
       </c>
@@ -26460,7 +26488,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" ht="18.5">
       <c r="A223" s="8" t="s">
         <v>895</v>
       </c>
@@ -26477,7 +26505,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" ht="18.5">
       <c r="A224" s="8" t="s">
         <v>898</v>
       </c>
@@ -26494,7 +26522,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" ht="18.5">
       <c r="A225" s="8" t="s">
         <v>901</v>
       </c>
@@ -26511,7 +26539,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" ht="18.5">
       <c r="A226" s="8" t="s">
         <v>904</v>
       </c>
@@ -26528,7 +26556,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" ht="18.5">
       <c r="A227" s="8" t="s">
         <v>906</v>
       </c>
@@ -26545,7 +26573,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" ht="18.5">
       <c r="A228" s="8" t="s">
         <v>908</v>
       </c>
@@ -26562,7 +26590,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" ht="18.5">
       <c r="A229" s="8" t="s">
         <v>910</v>
       </c>
@@ -26579,7 +26607,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" ht="18.5">
       <c r="A230" s="8" t="s">
         <v>913</v>
       </c>
@@ -26596,7 +26624,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" ht="18.5">
       <c r="A231" s="8" t="s">
         <v>916</v>
       </c>
@@ -26613,7 +26641,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" ht="18.5">
       <c r="A232" s="8" t="s">
         <v>919</v>
       </c>
@@ -26630,7 +26658,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" ht="18.5">
       <c r="A233" s="8" t="s">
         <v>922</v>
       </c>
@@ -26647,7 +26675,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" ht="18.5">
       <c r="A234" s="8" t="s">
         <v>925</v>
       </c>
@@ -26664,7 +26692,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" ht="18.5">
       <c r="A235" s="8" t="s">
         <v>928</v>
       </c>
@@ -26681,7 +26709,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" ht="18.5">
       <c r="A236" s="8" t="s">
         <v>930</v>
       </c>
@@ -26698,7 +26726,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" ht="18.5">
       <c r="A237" s="8" t="s">
         <v>932</v>
       </c>
@@ -26715,7 +26743,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" ht="18.5">
       <c r="A238" s="8" t="s">
         <v>935</v>
       </c>
@@ -26732,7 +26760,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" ht="18.5">
       <c r="A239" s="8" t="s">
         <v>937</v>
       </c>
@@ -26749,7 +26777,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" ht="18.5">
       <c r="A240" s="8" t="s">
         <v>940</v>
       </c>
@@ -26766,7 +26794,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" ht="18.5">
       <c r="A241" s="8" t="s">
         <v>943</v>
       </c>
@@ -26783,7 +26811,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" ht="18.5">
       <c r="A242" s="8" t="s">
         <v>946</v>
       </c>
@@ -26800,7 +26828,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" ht="18.5">
       <c r="A243" s="8" t="s">
         <v>948</v>
       </c>
@@ -26817,7 +26845,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" ht="18.5">
       <c r="A244" s="8" t="s">
         <v>950</v>
       </c>
@@ -26834,7 +26862,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" ht="18.5">
       <c r="A245" s="8" t="s">
         <v>952</v>
       </c>
@@ -26851,7 +26879,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" ht="18.5">
       <c r="A246" s="8" t="s">
         <v>954</v>
       </c>
@@ -26868,7 +26896,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" ht="18.5">
       <c r="A247" s="8" t="s">
         <v>957</v>
       </c>
@@ -26885,7 +26913,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" ht="18.5">
       <c r="A248" s="8" t="s">
         <v>960</v>
       </c>
@@ -26902,7 +26930,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" ht="18.5">
       <c r="A249" s="8" t="s">
         <v>962</v>
       </c>
@@ -26919,7 +26947,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" ht="18.5">
       <c r="A250" s="8" t="s">
         <v>965</v>
       </c>
@@ -26936,7 +26964,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" ht="18.5">
       <c r="A251" s="8" t="s">
         <v>968</v>
       </c>
@@ -26953,7 +26981,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" ht="18.5">
       <c r="A252" s="8" t="s">
         <v>971</v>
       </c>
@@ -26970,7 +26998,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" ht="18.5">
       <c r="A253" s="8" t="s">
         <v>973</v>
       </c>
@@ -26987,7 +27015,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" ht="18.5">
       <c r="A254" s="8" t="s">
         <v>976</v>
       </c>
@@ -27004,7 +27032,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" ht="18.5">
       <c r="A255" s="8" t="s">
         <v>979</v>
       </c>
@@ -27021,7 +27049,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" ht="18.5">
       <c r="A256" s="8" t="s">
         <v>982</v>
       </c>
@@ -27038,7 +27066,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" ht="18.5">
       <c r="A257" s="8" t="s">
         <v>985</v>
       </c>
@@ -27055,7 +27083,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" ht="18.5">
       <c r="A258" s="8" t="s">
         <v>988</v>
       </c>
@@ -27072,7 +27100,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" ht="18.5">
       <c r="A259" s="8" t="s">
         <v>991</v>
       </c>
@@ -27089,7 +27117,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" ht="18.5">
       <c r="A260" s="8" t="s">
         <v>994</v>
       </c>
@@ -27106,7 +27134,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" ht="18.5">
       <c r="A261" s="8" t="s">
         <v>997</v>
       </c>
@@ -27123,7 +27151,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" ht="18.5">
       <c r="A262" s="8" t="s">
         <v>999</v>
       </c>
@@ -27140,7 +27168,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" ht="18.5">
       <c r="A263" s="8" t="s">
         <v>1002</v>
       </c>
@@ -27157,7 +27185,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" ht="18.5">
       <c r="A264" s="8" t="s">
         <v>1005</v>
       </c>
@@ -27174,7 +27202,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" ht="18.5">
       <c r="A265" s="8" t="s">
         <v>1008</v>
       </c>
@@ -27191,7 +27219,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" ht="18.5">
       <c r="A266" s="8" t="s">
         <v>1011</v>
       </c>
@@ -27208,7 +27236,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" ht="18.5">
       <c r="A267" s="8" t="s">
         <v>1014</v>
       </c>
@@ -27225,7 +27253,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" ht="18.5">
       <c r="A268" s="8" t="s">
         <v>1017</v>
       </c>
@@ -27242,7 +27270,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" ht="18.5">
       <c r="A269" s="8" t="s">
         <v>1020</v>
       </c>
@@ -27259,7 +27287,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" ht="18.5">
       <c r="A270" s="8" t="s">
         <v>1023</v>
       </c>
@@ -27276,7 +27304,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" ht="18.5">
       <c r="A271" s="8" t="s">
         <v>1026</v>
       </c>
@@ -27293,7 +27321,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" ht="18.5">
       <c r="A272" s="8" t="s">
         <v>1028</v>
       </c>
@@ -27310,7 +27338,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" ht="18.5">
       <c r="A273" s="8" t="s">
         <v>1031</v>
       </c>
@@ -27327,7 +27355,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" ht="18.5">
       <c r="A274" s="8" t="s">
         <v>1033</v>
       </c>
@@ -27344,7 +27372,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" ht="18.5">
       <c r="A275" s="8" t="s">
         <v>1036</v>
       </c>
@@ -27361,7 +27389,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" ht="18.5">
       <c r="A276" s="8" t="s">
         <v>1039</v>
       </c>
@@ -27378,7 +27406,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" ht="18.5">
       <c r="A277" s="8" t="s">
         <v>1042</v>
       </c>
@@ -27395,7 +27423,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" ht="18.5">
       <c r="A278" s="8" t="s">
         <v>1045</v>
       </c>
@@ -27412,7 +27440,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" ht="18.5">
       <c r="A279" s="8" t="s">
         <v>1048</v>
       </c>
@@ -27429,7 +27457,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" ht="18.5">
       <c r="A280" s="8" t="s">
         <v>1051</v>
       </c>
@@ -27446,7 +27474,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" ht="18.5">
       <c r="A281" s="8" t="s">
         <v>1053</v>
       </c>
@@ -27463,7 +27491,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" ht="18.5">
       <c r="A282" s="8" t="s">
         <v>1056</v>
       </c>
@@ -27480,7 +27508,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" ht="18.5">
       <c r="A283" s="8" t="s">
         <v>1058</v>
       </c>
@@ -27497,7 +27525,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" ht="18.5">
       <c r="A284" s="8" t="s">
         <v>1061</v>
       </c>
@@ -27514,7 +27542,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" ht="18.5">
       <c r="A285" s="8" t="s">
         <v>1064</v>
       </c>
@@ -27531,7 +27559,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" ht="18.5">
       <c r="A286" s="8" t="s">
         <v>1067</v>
       </c>
@@ -27548,7 +27576,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" ht="18.5">
       <c r="A287" s="8" t="s">
         <v>1069</v>
       </c>
@@ -27565,7 +27593,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" ht="18.5">
       <c r="A288" s="8" t="s">
         <v>1072</v>
       </c>
@@ -27582,7 +27610,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" ht="18.5">
       <c r="A289" s="8" t="s">
         <v>1074</v>
       </c>
@@ -27599,7 +27627,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" ht="18.5">
       <c r="A290" s="8" t="s">
         <v>1077</v>
       </c>
@@ -27616,7 +27644,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" ht="18.5">
       <c r="A291" s="8" t="s">
         <v>1080</v>
       </c>
@@ -27633,7 +27661,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" ht="18.5">
       <c r="A292" s="8" t="s">
         <v>1083</v>
       </c>
@@ -27650,7 +27678,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" ht="18.5">
       <c r="A293" s="8" t="s">
         <v>1086</v>
       </c>
@@ -27667,7 +27695,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" ht="18.5">
       <c r="A294" s="8" t="s">
         <v>1089</v>
       </c>
@@ -27684,7 +27712,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" ht="18.5">
       <c r="A295" s="8" t="s">
         <v>1091</v>
       </c>
@@ -27701,7 +27729,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" ht="18.5">
       <c r="A296" s="8" t="s">
         <v>1094</v>
       </c>
@@ -27718,7 +27746,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" ht="18.5">
       <c r="A297" s="8" t="s">
         <v>1096</v>
       </c>
@@ -27735,7 +27763,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" ht="18.5">
       <c r="A298" s="8" t="s">
         <v>1099</v>
       </c>
@@ -27752,7 +27780,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" ht="18.5">
       <c r="A299" s="8" t="s">
         <v>1101</v>
       </c>
@@ -27769,7 +27797,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" ht="18.5">
       <c r="A300" s="8" t="s">
         <v>1103</v>
       </c>
@@ -27786,7 +27814,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" ht="18.5">
       <c r="A301" s="8" t="s">
         <v>1105</v>
       </c>
@@ -27803,7 +27831,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" ht="18.5">
       <c r="A302" s="8" t="s">
         <v>1108</v>
       </c>
@@ -27820,7 +27848,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" ht="18.5">
       <c r="A303" s="8" t="s">
         <v>1111</v>
       </c>
@@ -27837,7 +27865,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" ht="18.5">
       <c r="A304" s="8" t="s">
         <v>1113</v>
       </c>
@@ -27854,7 +27882,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" ht="18.5">
       <c r="A305" s="8" t="s">
         <v>1116</v>
       </c>
@@ -27871,7 +27899,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" ht="18.5">
       <c r="A306" s="8" t="s">
         <v>1119</v>
       </c>
@@ -27888,7 +27916,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" ht="18.5">
       <c r="A307" s="8" t="s">
         <v>1122</v>
       </c>
@@ -27905,7 +27933,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" ht="18.5">
       <c r="A308" s="8" t="s">
         <v>1124</v>
       </c>
@@ -27922,7 +27950,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" ht="18.5">
       <c r="A309" s="8" t="s">
         <v>1127</v>
       </c>
@@ -27939,7 +27967,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" ht="18.5">
       <c r="A310" s="8" t="s">
         <v>1130</v>
       </c>
@@ -27956,7 +27984,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" ht="18.5">
       <c r="A311" s="8" t="s">
         <v>1133</v>
       </c>
@@ -27973,7 +28001,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" ht="18.5">
       <c r="A312" s="8" t="s">
         <v>1135</v>
       </c>
@@ -27990,7 +28018,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" ht="18.5">
       <c r="A313" s="8" t="s">
         <v>1137</v>
       </c>
@@ -28007,7 +28035,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" ht="18.5">
       <c r="A314" s="8" t="s">
         <v>1140</v>
       </c>
@@ -28024,7 +28052,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" ht="18.5">
       <c r="A315" s="8" t="s">
         <v>1143</v>
       </c>
@@ -28041,7 +28069,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" ht="18.5">
       <c r="A316" s="8" t="s">
         <v>1146</v>
       </c>
@@ -28058,7 +28086,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" ht="18.5">
       <c r="A317" s="8" t="s">
         <v>1148</v>
       </c>
@@ -28075,7 +28103,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" ht="18.5">
       <c r="A318" s="8" t="s">
         <v>1150</v>
       </c>
@@ -28092,7 +28120,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" ht="18.5">
       <c r="A319" s="8" t="s">
         <v>1152</v>
       </c>
@@ -28109,7 +28137,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" ht="18.5">
       <c r="A320" s="8" t="s">
         <v>1155</v>
       </c>
@@ -28168,7 +28196,7 @@
     <row r="2" spans="1:3" s="17" customFormat="1">
       <c r="A2" s="16"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="18.5">
       <c r="A3" s="6" t="s">
         <v>299</v>
       </c>
@@ -28179,7 +28207,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="18.5">
       <c r="A4" s="6" t="s">
         <v>300</v>
       </c>
@@ -28190,7 +28218,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="18.5">
       <c r="A5" s="6" t="s">
         <v>301</v>
       </c>
@@ -28201,7 +28229,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="18.5">
       <c r="A6" s="6" t="s">
         <v>302</v>
       </c>
@@ -28212,7 +28240,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="18.5">
       <c r="A7" s="6" t="s">
         <v>303</v>
       </c>
@@ -28223,7 +28251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="18.5">
       <c r="A8" s="6" t="s">
         <v>304</v>
       </c>
@@ -28234,7 +28262,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="18.5">
       <c r="A9" s="6" t="s">
         <v>305</v>
       </c>
@@ -28245,7 +28273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="18.5">
       <c r="A10" s="6" t="s">
         <v>306</v>
       </c>
@@ -28256,7 +28284,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="18.5">
       <c r="A11" s="6" t="s">
         <v>307</v>
       </c>
@@ -28267,7 +28295,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="18.5">
       <c r="A12" s="6" t="s">
         <v>308</v>
       </c>
@@ -28278,7 +28306,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="18.5">
       <c r="A13" s="6" t="s">
         <v>309</v>
       </c>
@@ -28289,7 +28317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="18.5">
       <c r="A14" s="6" t="s">
         <v>310</v>
       </c>
@@ -28300,7 +28328,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="18.5">
       <c r="A15" s="6" t="s">
         <v>311</v>
       </c>
@@ -28311,7 +28339,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="18.5">
       <c r="A16" s="6" t="s">
         <v>312</v>
       </c>
@@ -28322,7 +28350,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="18.5">
       <c r="A17" s="6" t="s">
         <v>313</v>
       </c>
@@ -28333,7 +28361,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="18.5">
       <c r="A18" s="6" t="s">
         <v>314</v>
       </c>
@@ -28344,7 +28372,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="18.5">
       <c r="A19" s="6" t="s">
         <v>315</v>
       </c>
@@ -28355,7 +28383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="18.5">
       <c r="A20" s="6" t="s">
         <v>316</v>
       </c>
@@ -28366,7 +28394,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="18.5">
       <c r="A21" s="6" t="s">
         <v>317</v>
       </c>
@@ -28377,7 +28405,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="18.5">
       <c r="A22" s="6" t="s">
         <v>318</v>
       </c>
@@ -28388,7 +28416,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="18.5">
       <c r="A23" s="6" t="s">
         <v>319</v>
       </c>
@@ -28399,7 +28427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="18.5">
       <c r="A24" s="6" t="s">
         <v>320</v>
       </c>
@@ -28410,7 +28438,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="18.5">
       <c r="A25" s="6" t="s">
         <v>321</v>
       </c>
@@ -28421,7 +28449,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="18.5">
       <c r="A26" s="6" t="s">
         <v>322</v>
       </c>
@@ -28432,7 +28460,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="18.5">
       <c r="A27" s="6" t="s">
         <v>323</v>
       </c>
@@ -28443,7 +28471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="18.5">
       <c r="A28" s="6" t="s">
         <v>324</v>
       </c>
@@ -28454,7 +28482,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="18.5">
       <c r="A29" s="6" t="s">
         <v>325</v>
       </c>
@@ -28465,7 +28493,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="18.5">
       <c r="A30" s="6" t="s">
         <v>326</v>
       </c>
@@ -28476,7 +28504,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="18.5">
       <c r="A31" s="6" t="s">
         <v>327</v>
       </c>
@@ -28487,7 +28515,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="18.5">
       <c r="A32" s="6" t="s">
         <v>328</v>
       </c>
@@ -28498,7 +28526,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="18.5">
       <c r="A33" s="6" t="s">
         <v>329</v>
       </c>
@@ -28509,7 +28537,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="18.5">
       <c r="A34" s="6" t="s">
         <v>330</v>
       </c>
@@ -28520,7 +28548,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="18.5">
       <c r="A35" s="6" t="s">
         <v>331</v>
       </c>
@@ -28531,7 +28559,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="18.5">
       <c r="A36" s="6" t="s">
         <v>332</v>
       </c>
@@ -28542,7 +28570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="18.5">
       <c r="A37" s="6" t="s">
         <v>333</v>
       </c>
@@ -28553,7 +28581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="18.5">
       <c r="A38" s="6" t="s">
         <v>334</v>
       </c>
@@ -28564,7 +28592,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="18.5">
       <c r="A39" s="6" t="s">
         <v>335</v>
       </c>
@@ -28575,7 +28603,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="18.5">
       <c r="A40" s="6" t="s">
         <v>336</v>
       </c>
@@ -28586,7 +28614,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="18.5">
       <c r="A41" s="6" t="s">
         <v>337</v>
       </c>
@@ -28597,7 +28625,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="18.5">
       <c r="A42" s="6" t="s">
         <v>338</v>
       </c>
@@ -28608,7 +28636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="18.5">
       <c r="A43" s="6" t="s">
         <v>339</v>
       </c>
@@ -28619,7 +28647,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="18.5">
       <c r="A44" s="6" t="s">
         <v>340</v>
       </c>
@@ -28630,7 +28658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" ht="18.5">
       <c r="A45" s="6" t="s">
         <v>341</v>
       </c>
@@ -28641,7 +28669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="18.5">
       <c r="A46" s="6" t="s">
         <v>342</v>
       </c>
@@ -28652,7 +28680,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="18.5">
       <c r="A47" s="6" t="s">
         <v>343</v>
       </c>
@@ -28663,7 +28691,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" ht="18.5">
       <c r="A48" s="6" t="s">
         <v>344</v>
       </c>
@@ -28674,7 +28702,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="18.5">
       <c r="A49" s="6" t="s">
         <v>345</v>
       </c>
@@ -28685,7 +28713,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="18.5">
       <c r="A50" s="6" t="s">
         <v>346</v>
       </c>
@@ -28696,7 +28724,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="18.5">
       <c r="A51" s="6" t="s">
         <v>347</v>
       </c>
@@ -28707,7 +28735,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="18.5">
       <c r="A52" s="6" t="s">
         <v>348</v>
       </c>
@@ -28718,7 +28746,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="18.5">
       <c r="A53" s="6" t="s">
         <v>349</v>
       </c>
@@ -28729,7 +28757,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="18.5">
       <c r="A54" s="6" t="s">
         <v>350</v>
       </c>
@@ -28740,7 +28768,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="18.5">
       <c r="A55" s="6" t="s">
         <v>351</v>
       </c>
@@ -28751,7 +28779,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="18.5">
       <c r="A56" s="6" t="s">
         <v>352</v>
       </c>
@@ -28762,7 +28790,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="18.5">
       <c r="A57" s="6" t="s">
         <v>353</v>
       </c>
@@ -28773,7 +28801,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" ht="18.5">
       <c r="A58" s="6" t="s">
         <v>354</v>
       </c>
@@ -28784,7 +28812,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="18.5">
       <c r="A59" s="6" t="s">
         <v>355</v>
       </c>
@@ -28795,7 +28823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="29">
+    <row r="60" spans="1:3" ht="37">
       <c r="A60" s="6" t="s">
         <v>356</v>
       </c>
@@ -28806,7 +28834,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" ht="18.5">
       <c r="A61" s="6" t="s">
         <v>357</v>
       </c>
@@ -28817,7 +28845,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" ht="18.5">
       <c r="A62" s="6" t="s">
         <v>358</v>
       </c>
@@ -28828,7 +28856,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="18.5">
       <c r="A63" s="6" t="s">
         <v>359</v>
       </c>
@@ -28839,7 +28867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" ht="18.5">
       <c r="A64" s="6" t="s">
         <v>360</v>
       </c>
@@ -28850,7 +28878,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="18.5">
       <c r="A65" s="6" t="s">
         <v>361</v>
       </c>
@@ -28861,7 +28889,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="18.5">
       <c r="A66" s="6" t="s">
         <v>362</v>
       </c>
@@ -28872,7 +28900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="18.5">
       <c r="A67" s="6" t="s">
         <v>363</v>
       </c>
@@ -28883,7 +28911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="18.5">
       <c r="A68" s="6" t="s">
         <v>364</v>
       </c>
@@ -28894,7 +28922,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" ht="18.5">
       <c r="A69" s="6" t="s">
         <v>365</v>
       </c>
@@ -28905,7 +28933,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" ht="18.5">
       <c r="A70" s="6" t="s">
         <v>366</v>
       </c>
@@ -28916,7 +28944,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" ht="18.5">
       <c r="A71" s="6" t="s">
         <v>367</v>
       </c>
@@ -28927,7 +28955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" ht="18.5">
       <c r="A72" s="6" t="s">
         <v>368</v>
       </c>
@@ -28938,7 +28966,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" ht="18.5">
       <c r="A73" s="6" t="s">
         <v>369</v>
       </c>
@@ -28949,7 +28977,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="18.5">
       <c r="A74" s="6" t="s">
         <v>370</v>
       </c>
@@ -28960,7 +28988,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="18.5">
       <c r="A75" s="6" t="s">
         <v>371</v>
       </c>
@@ -28971,7 +28999,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" ht="18.5">
       <c r="A76" s="6" t="s">
         <v>372</v>
       </c>
@@ -28982,7 +29010,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" ht="18.5">
       <c r="A77" s="6" t="s">
         <v>373</v>
       </c>
@@ -28993,7 +29021,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="18.5">
       <c r="A78" s="6" t="s">
         <v>374</v>
       </c>
@@ -29004,7 +29032,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" ht="18.5">
       <c r="A79" s="6" t="s">
         <v>375</v>
       </c>
@@ -29015,7 +29043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="18.5">
       <c r="A80" s="6" t="s">
         <v>376</v>
       </c>
@@ -29026,7 +29054,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="18.5">
       <c r="A81" s="6" t="s">
         <v>377</v>
       </c>
@@ -29037,7 +29065,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" ht="18.5">
       <c r="A82" s="6" t="s">
         <v>378</v>
       </c>
@@ -29048,7 +29076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" ht="18.5">
       <c r="A83" s="6" t="s">
         <v>379</v>
       </c>
@@ -29059,7 +29087,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="18.5">
       <c r="A84" s="6" t="s">
         <v>380</v>
       </c>
@@ -29070,7 +29098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="18.5">
       <c r="A85" s="6" t="s">
         <v>381</v>
       </c>
@@ -29081,7 +29109,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="18.5">
       <c r="A86" s="6" t="s">
         <v>382</v>
       </c>
@@ -29092,7 +29120,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="18.5">
       <c r="A87" s="6" t="s">
         <v>383</v>
       </c>
@@ -29103,7 +29131,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" ht="18.5">
       <c r="A88" s="6" t="s">
         <v>384</v>
       </c>
@@ -29114,7 +29142,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="18.5">
       <c r="A89" s="6" t="s">
         <v>385</v>
       </c>
@@ -29125,7 +29153,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="18.5">
       <c r="A90" s="6" t="s">
         <v>386</v>
       </c>
@@ -29136,7 +29164,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" ht="18.5">
       <c r="A91" s="6" t="s">
         <v>387</v>
       </c>
@@ -29147,7 +29175,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" ht="18.5">
       <c r="A92" s="6" t="s">
         <v>388</v>
       </c>
@@ -29158,7 +29186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" ht="18.5">
       <c r="A93" s="6" t="s">
         <v>389</v>
       </c>
@@ -29169,7 +29197,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" ht="18.5">
       <c r="A94" s="6" t="s">
         <v>390</v>
       </c>
@@ -29180,7 +29208,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="18.5">
       <c r="A95" s="6" t="s">
         <v>391</v>
       </c>
@@ -29191,7 +29219,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" ht="18.5">
       <c r="A96" s="6" t="s">
         <v>392</v>
       </c>
@@ -29202,7 +29230,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" ht="18.5">
       <c r="A97" s="6" t="s">
         <v>393</v>
       </c>
@@ -29213,7 +29241,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" ht="18.5">
       <c r="A98" s="6" t="s">
         <v>394</v>
       </c>
@@ -29224,7 +29252,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" ht="18.5">
       <c r="A99" s="6" t="s">
         <v>395</v>
       </c>
@@ -29235,7 +29263,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" ht="18.5">
       <c r="A100" s="6" t="s">
         <v>396</v>
       </c>
@@ -29246,7 +29274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" ht="18.5">
       <c r="A101" s="6" t="s">
         <v>397</v>
       </c>
@@ -29257,7 +29285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" ht="18.5">
       <c r="A102" s="6" t="s">
         <v>398</v>
       </c>
@@ -29268,7 +29296,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" ht="18.5">
       <c r="A103" s="6" t="s">
         <v>399</v>
       </c>
@@ -29279,7 +29307,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" ht="18.5">
       <c r="A104" s="6" t="s">
         <v>400</v>
       </c>
@@ -29290,7 +29318,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" ht="18.5">
       <c r="A105" s="6" t="s">
         <v>401</v>
       </c>
@@ -29301,7 +29329,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" ht="18.5">
       <c r="A106" s="6" t="s">
         <v>402</v>
       </c>
@@ -29312,7 +29340,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" ht="18.5">
       <c r="A107" s="6" t="s">
         <v>403</v>
       </c>
@@ -29323,7 +29351,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" ht="18.5">
       <c r="A108" s="6" t="s">
         <v>404</v>
       </c>
@@ -29334,7 +29362,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" ht="18.5">
       <c r="A109" s="6" t="s">
         <v>405</v>
       </c>
@@ -29345,7 +29373,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" ht="18.5">
       <c r="A110" s="6" t="s">
         <v>406</v>
       </c>
@@ -29356,7 +29384,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" ht="18.5">
       <c r="A111" s="6" t="s">
         <v>407</v>
       </c>
@@ -29367,7 +29395,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" ht="18.5">
       <c r="A112" s="6" t="s">
         <v>408</v>
       </c>
@@ -29378,7 +29406,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" ht="18.5">
       <c r="A113" s="6" t="s">
         <v>409</v>
       </c>
@@ -29389,7 +29417,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" ht="18.5">
       <c r="A114" s="6" t="s">
         <v>410</v>
       </c>
@@ -29400,7 +29428,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" ht="18.5">
       <c r="A115" s="6" t="s">
         <v>411</v>
       </c>
@@ -29411,7 +29439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" ht="18.5">
       <c r="A116" s="6" t="s">
         <v>412</v>
       </c>
@@ -29422,7 +29450,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" ht="18.5">
       <c r="A117" s="6" t="s">
         <v>413</v>
       </c>
@@ -29433,7 +29461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" ht="18.5">
       <c r="A118" s="6" t="s">
         <v>414</v>
       </c>
@@ -29444,7 +29472,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" ht="18.5">
       <c r="A119" s="6" t="s">
         <v>415</v>
       </c>
@@ -29455,7 +29483,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" ht="18.5">
       <c r="A120" s="6" t="s">
         <v>416</v>
       </c>
@@ -29466,7 +29494,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" ht="18.5">
       <c r="A121" s="6" t="s">
         <v>417</v>
       </c>
@@ -29477,7 +29505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" ht="18.5">
       <c r="A122" s="6" t="s">
         <v>418</v>
       </c>
@@ -29488,7 +29516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" ht="18.5">
       <c r="A123" s="6" t="s">
         <v>419</v>
       </c>
@@ -29499,7 +29527,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" ht="18.5">
       <c r="A124" s="6" t="s">
         <v>420</v>
       </c>
@@ -29510,7 +29538,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" ht="18.5">
       <c r="A125" s="6" t="s">
         <v>421</v>
       </c>
@@ -29521,7 +29549,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" ht="18.5">
       <c r="A126" s="6" t="s">
         <v>422</v>
       </c>
@@ -29532,7 +29560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" ht="18.5">
       <c r="A127" s="6" t="s">
         <v>423</v>
       </c>
@@ -29543,7 +29571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" ht="18.5">
       <c r="A128" s="6" t="s">
         <v>424</v>
       </c>
@@ -29554,7 +29582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" ht="18.5">
       <c r="A129" s="6" t="s">
         <v>425</v>
       </c>
@@ -29565,7 +29593,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" ht="18.5">
       <c r="A130" s="6" t="s">
         <v>426</v>
       </c>
@@ -29576,7 +29604,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" ht="18.5">
       <c r="A131" s="6" t="s">
         <v>427</v>
       </c>
@@ -29587,7 +29615,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" ht="18.5">
       <c r="A132" s="6" t="s">
         <v>428</v>
       </c>
@@ -29598,7 +29626,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="29">
+    <row r="133" spans="1:3" ht="37">
       <c r="A133" s="6" t="s">
         <v>429</v>
       </c>
@@ -29609,7 +29637,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" ht="18.5">
       <c r="A134" s="6" t="s">
         <v>430</v>
       </c>
@@ -29620,7 +29648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" ht="18.5">
       <c r="A135" s="6" t="s">
         <v>431</v>
       </c>
@@ -29631,7 +29659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" ht="18.5">
       <c r="A136" s="6" t="s">
         <v>432</v>
       </c>
@@ -29642,7 +29670,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" ht="18.5">
       <c r="A137" s="6" t="s">
         <v>433</v>
       </c>
@@ -29653,7 +29681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" ht="18.5">
       <c r="A138" s="6" t="s">
         <v>434</v>
       </c>
@@ -29664,7 +29692,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" ht="18.5">
       <c r="A139" s="6" t="s">
         <v>435</v>
       </c>
@@ -29675,7 +29703,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" ht="18.5">
       <c r="A140" s="6" t="s">
         <v>436</v>
       </c>
@@ -29686,7 +29714,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" ht="18.5">
       <c r="A141" s="6" t="s">
         <v>437</v>
       </c>
@@ -29697,7 +29725,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" ht="18.5">
       <c r="A142" s="6" t="s">
         <v>438</v>
       </c>
@@ -29708,7 +29736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" ht="18.5">
       <c r="A143" s="6" t="s">
         <v>439</v>
       </c>
@@ -29719,7 +29747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" ht="18.5">
       <c r="A144" s="6" t="s">
         <v>440</v>
       </c>
@@ -29730,7 +29758,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" ht="18.5">
       <c r="A145" s="6" t="s">
         <v>441</v>
       </c>
@@ -29741,7 +29769,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" ht="18.5">
       <c r="A146" s="6" t="s">
         <v>442</v>
       </c>
@@ -29752,7 +29780,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" ht="18.5">
       <c r="A147" s="6" t="s">
         <v>443</v>
       </c>
@@ -29763,7 +29791,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" ht="18.5">
       <c r="A148" s="6" t="s">
         <v>444</v>
       </c>
@@ -29774,7 +29802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" ht="18.5">
       <c r="A149" s="6" t="s">
         <v>445</v>
       </c>
@@ -29785,7 +29813,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" ht="18.5">
       <c r="A150" s="6" t="s">
         <v>446</v>
       </c>
@@ -29796,7 +29824,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" ht="18.5">
       <c r="A151" s="6" t="s">
         <v>447</v>
       </c>
@@ -29807,7 +29835,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" ht="18.5">
       <c r="A152" s="6" t="s">
         <v>448</v>
       </c>
@@ -29818,7 +29846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" ht="18.5">
       <c r="A153" s="6" t="s">
         <v>449</v>
       </c>
@@ -29829,7 +29857,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" ht="18.5">
       <c r="A154" s="6" t="s">
         <v>450</v>
       </c>
@@ -29840,7 +29868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" ht="18.5">
       <c r="A155" s="6" t="s">
         <v>451</v>
       </c>
@@ -29851,7 +29879,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" ht="18.5">
       <c r="A156" s="6" t="s">
         <v>452</v>
       </c>
@@ -29862,7 +29890,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" ht="18.5">
       <c r="A157" s="6" t="s">
         <v>453</v>
       </c>
@@ -29873,7 +29901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" ht="18.5">
       <c r="A158" s="6" t="s">
         <v>454</v>
       </c>
@@ -29884,7 +29912,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" ht="18.5">
       <c r="A159" s="6" t="s">
         <v>455</v>
       </c>
@@ -29895,7 +29923,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" ht="18.5">
       <c r="A160" s="6" t="s">
         <v>456</v>
       </c>
@@ -29906,7 +29934,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" ht="18.5">
       <c r="A161" s="6" t="s">
         <v>457</v>
       </c>
@@ -29917,7 +29945,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" ht="18.5">
       <c r="A162" s="6" t="s">
         <v>458</v>
       </c>
@@ -29928,7 +29956,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" ht="18.5">
       <c r="A163" s="6" t="s">
         <v>459</v>
       </c>
@@ -29939,7 +29967,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" ht="18.5">
       <c r="A164" s="6" t="s">
         <v>460</v>
       </c>
@@ -29950,7 +29978,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" ht="18.5">
       <c r="A165" s="6" t="s">
         <v>461</v>
       </c>
@@ -29961,7 +29989,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" ht="18.5">
       <c r="A166" s="6" t="s">
         <v>462</v>
       </c>
@@ -29972,7 +30000,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" ht="18.5">
       <c r="A167" s="6" t="s">
         <v>463</v>
       </c>
@@ -29983,7 +30011,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" ht="18.5">
       <c r="A168" s="6" t="s">
         <v>464</v>
       </c>
@@ -29994,7 +30022,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" ht="18.5">
       <c r="A169" s="6" t="s">
         <v>465</v>
       </c>
@@ -30005,7 +30033,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" ht="18.5">
       <c r="A170" s="6" t="s">
         <v>466</v>
       </c>
@@ -30016,7 +30044,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" ht="18.5">
       <c r="A171" s="6" t="s">
         <v>467</v>
       </c>
@@ -30027,7 +30055,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" ht="18.5">
       <c r="A172" s="6" t="s">
         <v>468</v>
       </c>
@@ -30038,7 +30066,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" ht="18.5">
       <c r="A173" s="6" t="s">
         <v>469</v>
       </c>
@@ -30049,7 +30077,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" ht="18.5">
       <c r="A174" s="6" t="s">
         <v>470</v>
       </c>
@@ -30060,7 +30088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" ht="18.5">
       <c r="A175" s="6" t="s">
         <v>471</v>
       </c>
@@ -30071,7 +30099,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" ht="18.5">
       <c r="A176" s="6" t="s">
         <v>472</v>
       </c>
@@ -30082,7 +30110,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" ht="18.5">
       <c r="A177" s="6" t="s">
         <v>473</v>
       </c>
@@ -30093,7 +30121,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" ht="18.5">
       <c r="A178" s="6" t="s">
         <v>474</v>
       </c>
@@ -30104,7 +30132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" ht="18.5">
       <c r="A179" s="6" t="s">
         <v>475</v>
       </c>
@@ -30115,7 +30143,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" ht="18.5">
       <c r="A180" s="6" t="s">
         <v>476</v>
       </c>
@@ -30126,7 +30154,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" ht="18.5">
       <c r="A181" s="6" t="s">
         <v>477</v>
       </c>
@@ -30137,7 +30165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" ht="18.5">
       <c r="A182" s="6" t="s">
         <v>478</v>
       </c>
@@ -30148,7 +30176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" ht="18.5">
       <c r="A183" s="6" t="s">
         <v>479</v>
       </c>
@@ -30159,7 +30187,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" ht="18.5">
       <c r="A184" s="6" t="s">
         <v>480</v>
       </c>
@@ -30170,7 +30198,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" ht="18.5">
       <c r="A185" s="6" t="s">
         <v>481</v>
       </c>
@@ -30181,7 +30209,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" ht="18.5">
       <c r="A186" s="6" t="s">
         <v>482</v>
       </c>
@@ -30192,7 +30220,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" ht="18.5">
       <c r="A187" s="6" t="s">
         <v>483</v>
       </c>
@@ -30203,7 +30231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" ht="18.5">
       <c r="A188" s="6" t="s">
         <v>484</v>
       </c>
@@ -30214,7 +30242,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" ht="18.5">
       <c r="A189" s="6" t="s">
         <v>485</v>
       </c>
@@ -30225,7 +30253,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" ht="18.5">
       <c r="A190" s="6" t="s">
         <v>486</v>
       </c>
@@ -30236,7 +30264,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" ht="18.5">
       <c r="A191" s="6" t="s">
         <v>487</v>
       </c>
@@ -30247,7 +30275,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" ht="18.5">
       <c r="A192" s="6" t="s">
         <v>488</v>
       </c>
@@ -30258,7 +30286,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" ht="18.5">
       <c r="A193" s="6" t="s">
         <v>489</v>
       </c>
@@ -30269,7 +30297,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" ht="18.5">
       <c r="A194" s="6" t="s">
         <v>490</v>
       </c>
@@ -30280,7 +30308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" ht="18.5">
       <c r="A195" s="6" t="s">
         <v>491</v>
       </c>
@@ -30291,7 +30319,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" ht="18.5">
       <c r="A196" s="6" t="s">
         <v>492</v>
       </c>
@@ -30302,7 +30330,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" ht="18.5">
       <c r="A197" s="6" t="s">
         <v>493</v>
       </c>
@@ -30313,7 +30341,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" ht="18.5">
       <c r="A198" s="6" t="s">
         <v>494</v>
       </c>
@@ -30324,7 +30352,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" ht="18.5">
       <c r="A199" s="6" t="s">
         <v>495</v>
       </c>
@@ -30335,7 +30363,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" ht="18.5">
       <c r="A200" s="6" t="s">
         <v>496</v>
       </c>
@@ -30346,7 +30374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" ht="18.5">
       <c r="A201" s="6" t="s">
         <v>497</v>
       </c>
@@ -30357,7 +30385,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" ht="18.5">
       <c r="A202" s="6" t="s">
         <v>498</v>
       </c>
@@ -30368,7 +30396,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" ht="18.5">
       <c r="A203" s="6" t="s">
         <v>499</v>
       </c>
@@ -30379,7 +30407,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" ht="18.5">
       <c r="A204" s="6" t="s">
         <v>500</v>
       </c>
@@ -30390,7 +30418,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" ht="18.5">
       <c r="A205" s="6" t="s">
         <v>501</v>
       </c>
@@ -30401,7 +30429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" ht="18.5">
       <c r="A206" s="6" t="s">
         <v>502</v>
       </c>
@@ -30412,7 +30440,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" ht="18.5">
       <c r="A207" s="6" t="s">
         <v>503</v>
       </c>
@@ -30423,7 +30451,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" ht="18.5">
       <c r="A208" s="6" t="s">
         <v>504</v>
       </c>
@@ -30434,7 +30462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" ht="18.5">
       <c r="A209" s="6" t="s">
         <v>505</v>
       </c>
@@ -30445,7 +30473,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" ht="18.5">
       <c r="A210" s="6" t="s">
         <v>506</v>
       </c>
@@ -30456,7 +30484,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" ht="18.5">
       <c r="A211" s="6" t="s">
         <v>507</v>
       </c>
@@ -30467,7 +30495,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" ht="18.5">
       <c r="A212" s="6" t="s">
         <v>508</v>
       </c>
@@ -30478,7 +30506,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" ht="18.5">
       <c r="A213" s="6" t="s">
         <v>509</v>
       </c>
@@ -30489,7 +30517,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" ht="18.5">
       <c r="A214" s="6" t="s">
         <v>510</v>
       </c>
@@ -31064,7 +31092,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="16" customFormat="1">
+    <row r="2" spans="1:5" s="16" customFormat="1" ht="18.5">
       <c r="A2" s="16" t="s">
         <v>1330</v>
       </c>
@@ -31078,7 +31106,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.5">
+    <row r="3" spans="1:5" ht="82.5">
       <c r="A3" s="7" t="s">
         <v>1189</v>
       </c>
@@ -31095,7 +31123,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72.5">
+    <row r="4" spans="1:5" ht="74.5">
       <c r="A4" s="7" t="s">
         <v>1191</v>
       </c>
@@ -31112,7 +31140,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="174">
+    <row r="5" spans="1:5" ht="188">
       <c r="A5" s="7" t="s">
         <v>1193</v>
       </c>
@@ -31129,7 +31157,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="87">
+    <row r="6" spans="1:5" ht="95">
       <c r="A6" s="7" t="s">
         <v>1195</v>
       </c>
@@ -31146,7 +31174,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="87">
+    <row r="7" spans="1:5" ht="89">
       <c r="A7" s="7" t="s">
         <v>1197</v>
       </c>
@@ -31163,7 +31191,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="87">
+    <row r="8" spans="1:5" ht="91">
       <c r="A8" s="7" t="s">
         <v>1199</v>
       </c>
@@ -31180,7 +31208,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="87">
+    <row r="9" spans="1:5" ht="91">
       <c r="A9" s="7" t="s">
         <v>1201</v>
       </c>
@@ -31197,7 +31225,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="188.5">
+    <row r="10" spans="1:5" ht="194.5">
       <c r="A10" s="7" t="s">
         <v>1203</v>
       </c>
@@ -31214,7 +31242,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="188.5">
+    <row r="11" spans="1:5" ht="190.5">
       <c r="A11" s="7" t="s">
         <v>1205</v>
       </c>
@@ -31231,7 +31259,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="261">
+    <row r="12" spans="1:5" ht="275">
       <c r="A12" s="7" t="s">
         <v>1207</v>
       </c>
@@ -31326,7 +31354,7 @@
       </c>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:8" ht="58">
+    <row r="3" spans="1:8" ht="62">
       <c r="A3" s="5" t="s">
         <v>1275</v>
       </c>
@@ -31350,7 +31378,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="58">
+    <row r="4" spans="1:8" ht="62">
       <c r="A4" s="5" t="s">
         <v>1257</v>
       </c>
@@ -31373,7 +31401,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="58">
+    <row r="5" spans="1:8" ht="62">
       <c r="A5" s="5" t="s">
         <v>1242</v>
       </c>
@@ -31394,7 +31422,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="58">
+    <row r="6" spans="1:8" ht="62">
       <c r="A6" s="5" t="s">
         <v>1224</v>
       </c>
@@ -31417,7 +31445,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="58">
+    <row r="7" spans="1:8" ht="62">
       <c r="A7" s="5" t="s">
         <v>1297</v>
       </c>
@@ -31443,7 +31471,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="58">
+    <row r="8" spans="1:8" ht="62">
       <c r="A8" s="5" t="s">
         <v>1209</v>
       </c>
@@ -31539,7 +31567,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="18.5"/>
   <cols>
     <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.08203125" style="1" customWidth="1"/>
@@ -31570,7 +31598,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29">
+    <row r="4" spans="1:3" ht="31">
       <c r="A4" s="1" t="s">
         <v>1163</v>
       </c>
@@ -31608,15 +31636,15 @@
         <v>2628000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="217.5">
+    <row r="8" spans="1:3" ht="219.5">
       <c r="A8" s="1" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vick\dev\deadline\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759CE794-E1B9-4384-BEFD-379B0891B0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EBB040-F0FF-44B2-B864-8BE1A1304361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21123,24 +21123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你的生活习惯很健康，请继续保持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your lifestyle habits are very healthy
-Please continue to maintain them</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的生活習慣很健康，請繼續保持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>現在の生活習慣は極めて健全です
-この良好な状態を維持し続けてください</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>suggess</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -21208,35 +21190,191 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>控制健康体重：</t>
-    </r>
-    <r>
-      <rPr>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;Regular Exercise:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/b&gt;Increasing walking speed during daily walks can significantly reduce the risk of cardiovascular disease. Alternatively, choose a preferred activity such as playing sports or cycling to gradually make exercise a habit.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;Healthy Sleep Habits:&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Maintaining 7-9 hours of sleep per night is beneficial. Start by setting an alarm for a fixed bedtime tonight, then gradually adjust it earlier to establish a routine.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;Reduce Alcohol Consumption:&lt;/b&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Cutting down alcohol intake by two occasions per week can significantly enhance liver recovery and reduce long-term cancer risk. Opt for non-alcoholic beverages in non-essential drinking situations.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;Maintain a Healthy Weight:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt; Reducing daily calorie intake by the equivalent of a piece of fried chicken. can help lose 2 kg per month and lower the risk of obesity-related diseases.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;Reduce Smoking:&lt;/b&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Try quitting smoking for just one day—within 24 hours, your risk of heart disease begins to decline, and after one year, it is reduced by 50%. Gradually decrease the number of cigarettes smoked each day to break the habit.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;Lower Mental and Physical Stress:&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Practicing deep breathing or meditation for 10 minutes daily, or listening to relaxing music, can help alleviate anxiety, improve focus, and restore mental balance.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;Your life expectancy will increase by: &lt;/b&gt;&lt;span style="color:#49da54;"&gt;{years} years&lt;/span&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;span style="color:#49da54;"&gt;Your lifestyle habits are very healthy
+Please continue to maintain them&lt;/span&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>每天减少相当于一杯奶茶的热量摄入，每月可减重 2 公斤，降低肥胖相关疾病风险。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>控制健康体重：</t>
+    </r>
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>定期运动：</t>
+      <t>每天减少相当于一杯奶茶的热量摄入，每月可减重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
     </r>
     <r>
       <rPr>
@@ -21246,7 +21384,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>每天步行时加快走路速度，可大幅降低心血管疾病和猝死风险。或选择喜欢的运动形式，如打球或骑行，逐渐让锻炼成为日常习惯。</t>
+      <t>公斤，降低肥胖相关疾病风险。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -21254,27 +21392,196 @@
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>控制健康體重：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>保持健康睡眠：</t>
+      <t>每天減少相當於一杯奶茶的熱量攝取，每月可減重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>每晚保持 7-9 小时睡眠，可以先从今晚定闹钟固定时间睡觉开始，然后逐步提前闹钟时间，养成习惯。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>公斤，降低肥胖相關疾病風險。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>健康的な体重を維持する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/b&gt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日あたりミルクティー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>杯分のカロリーを減らすことで、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>か月に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の減量が可能になり、肥満関連疾患のリスクを低減できます。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -21284,7 +21591,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>减少饮酒：</t>
+      <t>定期运动：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -21294,7 +21611,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>每周减少 2 次饮酒，肝脏修复能力可显著提升，长期降低癌症风险。在非必要场合尽量选择无酒精饮料替代。</t>
+      <t>每天步行时加快走路速度，可大幅降低心血管疾病和猝死风险。或选择喜欢的运动形式，如打球或骑行，逐渐让锻炼成为日常习惯。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -21302,37 +21619,140 @@
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定期運動：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>减少吸烟：</t>
-    </r>
-    <r>
-      <rPr>
+      <t>每天步行時加快步速，可大幅降低心血管疾病及猝死風險。或者選擇喜愛的運動，如打球或騎單車，逐步養成運動習慣。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定期的な運動</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: &lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>毎日のウォーキングで歩く速度を上げるだけで、心血管疾患や突然死のリスクを大幅に減らすことができます。また、スポーツやサイクリングなど好きな運動を選び、少しずつ習慣化しましょう。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>先尝试戒烟一天，24 小时后，心脏病风险开始下降，1 年后降低 50%。试着每天少抽一根烟，逐步摆脱烟瘾。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>保持健康睡眠：</t>
+    </r>
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>降低身心压力：</t>
+      <t>每晚保持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 7-9 </t>
     </r>
     <r>
       <rPr>
@@ -21342,7 +21762,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>每天进行 10 分钟深呼吸或冥想，听一听放松的音乐，有助于降低焦虑，提高专注力，帮助恢复心理平衡。</t>
+      <t>小时睡眠，可以先从今晚定闹钟固定时间睡觉开始，然后逐步提前闹钟时间，养成习惯。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -21355,130 +21775,8 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>Maintain a Healthy Weight:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Reducing daily calorie intake by the equivalent of a piece of fried chicken. can help lose 2 kg per month and lower the risk of obesity-related diseases.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Regular Exercise:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Increasing walking speed during daily walks can significantly reduce the risk of cardiovascular disease. Alternatively, choose a preferred activity such as playing sports or cycling to gradually make exercise a habit.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Healthy Sleep Habits:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Maintaining 7-9 hours of sleep per night is beneficial. Start by setting an alarm for a fixed bedtime tonight, then gradually adjust it earlier to establish a routine.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Reduce Alcohol Consumption: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Cutting down alcohol intake by two occasions per week can significantly enhance liver recovery and reduce long-term cancer risk. Opt for non-alcoholic beverages in non-essential drinking situations.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Reduce Smoking: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Try quitting smoking for just one day—within 24 hours, your risk of heart disease begins to decline, and after one year, it is reduced by 50%. Gradually decrease the number of cigarettes smoked each day to break the habit.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Lower Mental and Physical Stress:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Practicing deep breathing or meditation for 10 minutes daily, or listening to relaxing music, can help alleviate anxiety, improve focus, and restore mental balance.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>&lt;b&gt;</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -21494,35 +21792,92 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 每晚維持 7-9 小時睡眠有助於身心健康。可從今晚開始設定固定睡覺時間，然後逐步提前，建立良好作息。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>定期運動：</t>
-    </r>
+      <t>每晚維持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 7-9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小時睡眠有助於身心健康。可從今晚開始設定固定睡覺時間，然後逐步提前，建立良好作息。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>健康的な睡眠習慣</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: &lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>毎晩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -21532,11 +21887,103 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>每天步行時加快步速，可大幅降低心血管疾病及猝死風險。或者選擇喜愛的運動，如打球或騎單車，逐步養成運動習慣。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時間の睡眠を確保することが重要です。まずは今夜、就寝時間を固定するアラームを設定し、徐々に早めて習慣化しましょう。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少饮酒：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每周减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次饮酒，肝脏修复能力可显著提升，长期降低癌症风险。在非必要场合尽量选择无酒精饮料替代。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -21546,17 +21993,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>控制健康體重：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>減少飲酒：</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -21566,14 +22012,14 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>每天減少相當於一杯奶茶的熱量攝取，每月可減重</t>
+      <t>每週減少</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> 2 </t>
     </r>
@@ -21585,21 +22031,21 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>公斤，降低肥胖相關疾病風險。</t>
-    </r>
-    <r>
-      <rPr>
+      <t>次飲酒，有助於肝臟修復，並降低長遠的癌症風險。在非必要場合，盡量選擇無酒精飲品作替代。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -21609,49 +22055,161 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>減少飲酒：</t>
-    </r>
-    <r>
-      <rPr>
+      <t>飲酒を減らす</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+        <family val="3"/>
+      </rPr>
+      <t>: &lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回の飲酒を減らすことで、肝臓の回復力が向上し、長期的にがんのリスクを低減できます。不要な飲酒の場面では、できるだけノンアルコール飲料を選びましょう。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>每週減少</t>
-    </r>
-    <r>
-      <rPr>
+      <t>减少吸烟：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2 </t>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>次飲酒，有助於肝臟修復，並降低長遠的癌症風險。在非必要場合，盡量選擇無酒精飲品作替代。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>先尝试戒烟一天，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时后，心脏病风险开始下降，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年后降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。试着每天少抽一根烟，逐步摆脱烟瘾。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -21668,9 +22226,9 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -21687,7 +22245,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">24 </t>
     </r>
@@ -21706,7 +22264,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -21725,7 +22283,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> 50%</t>
     </r>
@@ -21747,53 +22305,241 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>降低身心壓力：</t>
-    </r>
-    <r>
-      <rPr>
+      <t>喫煙を減らす</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>まず</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日禁煙してみましょう。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時間後には心臓病のリスクが低下し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>年後には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>減少します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>本ずつ本数を減らし、徐々に禁煙を達成しましょう。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>每天進行</t>
-    </r>
-    <r>
-      <rPr>
+      <t>降低身心压力：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 10 </t>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>分鐘深呼吸或冥想，或聆聽輕鬆音樂，有助減輕焦慮、提升專注力，並幫助恢復心理平衡。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>每天进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟深呼吸或冥想，听一听放松的音乐，有助于降低焦虑，提高专注力，帮助恢复心理平衡。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -21803,26 +22549,79 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>健康的な体重を維持する</t>
-    </r>
+      <t>降低身心壓力：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天進行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分鐘深呼吸或冥想，或聆聽輕鬆音樂，有助減輕焦慮、提升專注力，並幫助恢復心理平衡。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心身のストレスを軽減する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: &lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -21832,16 +22631,16 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>日あたりミルクティー</t>
+      <t>毎日</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -21851,16 +22650,63 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>杯分のカロリーを減らすことで、</t>
+      <t>分間の深呼吸や瞑想、リラックスできる音楽を聴くことで、不安を和らげ、集中力を高め、精神的なバランスを取り戻すのに役立ちます。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;span style="color:#49da54;"&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你的生活习惯很健康，请继续保持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;span style="color:#49da54;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你的生活習慣很健康，請繼續保持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;span style="color:#49da54;"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -21870,495 +22716,168 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>か月に</t>
+      <t>現在の生活習慣は極めて健全です
+この良好な状態を維持し続けてください</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>2kg</t>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你的寿命将延长：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;&lt;span style="color:#49da54;"&gt;{years} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您的壽命將延長：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;&lt;span style="color:#49da54;"&gt;{years} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の減量が可能になり、肥満関連疾患のリスクを低減できます。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>あなたの寿命は</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定期的な運動</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;span style="color:#49da54;"&gt;{years} </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>毎日のウォーキングで歩く速度を上げるだけで、心血管疾患や突然死のリスクを大幅に減らすことができます。また、スポーツやサイクリングなど好きな運動を選び、少しずつ習慣化しましょう。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>健康的な睡眠習慣</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>毎晩</t>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>延びます</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>時間の睡眠を確保することが重要です。まずは今夜、就寝時間を固定するアラームを設定し、徐々に早めて習慣化しましょう。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>飲酒を減らす</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>週に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>回の飲酒を減らすことで、肝臓の回復力が向上し、長期的にがんのリスクを低減できます。不要な飲酒の場面では、できるだけノンアルコール飲料を選びましょう。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>喫煙を減らす</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>まず</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日禁煙してみましょう。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>時間後には心臓病のリスクが低下し、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>年後には</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>減少します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>本ずつ本数を減らし、徐々に禁煙を達成しましょう。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>心身のストレスを軽減する</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>毎日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>分間の深呼吸や瞑想、リラックスできる音楽を聴くことで、不安を和らげ、集中力を高め、精神的なバランスを取り戻すのに役立ちます。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your life expectancy will increase by: &lt;span style="color:#49da54;"&gt;{years} years&lt;/span&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的寿命将延长：&lt;span style="color:#49da54;"&gt;{years} 年&lt;/span&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>您的壽命將延長：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&lt;span style="color:#49da54;"&gt;{years} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/span&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>あなたの寿命は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&lt;span style="color:#49da54;"&gt;{years} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/span&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>延びます</t>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -22367,7 +22886,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22409,13 +22928,6 @@
     <font>
       <sz val="11"/>
       <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -22502,21 +23014,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -22526,12 +23024,6 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -22562,13 +23054,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -22630,7 +23115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -22692,10 +23177,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -22704,16 +23192,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -22725,28 +23210,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -22975,7 +23445,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -23163,7 +23633,7 @@
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="18">
       <c r="A15" s="3" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>1440</v>
@@ -23174,7 +23644,7 @@
       <c r="D15" s="34" t="s">
         <v>1441</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="35" t="s">
         <v>1443</v>
       </c>
     </row>
@@ -23183,16 +23653,16 @@
         <v>1435</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>1462</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23200,16 +23670,16 @@
         <v>1442</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>1463</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>1475</v>
+      <c r="D17" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>1465</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23217,16 +23687,16 @@
         <v>1436</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D18" s="35" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>1468</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23234,16 +23704,16 @@
         <v>1438</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D19" s="38" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>1471</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23251,16 +23721,16 @@
         <v>1437</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D20" s="38" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>1472</v>
       </c>
-      <c r="E20" s="38" t="s">
-        <v>1478</v>
+      <c r="D20" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23268,49 +23738,49 @@
         <v>1439</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E21" s="38" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="43.5">
+      <c r="A22" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="36">
-      <c r="A22" s="3" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>1444</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>1446</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>1447</v>
+      <c r="E22" s="4" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="36">
       <c r="A23" s="3" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C23" s="34" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>1481</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="4" t="s">
         <v>1482</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="4" t="s">
         <v>1483</v>
       </c>
     </row>
@@ -23413,7 +23883,7 @@
         <v>1186</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.5">
@@ -31330,7 +31800,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="32" customFormat="1">
@@ -31374,7 +31844,7 @@
         <v>1355</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="36" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -31397,7 +31867,7 @@
       <c r="F4" s="9" t="s">
         <v>1360</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="36" t="s">
         <v>1442</v>
       </c>
     </row>
@@ -31418,7 +31888,7 @@
         <v>1364</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="36" t="s">
         <v>1436</v>
       </c>
     </row>
@@ -31441,7 +31911,7 @@
       <c r="F6" s="9" t="s">
         <v>1369</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="36" t="s">
         <v>1438</v>
       </c>
     </row>
@@ -31467,7 +31937,7 @@
       <c r="G7" s="9" t="s">
         <v>1375</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="36" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -31489,7 +31959,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="36" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -31638,13 +32108,13 @@
     </row>
     <row r="8" spans="1:3" ht="219.5">
       <c r="A8" s="1" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vick\dev\deadline\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qiuyuan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EBB040-F0FF-44B2-B864-8BE1A1304361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B222A4-F54C-44A5-A554-EA4741C1EA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data.i18n" sheetId="2" r:id="rId1"/>
@@ -21186,6 +21186,77 @@
   </si>
   <si>
     <r>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>あなたの寿命は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;span style="color:#49da54;"&gt;{years} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>延びます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;Maintain a Healthy Weight:&lt;/strong&gt;&lt;/span&gt; Reducing daily calorie intake by the equivalent of a piece of fried chicken. can help lose 2 kg per month and lower the risk of obesity-related diseases.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;Regular Exercise:&lt;/strong&gt;&lt;/span&gt;Increasing walking speed during daily walks can significantly reduce the risk of cardiovascular disease. Alternatively, choose a preferred activity such as playing sports or cycling to gradually make exercise a habit.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -21193,7 +21264,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;b&gt;Regular Exercise:</t>
+      <t xml:space="preserve">&lt;span style="color:#49da54;"&gt;&lt;strong&gt;Reduce Alcohol Consumption:&lt;/strong&gt;&lt;/span&gt; </t>
     </r>
     <r>
       <rPr>
@@ -21202,8 +21273,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> &lt;/b&gt;Increasing walking speed during daily walks can significantly reduce the risk of cardiovascular disease. Alternatively, choose a preferred activity such as playing sports or cycling to gradually make exercise a habit.</t>
-    </r>
+      <t>Cutting down alcohol intake by two occasions per week can significantly enhance liver recovery and reduce long-term cancer risk. Opt for non-alcoholic beverages in non-essential drinking situations.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;Healthy Sleep Habits:&lt;/strong&gt;&lt;/span&gt; Maintaining 7-9 hours of sleep per night is beneficial. Start by setting an alarm for a fixed bedtime tonight, then gradually adjust it earlier to establish a routine.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -21215,7 +21290,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;b&gt;Healthy Sleep Habits:&lt;/b&gt;</t>
+      <t xml:space="preserve">&lt;span style="color:#49da54;"&gt;&lt;strong&gt;Reduce Smoking:&lt;/strong&gt;&lt;/span&gt; </t>
     </r>
     <r>
       <rPr>
@@ -21224,8 +21299,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> Maintaining 7-9 hours of sleep per night is beneficial. Start by setting an alarm for a fixed bedtime tonight, then gradually adjust it earlier to establish a routine.</t>
-    </r>
+      <t>Try quitting smoking for just one day—within 24 hours, your risk of heart disease begins to decline, and after one year, it is reduced by 50%. Gradually decrease the number of cigarettes smoked each day to break the habit.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;Lower Mental and Physical Stress:&lt;/strong&gt;&lt;/span&gt;Practicing deep breathing or meditation for 10 minutes daily, or listening to relaxing music, can help alleviate anxiety, improve focus, and restore mental balance.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -21237,104 +21316,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">&lt;b&gt;Reduce Alcohol Consumption:&lt;/b&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Cutting down alcohol intake by two occasions per week can significantly enhance liver recovery and reduce long-term cancer risk. Opt for non-alcoholic beverages in non-essential drinking situations.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;Maintain a Healthy Weight:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/b&gt; Reducing daily calorie intake by the equivalent of a piece of fried chicken. can help lose 2 kg per month and lower the risk of obesity-related diseases.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;Reduce Smoking:&lt;/b&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Try quitting smoking for just one day—within 24 hours, your risk of heart disease begins to decline, and after one year, it is reduced by 50%. Gradually decrease the number of cigarettes smoked each day to break the habit.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;Lower Mental and Physical Stress:&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Practicing deep breathing or meditation for 10 minutes daily, or listening to relaxing music, can help alleviate anxiety, improve focus, and restore mental balance.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;Your life expectancy will increase by: &lt;/b&gt;&lt;span style="color:#49da54;"&gt;{years} years&lt;/span&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;span style="color:#49da54;"&gt;Your lifestyle habits are very healthy
-Please continue to maintain them&lt;/span&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
     </r>
     <r>
       <rPr>
@@ -21355,7 +21337,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;/b&gt;</t>
+      <t>&lt;/strong&gt;&lt;/span&gt;</t>
     </r>
     <r>
       <rPr>
@@ -21397,38 +21379,515 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;b&gt;</t>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定期运动：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/strong&gt;&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天步行时加快走路速度，可大幅降低心血管疾病和猝死风险。或选择喜欢的运动形式，如打球或骑行，逐渐让锻炼成为日常习惯。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保持健康睡眠：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/strong&gt;&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每晚保持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 7-9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时睡眠，可以先从今晚定闹钟固定时间睡觉开始，然后逐步提前闹钟时间，养成习惯。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少饮酒：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/strong&gt;&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每周减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次饮酒，肝脏修复能力可显著提升，长期降低癌症风险。在非必要场合尽量选择无酒精饮料替代。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少吸烟：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/strong&gt;&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先尝试戒烟一天，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时后，心脏病风险开始下降，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年后降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。试着每天少抽一根烟，逐步摆脱烟瘾。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降低身心压力：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/strong&gt;&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟深呼吸或冥想，听一听放松的音乐，有助于降低焦虑，提高专注力，帮助恢复心理平衡。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>控制健康體重：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/strong&gt;&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天減少相當於一杯奶茶的熱量攝取，每月可減重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公斤，降低肥胖相關疾病風險。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定期運動：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/strong&gt;&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天步行時加快步速，可大幅降低心血管疾病及猝死風險。或者選擇喜愛的運動，如打球或騎單車，逐步養成運動習慣。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保持健康睡眠：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/strong&gt;&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>控制健康體重：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>每晚維持</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;/b&gt;</t>
+      <t xml:space="preserve"> 7-9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小時睡眠有助於身心健康。可從今晚開始設定固定睡覺時間，然後逐步提前，建立良好作息。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>每天減少相當於一杯奶茶的熱量攝取，每月可減重</t>
+      <t>減少飲酒：</t>
     </r>
     <r>
       <rPr>
@@ -21437,7 +21896,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> 2 </t>
+      <t>&lt;/strong&gt;&lt;/span&gt;</t>
     </r>
     <r>
       <rPr>
@@ -21447,7 +21906,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>公斤，降低肥胖相關疾病風險。</t>
+      <t>每週減少</t>
     </r>
     <r>
       <rPr>
@@ -21456,51 +21915,228 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次飲酒，有助於肝臟修復，並降低長遠的癌症風險。在非必要場合，盡量選擇無酒精飲品作替代。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>健康的な体重を維持する</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>減少吸煙：</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>:</t>
+      <t>&lt;/strong&gt;&lt;/span&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/b&gt;1</t>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嘗試先戒煙一天，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小時後，心臟病風險開始下降，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年後可減少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。每天減少吸煙數量，逐步擺脫煙癮。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降低身心壓力：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/strong&gt;&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天進行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分鐘深呼吸或冥想，或聆聽輕鬆音樂，有助減輕焦慮、提升專注力，並幫助恢復心理平衡。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;Your life expectancy will increase by: &lt;span style="color:#49da54;"&gt;{years} years&lt;/span&gt;&lt;/b&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#49da54;"&gt;Your lifestyle habits are very healthy
+Please continue to maintain them&lt;/span&gt;&lt;/b&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;&lt;span style="color:#49da54;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你的生活习惯很健康，请继续保持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;&lt;/b&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;&lt;span style="color:#49da54;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你的生活習慣很健康，請繼續保持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;&lt;/b&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;&lt;span style="color:#49da54;"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -21510,7 +22146,8 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>日あたりミルクティー</t>
+      <t>現在の生活習慣は極めて健全です
+この良好な状態を維持し続けてください</t>
     </r>
     <r>
       <rPr>
@@ -21519,7 +22156,120 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1</t>
+      <t>&lt;/span&gt;&lt;/b&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您的壽命將延長：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;span style="color:#49da54;"&gt;{years} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;&lt;/b&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你的寿命将延长：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;span style="color:#49da54;"&gt;{years} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;&lt;/b&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>健康的な体重を維持する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: &lt;/strong&gt;&lt;/span&gt;1</t>
     </r>
     <r>
       <rPr>
@@ -21529,7 +22279,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>杯分のカロリーを減らすことで、</t>
+      <t>日あたりミルクティー</t>
     </r>
     <r>
       <rPr>
@@ -21548,7 +22298,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>か月に</t>
+      <t>杯分のカロリーを減らすことで、</t>
     </r>
     <r>
       <rPr>
@@ -21557,7 +22307,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>2kg</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -21567,6 +22317,25 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
+      <t>か月に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
       <t>の減量が可能になり、肥満関連疾患のリスクを低減できます。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -21580,7 +22349,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;b&gt;</t>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
     </r>
     <r>
       <rPr>
@@ -21591,7 +22360,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>定期运动：</t>
+      <t>定期的な運動</t>
     </r>
     <r>
       <rPr>
@@ -21601,21 +22370,42 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
+      <t>:&lt;/strong&gt;&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>毎日のウォーキングで歩く速度を上げるだけで、心血管疾患や突然死のリスクを大幅に減らすことができます。また、スポーツやサイクリングなど好きな運動を選び、少しずつ習慣化しましょう。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>每天步行时加快走路速度，可大幅降低心血管疾病和猝死风险。或选择喜欢的运动形式，如打球或骑行，逐渐让锻炼成为日常习惯。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>健康的な睡眠習慣</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -21624,28 +22414,26 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>: &lt;/strong&gt;&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定期運動：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>毎晩</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;/b&gt;</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -21655,41 +22443,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>每天步行時加快步速，可大幅降低心血管疾病及猝死風險。或者選擇喜愛的運動，如打球或騎單車，逐步養成運動習慣。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定期的な運動</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: &lt;/b&gt;</t>
+      <t>9</t>
     </r>
     <r>
       <rPr>
@@ -21699,7 +22462,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>毎日のウォーキングで歩く速度を上げるだけで、心血管疾患や突然死のリスクを大幅に減らすことができます。また、スポーツやサイクリングなど好きな運動を選び、少しずつ習慣化しましょう。</t>
+      <t>時間の睡眠を確保することが重要です。まずは今夜、就寝時間を固定するアラームを設定し、徐々に早めて習慣化しましょう。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -21712,7 +22475,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;b&gt;</t>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
     </r>
     <r>
       <rPr>
@@ -21723,7 +22486,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>保持健康睡眠：</t>
+      <t>飲酒を減らす</t>
     </r>
     <r>
       <rPr>
@@ -21733,7 +22496,42 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;/b&gt;</t>
+      <t>: &lt;/strong&gt;&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回の飲酒を減らすことで、肝臓の回復力が向上し、長期的にがんのリスクを低減できます。不要な飲酒の場面では、できるだけノンアルコール飲料を選びましょう。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
     </r>
     <r>
       <rPr>
@@ -21743,7 +22541,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>每晚保持</t>
+      <t>喫煙を減らす</t>
     </r>
     <r>
       <rPr>
@@ -21752,21 +22550,156 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> 7-9 </t>
-    </r>
-    <r>
-      <rPr>
+      <t>: &lt;/strong&gt;&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>まず</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日禁煙してみましょう。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時間後には心臓病のリスクが低下し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>年後には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>減少します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>本ずつ本数を減らし、徐々に禁煙を達成しましょう。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;span style="color:#49da54;"&gt;&lt;strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>小时睡眠，可以先从今晚定闹钟固定时间睡觉开始，然后逐步提前闹钟时间，养成习惯。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>心身のストレスを軽減する</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -21775,90 +22708,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保持健康睡眠：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每晚維持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 7-9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小時睡眠有助於身心健康。可從今晚開始設定固定睡覺時間，然後逐步提前，建立良好作息。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>健康的な睡眠習慣</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: &lt;/b&gt;</t>
+      <t>: &lt;/strong&gt;&lt;/span&gt;</t>
     </r>
     <r>
       <rPr>
@@ -21868,7 +22718,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>毎晩</t>
+      <t>毎日</t>
     </r>
     <r>
       <rPr>
@@ -21877,26 +22727,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>9</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -21906,978 +22737,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>時間の睡眠を確保することが重要です。まずは今夜、就寝時間を固定するアラームを設定し、徐々に早めて習慣化しましょう。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减少饮酒：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每周减少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次饮酒，肝脏修复能力可显著提升，长期降低癌症风险。在非必要场合尽量选择无酒精饮料替代。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>減少飲酒：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每週減少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次飲酒，有助於肝臟修復，並降低長遠的癌症風險。在非必要場合，盡量選擇無酒精飲品作替代。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>飲酒を減らす</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: &lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>週に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>回の飲酒を減らすことで、肝臓の回復力が向上し、長期的にがんのリスクを低減できます。不要な飲酒の場面では、できるだけノンアルコール飲料を選びましょう。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减少吸烟：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>先尝试戒烟一天，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">24 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小时后，心脏病风险开始下降，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年后降低</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。试着每天少抽一根烟，逐步摆脱烟瘾。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>減少吸煙：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>嘗試先戒煙一天，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">24 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小時後，心臟病風險開始下降，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年後可減少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。每天減少吸煙數量，逐步擺脫煙癮。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>喫煙を減らす</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>まず</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日禁煙してみましょう。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>時間後には心臓病のリスクが低下し、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>年後には</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>減少します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>本ずつ本数を減らし、徐々に禁煙を達成しましょう。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>降低身心压力：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每天进行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分钟深呼吸或冥想，听一听放松的音乐，有助于降低焦虑，提高专注力，帮助恢复心理平衡。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>降低身心壓力：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每天進行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分鐘深呼吸或冥想，或聆聽輕鬆音樂，有助減輕焦慮、提升專注力，並幫助恢復心理平衡。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>心身のストレスを軽減する</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: &lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>毎日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t>分間の深呼吸や瞑想、リラックスできる音楽を聴くことで、不安を和らげ、集中力を高め、精神的なバランスを取り戻すのに役立ちます。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;span style="color:#49da54;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你的生活习惯很健康，请继续保持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/span&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;span style="color:#49da54;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你的生活習慣很健康，請繼續保持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/span&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;span style="color:#49da54;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>現在の生活習慣は極めて健全です
-この良好な状態を維持し続けてください</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/span&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你的寿命将延长：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/b&gt;&lt;span style="color:#49da54;"&gt;{years} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/span&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>您的壽命將延長：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/b&gt;&lt;span style="color:#49da54;"&gt;{years} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/span&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>あなたの寿命は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&lt;span style="color:#49da54;"&gt;{years} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/span&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>延びます</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -22886,7 +22746,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23047,14 +22907,6 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -23115,7 +22967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -23218,6 +23070,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -23442,10 +23297,10 @@
   <dimension ref="A1:E320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -23478,7 +23333,7 @@
     <row r="2" spans="1:5" s="14" customFormat="1">
       <c r="A2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="18.5">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>269</v>
       </c>
@@ -23512,7 +23367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.5">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
         <v>1169</v>
       </c>
@@ -23529,7 +23384,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.5">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>1170</v>
       </c>
@@ -23546,7 +23401,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.5">
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -23563,7 +23418,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.5">
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
@@ -23580,7 +23435,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.5">
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -23597,7 +23452,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.5">
+    <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
         <v>267</v>
       </c>
@@ -23614,7 +23469,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="55.5">
+    <row r="13" spans="1:5" ht="43.5">
       <c r="A13" s="8" t="s">
         <v>268</v>
       </c>
@@ -23652,17 +23507,17 @@
       <c r="A16" s="34" t="s">
         <v>1435</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>1455</v>
+      <c r="B16" s="37" t="s">
+        <v>1453</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1462</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23670,16 +23525,16 @@
         <v>1442</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>1465</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23687,16 +23542,16 @@
         <v>1436</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>1467</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1468</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23704,16 +23559,16 @@
         <v>1438</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>1471</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23721,16 +23576,16 @@
         <v>1437</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>1474</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="68" customHeight="1">
@@ -23738,16 +23593,16 @@
         <v>1439</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1475</v>
+        <v>1464</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>1477</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" ht="43.5">
@@ -23755,16 +23610,16 @@
         <v>1446</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1459</v>
+        <v>1472</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="36">
@@ -23772,19 +23627,19 @@
         <v>1447</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1458</v>
+        <v>1471</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18.5">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
         <v>252</v>
       </c>
@@ -23801,7 +23656,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.5">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="8" t="s">
         <v>253</v>
       </c>
@@ -23818,7 +23673,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.5">
+    <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
         <v>254</v>
       </c>
@@ -23835,7 +23690,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.5">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="8" t="s">
         <v>255</v>
       </c>
@@ -23886,7 +23741,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.5">
+    <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
         <v>257</v>
       </c>
@@ -23903,7 +23758,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18.5">
+    <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
         <v>256</v>
       </c>
@@ -23920,7 +23775,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18.5">
+    <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
         <v>258</v>
       </c>
@@ -23937,7 +23792,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18.5">
+    <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
         <v>259</v>
       </c>
@@ -23954,7 +23809,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18.5">
+    <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
         <v>260</v>
       </c>
@@ -23971,7 +23826,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18.5">
+    <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
         <v>261</v>
       </c>
@@ -23988,7 +23843,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.5">
+    <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
         <v>262</v>
       </c>
@@ -24022,7 +23877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18.5">
+    <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
         <v>264</v>
       </c>
@@ -24039,7 +23894,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18.5">
+    <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
         <v>265</v>
       </c>
@@ -24056,7 +23911,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18.5">
+    <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
         <v>266</v>
       </c>
@@ -24073,7 +23928,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.5">
+    <row r="44" spans="1:5">
       <c r="A44" s="28" t="s">
         <v>1189</v>
       </c>
@@ -24090,7 +23945,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18.5">
+    <row r="45" spans="1:5">
       <c r="A45" s="28" t="s">
         <v>1191</v>
       </c>
@@ -24107,7 +23962,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18.5">
+    <row r="46" spans="1:5">
       <c r="A46" s="28" t="s">
         <v>1193</v>
       </c>
@@ -24124,7 +23979,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18.5">
+    <row r="47" spans="1:5">
       <c r="A47" s="28" t="s">
         <v>1195</v>
       </c>
@@ -24141,7 +23996,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.5">
+    <row r="48" spans="1:5">
       <c r="A48" s="28" t="s">
         <v>1197</v>
       </c>
@@ -24158,7 +24013,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.5">
+    <row r="49" spans="1:5">
       <c r="A49" s="28" t="s">
         <v>1199</v>
       </c>
@@ -24175,7 +24030,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.5">
+    <row r="50" spans="1:5">
       <c r="A50" s="28" t="s">
         <v>1201</v>
       </c>
@@ -24192,7 +24047,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.5">
+    <row r="51" spans="1:5">
       <c r="A51" s="28" t="s">
         <v>1203</v>
       </c>
@@ -24209,7 +24064,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.5">
+    <row r="52" spans="1:5">
       <c r="A52" s="28" t="s">
         <v>1205</v>
       </c>
@@ -24226,7 +24081,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.5">
+    <row r="53" spans="1:5">
       <c r="A53" s="28" t="s">
         <v>1207</v>
       </c>
@@ -24248,7 +24103,7 @@
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
     </row>
-    <row r="55" spans="1:5" ht="18.5">
+    <row r="55" spans="1:5">
       <c r="A55" s="29" t="s">
         <v>1209</v>
       </c>
@@ -24265,7 +24120,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.5">
+    <row r="56" spans="1:5">
       <c r="A56" s="29" t="s">
         <v>1212</v>
       </c>
@@ -24282,7 +24137,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.5">
+    <row r="57" spans="1:5">
       <c r="A57" s="29" t="s">
         <v>1215</v>
       </c>
@@ -24299,7 +24154,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18.5">
+    <row r="58" spans="1:5">
       <c r="A58" s="29" t="s">
         <v>1218</v>
       </c>
@@ -24316,7 +24171,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.5">
+    <row r="59" spans="1:5">
       <c r="A59" s="29" t="s">
         <v>1221</v>
       </c>
@@ -24333,7 +24188,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18.5">
+    <row r="61" spans="1:5">
       <c r="A61" s="29" t="s">
         <v>1224</v>
       </c>
@@ -24350,7 +24205,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18.5">
+    <row r="62" spans="1:5">
       <c r="A62" s="29" t="s">
         <v>1227</v>
       </c>
@@ -24367,7 +24222,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18.5">
+    <row r="63" spans="1:5">
       <c r="A63" s="29" t="s">
         <v>1230</v>
       </c>
@@ -24384,7 +24239,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18.5">
+    <row r="64" spans="1:5">
       <c r="A64" s="29" t="s">
         <v>1233</v>
       </c>
@@ -24401,7 +24256,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18.5">
+    <row r="65" spans="1:5">
       <c r="A65" s="29" t="s">
         <v>1236</v>
       </c>
@@ -24418,7 +24273,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18.5">
+    <row r="66" spans="1:5">
       <c r="A66" s="29" t="s">
         <v>1239</v>
       </c>
@@ -24435,7 +24290,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18.5">
+    <row r="68" spans="1:5">
       <c r="A68" s="29" t="s">
         <v>1242</v>
       </c>
@@ -24452,7 +24307,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18.5">
+    <row r="69" spans="1:5">
       <c r="A69" s="29" t="s">
         <v>1245</v>
       </c>
@@ -24469,7 +24324,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18.5">
+    <row r="70" spans="1:5">
       <c r="A70" s="29" t="s">
         <v>1248</v>
       </c>
@@ -24486,7 +24341,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18.5">
+    <row r="71" spans="1:5">
       <c r="A71" s="29" t="s">
         <v>1251</v>
       </c>
@@ -24503,7 +24358,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18.5">
+    <row r="72" spans="1:5">
       <c r="A72" s="29" t="s">
         <v>1254</v>
       </c>
@@ -24520,7 +24375,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="37">
+    <row r="74" spans="1:5" ht="29">
       <c r="A74" s="29" t="s">
         <v>1257</v>
       </c>
@@ -24537,7 +24392,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18.5">
+    <row r="75" spans="1:5">
       <c r="A75" s="29" t="s">
         <v>1260</v>
       </c>
@@ -24554,7 +24409,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18.5">
+    <row r="76" spans="1:5">
       <c r="A76" s="29" t="s">
         <v>1263</v>
       </c>
@@ -24571,7 +24426,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18.5">
+    <row r="77" spans="1:5">
       <c r="A77" s="29" t="s">
         <v>1266</v>
       </c>
@@ -24588,7 +24443,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18.5">
+    <row r="78" spans="1:5">
       <c r="A78" s="29" t="s">
         <v>1269</v>
       </c>
@@ -24605,7 +24460,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18.5">
+    <row r="79" spans="1:5">
       <c r="A79" s="29" t="s">
         <v>1272</v>
       </c>
@@ -24622,7 +24477,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="37">
+    <row r="80" spans="1:5" ht="29">
       <c r="A80" s="29" t="s">
         <v>1275</v>
       </c>
@@ -24639,7 +24494,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="18.5">
+    <row r="81" spans="1:5">
       <c r="A81" s="29" t="s">
         <v>1278</v>
       </c>
@@ -24656,7 +24511,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18.5">
+    <row r="82" spans="1:5">
       <c r="A82" s="29" t="s">
         <v>1281</v>
       </c>
@@ -24673,7 +24528,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="18.5">
+    <row r="83" spans="1:5">
       <c r="A83" s="29" t="s">
         <v>1285</v>
       </c>
@@ -24690,7 +24545,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="18.5">
+    <row r="84" spans="1:5">
       <c r="A84" s="29" t="s">
         <v>1289</v>
       </c>
@@ -24707,7 +24562,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="18.5">
+    <row r="85" spans="1:5">
       <c r="A85" s="29" t="s">
         <v>1293</v>
       </c>
@@ -24724,7 +24579,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="18.5">
+    <row r="88" spans="1:5">
       <c r="A88" s="29" t="s">
         <v>1297</v>
       </c>
@@ -24741,7 +24596,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="18.5">
+    <row r="89" spans="1:5">
       <c r="A89" s="30" t="s">
         <v>1300</v>
       </c>
@@ -24758,7 +24613,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="18.5">
+    <row r="90" spans="1:5">
       <c r="A90" s="29" t="s">
         <v>1301</v>
       </c>
@@ -24775,7 +24630,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="18.5">
+    <row r="91" spans="1:5">
       <c r="A91" s="29" t="s">
         <v>1302</v>
       </c>
@@ -24792,7 +24647,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="18.5">
+    <row r="92" spans="1:5">
       <c r="A92" s="29" t="s">
         <v>1304</v>
       </c>
@@ -24809,7 +24664,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="18.5">
+    <row r="93" spans="1:5">
       <c r="A93" s="29" t="s">
         <v>1306</v>
       </c>
@@ -24826,7 +24681,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="18.5">
+    <row r="94" spans="1:5">
       <c r="A94" s="29" t="s">
         <v>1308</v>
       </c>
@@ -24843,7 +24698,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="18.5">
+    <row r="97" spans="1:5">
       <c r="A97" s="8" t="s">
         <v>1311</v>
       </c>
@@ -24860,7 +24715,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="18.5">
+    <row r="98" spans="1:5">
       <c r="A98" s="8" t="s">
         <v>1312</v>
       </c>
@@ -24877,7 +24732,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="18.5">
+    <row r="99" spans="1:5">
       <c r="A99" s="31" t="s">
         <v>1314</v>
       </c>
@@ -24894,7 +24749,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="18.5">
+    <row r="100" spans="1:5">
       <c r="A100" s="31" t="s">
         <v>1316</v>
       </c>
@@ -24911,7 +24766,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="18.5">
+    <row r="101" spans="1:5">
       <c r="A101" s="31" t="s">
         <v>1318</v>
       </c>
@@ -24928,7 +24783,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="18.5">
+    <row r="102" spans="1:5">
       <c r="A102" s="31" t="s">
         <v>1320</v>
       </c>
@@ -24945,7 +24800,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="37">
+    <row r="103" spans="1:5" ht="29">
       <c r="A103" s="31" t="s">
         <v>1322</v>
       </c>
@@ -24962,7 +24817,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="31">
+    <row r="104" spans="1:5" ht="29">
       <c r="A104" s="31" t="s">
         <v>1324</v>
       </c>
@@ -24979,7 +24834,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="31">
+    <row r="105" spans="1:5" ht="29">
       <c r="A105" s="31" t="s">
         <v>1326</v>
       </c>
@@ -24996,7 +24851,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="31">
+    <row r="106" spans="1:5" ht="29">
       <c r="A106" s="31" t="s">
         <v>1328</v>
       </c>
@@ -25020,7 +24875,7 @@
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
     </row>
-    <row r="109" spans="1:5" ht="18.5">
+    <row r="109" spans="1:5">
       <c r="A109" s="8" t="s">
         <v>588</v>
       </c>
@@ -25037,7 +24892,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="18.5">
+    <row r="110" spans="1:5">
       <c r="A110" s="8" t="s">
         <v>590</v>
       </c>
@@ -25054,7 +24909,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="18.5">
+    <row r="111" spans="1:5">
       <c r="A111" s="8" t="s">
         <v>592</v>
       </c>
@@ -25071,7 +24926,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="18.5">
+    <row r="112" spans="1:5">
       <c r="A112" s="8" t="s">
         <v>595</v>
       </c>
@@ -25088,7 +24943,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="18.5">
+    <row r="113" spans="1:5">
       <c r="A113" s="8" t="s">
         <v>598</v>
       </c>
@@ -25105,7 +24960,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="18.5">
+    <row r="114" spans="1:5">
       <c r="A114" s="8" t="s">
         <v>600</v>
       </c>
@@ -25122,7 +24977,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="18.5">
+    <row r="115" spans="1:5">
       <c r="A115" s="8" t="s">
         <v>603</v>
       </c>
@@ -25139,7 +24994,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="18.5">
+    <row r="116" spans="1:5">
       <c r="A116" s="8" t="s">
         <v>605</v>
       </c>
@@ -25156,7 +25011,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="18.5">
+    <row r="117" spans="1:5">
       <c r="A117" s="8" t="s">
         <v>607</v>
       </c>
@@ -25173,7 +25028,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="18.5">
+    <row r="118" spans="1:5">
       <c r="A118" s="8" t="s">
         <v>609</v>
       </c>
@@ -25190,7 +25045,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="18.5">
+    <row r="119" spans="1:5">
       <c r="A119" s="8" t="s">
         <v>612</v>
       </c>
@@ -25207,7 +25062,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="18.5">
+    <row r="120" spans="1:5">
       <c r="A120" s="8" t="s">
         <v>615</v>
       </c>
@@ -25224,7 +25079,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="18.5">
+    <row r="121" spans="1:5">
       <c r="A121" s="8" t="s">
         <v>617</v>
       </c>
@@ -25241,7 +25096,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="18.5">
+    <row r="122" spans="1:5">
       <c r="A122" s="8" t="s">
         <v>619</v>
       </c>
@@ -25258,7 +25113,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="18.5">
+    <row r="123" spans="1:5">
       <c r="A123" s="8" t="s">
         <v>622</v>
       </c>
@@ -25275,7 +25130,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="18.5">
+    <row r="124" spans="1:5">
       <c r="A124" s="8" t="s">
         <v>625</v>
       </c>
@@ -25292,7 +25147,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="18.5">
+    <row r="125" spans="1:5">
       <c r="A125" s="8" t="s">
         <v>628</v>
       </c>
@@ -25309,7 +25164,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="18.5">
+    <row r="126" spans="1:5">
       <c r="A126" s="8" t="s">
         <v>631</v>
       </c>
@@ -25326,7 +25181,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="18.5">
+    <row r="127" spans="1:5">
       <c r="A127" s="8" t="s">
         <v>633</v>
       </c>
@@ -25343,7 +25198,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="18.5">
+    <row r="128" spans="1:5">
       <c r="A128" s="8" t="s">
         <v>635</v>
       </c>
@@ -25360,7 +25215,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="18.5">
+    <row r="129" spans="1:5">
       <c r="A129" s="8" t="s">
         <v>637</v>
       </c>
@@ -25377,7 +25232,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="18.5">
+    <row r="130" spans="1:5">
       <c r="A130" s="8" t="s">
         <v>639</v>
       </c>
@@ -25394,7 +25249,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="18.5">
+    <row r="131" spans="1:5">
       <c r="A131" s="8" t="s">
         <v>641</v>
       </c>
@@ -25411,7 +25266,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="18.5">
+    <row r="132" spans="1:5">
       <c r="A132" s="8" t="s">
         <v>644</v>
       </c>
@@ -25428,7 +25283,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="18.5">
+    <row r="133" spans="1:5">
       <c r="A133" s="8" t="s">
         <v>647</v>
       </c>
@@ -25445,7 +25300,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="18.5">
+    <row r="134" spans="1:5">
       <c r="A134" s="8" t="s">
         <v>650</v>
       </c>
@@ -25462,7 +25317,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="18.5">
+    <row r="135" spans="1:5">
       <c r="A135" s="8" t="s">
         <v>652</v>
       </c>
@@ -25479,7 +25334,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="18.5">
+    <row r="136" spans="1:5">
       <c r="A136" s="8" t="s">
         <v>655</v>
       </c>
@@ -25496,7 +25351,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="18.5">
+    <row r="137" spans="1:5">
       <c r="A137" s="8" t="s">
         <v>658</v>
       </c>
@@ -25513,7 +25368,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="18.5">
+    <row r="138" spans="1:5">
       <c r="A138" s="8" t="s">
         <v>660</v>
       </c>
@@ -25530,7 +25385,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="18.5">
+    <row r="139" spans="1:5">
       <c r="A139" s="8" t="s">
         <v>663</v>
       </c>
@@ -25547,7 +25402,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="18.5">
+    <row r="140" spans="1:5">
       <c r="A140" s="8" t="s">
         <v>665</v>
       </c>
@@ -25564,7 +25419,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="18.5">
+    <row r="141" spans="1:5">
       <c r="A141" s="8" t="s">
         <v>668</v>
       </c>
@@ -25581,7 +25436,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="18.5">
+    <row r="142" spans="1:5">
       <c r="A142" s="8" t="s">
         <v>671</v>
       </c>
@@ -25598,7 +25453,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="18.5">
+    <row r="143" spans="1:5">
       <c r="A143" s="8" t="s">
         <v>674</v>
       </c>
@@ -25615,7 +25470,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="18.5">
+    <row r="144" spans="1:5">
       <c r="A144" s="8" t="s">
         <v>677</v>
       </c>
@@ -25632,7 +25487,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="18.5">
+    <row r="145" spans="1:5">
       <c r="A145" s="8" t="s">
         <v>680</v>
       </c>
@@ -25649,7 +25504,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="18.5">
+    <row r="146" spans="1:5">
       <c r="A146" s="8" t="s">
         <v>683</v>
       </c>
@@ -25666,7 +25521,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="18.5">
+    <row r="147" spans="1:5">
       <c r="A147" s="8" t="s">
         <v>686</v>
       </c>
@@ -25683,7 +25538,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="18.5">
+    <row r="148" spans="1:5">
       <c r="A148" s="8" t="s">
         <v>689</v>
       </c>
@@ -25700,7 +25555,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="18.5">
+    <row r="149" spans="1:5">
       <c r="A149" s="8" t="s">
         <v>692</v>
       </c>
@@ -25717,7 +25572,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="18.5">
+    <row r="150" spans="1:5">
       <c r="A150" s="8" t="s">
         <v>694</v>
       </c>
@@ -25734,7 +25589,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="18.5">
+    <row r="151" spans="1:5">
       <c r="A151" s="8" t="s">
         <v>697</v>
       </c>
@@ -25751,7 +25606,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="18.5">
+    <row r="152" spans="1:5">
       <c r="A152" s="8" t="s">
         <v>699</v>
       </c>
@@ -25768,7 +25623,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="18.5">
+    <row r="153" spans="1:5">
       <c r="A153" s="8" t="s">
         <v>702</v>
       </c>
@@ -25785,7 +25640,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="18.5">
+    <row r="154" spans="1:5">
       <c r="A154" s="8" t="s">
         <v>705</v>
       </c>
@@ -25802,7 +25657,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="18.5">
+    <row r="155" spans="1:5">
       <c r="A155" s="8" t="s">
         <v>708</v>
       </c>
@@ -25819,7 +25674,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="18.5">
+    <row r="156" spans="1:5">
       <c r="A156" s="8" t="s">
         <v>711</v>
       </c>
@@ -25836,7 +25691,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="18.5">
+    <row r="157" spans="1:5">
       <c r="A157" s="8" t="s">
         <v>714</v>
       </c>
@@ -25853,7 +25708,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="18.5">
+    <row r="158" spans="1:5">
       <c r="A158" s="8" t="s">
         <v>716</v>
       </c>
@@ -25870,7 +25725,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="18.5">
+    <row r="159" spans="1:5">
       <c r="A159" s="8" t="s">
         <v>719</v>
       </c>
@@ -25887,7 +25742,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="18.5">
+    <row r="160" spans="1:5">
       <c r="A160" s="8" t="s">
         <v>722</v>
       </c>
@@ -25904,7 +25759,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="18.5">
+    <row r="161" spans="1:5">
       <c r="A161" s="8" t="s">
         <v>725</v>
       </c>
@@ -25921,7 +25776,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="18.5">
+    <row r="162" spans="1:5">
       <c r="A162" s="8" t="s">
         <v>728</v>
       </c>
@@ -25938,7 +25793,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="18.5">
+    <row r="163" spans="1:5">
       <c r="A163" s="8" t="s">
         <v>731</v>
       </c>
@@ -25955,7 +25810,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="18.5">
+    <row r="164" spans="1:5">
       <c r="A164" s="8" t="s">
         <v>734</v>
       </c>
@@ -25972,7 +25827,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="18.5">
+    <row r="165" spans="1:5">
       <c r="A165" s="8" t="s">
         <v>736</v>
       </c>
@@ -25989,7 +25844,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="18.5">
+    <row r="166" spans="1:5">
       <c r="A166" s="8" t="s">
         <v>739</v>
       </c>
@@ -26006,7 +25861,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="18.5">
+    <row r="167" spans="1:5">
       <c r="A167" s="8" t="s">
         <v>742</v>
       </c>
@@ -26023,7 +25878,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="18.5">
+    <row r="168" spans="1:5">
       <c r="A168" s="8" t="s">
         <v>745</v>
       </c>
@@ -26040,7 +25895,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="18.5">
+    <row r="169" spans="1:5">
       <c r="A169" s="8" t="s">
         <v>748</v>
       </c>
@@ -26057,7 +25912,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="18.5">
+    <row r="170" spans="1:5">
       <c r="A170" s="8" t="s">
         <v>751</v>
       </c>
@@ -26074,7 +25929,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="18.5">
+    <row r="171" spans="1:5">
       <c r="A171" s="8" t="s">
         <v>754</v>
       </c>
@@ -26091,7 +25946,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="18.5">
+    <row r="172" spans="1:5">
       <c r="A172" s="8" t="s">
         <v>757</v>
       </c>
@@ -26108,7 +25963,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="18.5">
+    <row r="173" spans="1:5">
       <c r="A173" s="8" t="s">
         <v>759</v>
       </c>
@@ -26125,7 +25980,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="18.5">
+    <row r="174" spans="1:5">
       <c r="A174" s="8" t="s">
         <v>762</v>
       </c>
@@ -26142,7 +25997,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="18.5">
+    <row r="175" spans="1:5">
       <c r="A175" s="8" t="s">
         <v>764</v>
       </c>
@@ -26159,7 +26014,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="18.5">
+    <row r="176" spans="1:5">
       <c r="A176" s="8" t="s">
         <v>767</v>
       </c>
@@ -26176,7 +26031,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="18.5">
+    <row r="177" spans="1:5">
       <c r="A177" s="8" t="s">
         <v>769</v>
       </c>
@@ -26193,7 +26048,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="18.5">
+    <row r="178" spans="1:5">
       <c r="A178" s="8" t="s">
         <v>772</v>
       </c>
@@ -26210,7 +26065,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="18.5">
+    <row r="179" spans="1:5">
       <c r="A179" s="8" t="s">
         <v>775</v>
       </c>
@@ -26227,7 +26082,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="18.5">
+    <row r="180" spans="1:5">
       <c r="A180" s="8" t="s">
         <v>778</v>
       </c>
@@ -26244,7 +26099,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="18.5">
+    <row r="181" spans="1:5">
       <c r="A181" s="8" t="s">
         <v>780</v>
       </c>
@@ -26261,7 +26116,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="18.5">
+    <row r="182" spans="1:5">
       <c r="A182" s="8" t="s">
         <v>782</v>
       </c>
@@ -26278,7 +26133,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="18.5">
+    <row r="183" spans="1:5">
       <c r="A183" s="8" t="s">
         <v>785</v>
       </c>
@@ -26295,7 +26150,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="18.5">
+    <row r="184" spans="1:5">
       <c r="A184" s="8" t="s">
         <v>787</v>
       </c>
@@ -26312,7 +26167,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="18.5">
+    <row r="185" spans="1:5">
       <c r="A185" s="8" t="s">
         <v>790</v>
       </c>
@@ -26329,7 +26184,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="18.5">
+    <row r="186" spans="1:5">
       <c r="A186" s="8" t="s">
         <v>793</v>
       </c>
@@ -26346,7 +26201,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="18.5">
+    <row r="187" spans="1:5">
       <c r="A187" s="8" t="s">
         <v>796</v>
       </c>
@@ -26363,7 +26218,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="18.5">
+    <row r="188" spans="1:5">
       <c r="A188" s="8" t="s">
         <v>798</v>
       </c>
@@ -26380,7 +26235,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="18.5">
+    <row r="189" spans="1:5">
       <c r="A189" s="8" t="s">
         <v>800</v>
       </c>
@@ -26397,7 +26252,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="18.5">
+    <row r="190" spans="1:5">
       <c r="A190" s="8" t="s">
         <v>803</v>
       </c>
@@ -26414,7 +26269,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="18.5">
+    <row r="191" spans="1:5">
       <c r="A191" s="8" t="s">
         <v>805</v>
       </c>
@@ -26431,7 +26286,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="18.5">
+    <row r="192" spans="1:5">
       <c r="A192" s="8" t="s">
         <v>808</v>
       </c>
@@ -26448,7 +26303,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="18.5">
+    <row r="193" spans="1:5">
       <c r="A193" s="8" t="s">
         <v>810</v>
       </c>
@@ -26465,7 +26320,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="18.5">
+    <row r="194" spans="1:5">
       <c r="A194" s="8" t="s">
         <v>812</v>
       </c>
@@ -26482,7 +26337,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="18.5">
+    <row r="195" spans="1:5">
       <c r="A195" s="8" t="s">
         <v>814</v>
       </c>
@@ -26499,7 +26354,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="18.5">
+    <row r="196" spans="1:5">
       <c r="A196" s="8" t="s">
         <v>817</v>
       </c>
@@ -26516,7 +26371,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="18.5">
+    <row r="197" spans="1:5">
       <c r="A197" s="8" t="s">
         <v>820</v>
       </c>
@@ -26533,7 +26388,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="18.5">
+    <row r="198" spans="1:5">
       <c r="A198" s="8" t="s">
         <v>823</v>
       </c>
@@ -26550,7 +26405,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="18.5">
+    <row r="199" spans="1:5">
       <c r="A199" s="8" t="s">
         <v>826</v>
       </c>
@@ -26567,7 +26422,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="18.5">
+    <row r="200" spans="1:5">
       <c r="A200" s="8" t="s">
         <v>829</v>
       </c>
@@ -26584,7 +26439,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="18.5">
+    <row r="201" spans="1:5">
       <c r="A201" s="8" t="s">
         <v>831</v>
       </c>
@@ -26601,7 +26456,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="18.5">
+    <row r="202" spans="1:5">
       <c r="A202" s="8" t="s">
         <v>834</v>
       </c>
@@ -26618,7 +26473,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="18.5">
+    <row r="203" spans="1:5">
       <c r="A203" s="8" t="s">
         <v>837</v>
       </c>
@@ -26635,7 +26490,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="18.5">
+    <row r="204" spans="1:5">
       <c r="A204" s="8" t="s">
         <v>839</v>
       </c>
@@ -26652,7 +26507,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="18.5">
+    <row r="205" spans="1:5">
       <c r="A205" s="8" t="s">
         <v>842</v>
       </c>
@@ -26669,7 +26524,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="18.5">
+    <row r="206" spans="1:5">
       <c r="A206" s="8" t="s">
         <v>845</v>
       </c>
@@ -26686,7 +26541,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="18.5">
+    <row r="207" spans="1:5">
       <c r="A207" s="8" t="s">
         <v>848</v>
       </c>
@@ -26703,7 +26558,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="18.5">
+    <row r="208" spans="1:5">
       <c r="A208" s="8" t="s">
         <v>851</v>
       </c>
@@ -26720,7 +26575,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="18.5">
+    <row r="209" spans="1:5">
       <c r="A209" s="8" t="s">
         <v>854</v>
       </c>
@@ -26737,7 +26592,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="18.5">
+    <row r="210" spans="1:5">
       <c r="A210" s="8" t="s">
         <v>858</v>
       </c>
@@ -26754,7 +26609,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="18.5">
+    <row r="211" spans="1:5">
       <c r="A211" s="8" t="s">
         <v>862</v>
       </c>
@@ -26771,7 +26626,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="18.5">
+    <row r="212" spans="1:5">
       <c r="A212" s="8" t="s">
         <v>865</v>
       </c>
@@ -26788,7 +26643,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="18.5">
+    <row r="213" spans="1:5">
       <c r="A213" s="8" t="s">
         <v>868</v>
       </c>
@@ -26805,7 +26660,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="18.5">
+    <row r="214" spans="1:5">
       <c r="A214" s="8" t="s">
         <v>871</v>
       </c>
@@ -26822,7 +26677,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="18.5">
+    <row r="215" spans="1:5">
       <c r="A215" s="8" t="s">
         <v>874</v>
       </c>
@@ -26839,7 +26694,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="18.5">
+    <row r="216" spans="1:5">
       <c r="A216" s="8" t="s">
         <v>876</v>
       </c>
@@ -26856,7 +26711,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="18.5">
+    <row r="217" spans="1:5">
       <c r="A217" s="8" t="s">
         <v>879</v>
       </c>
@@ -26873,7 +26728,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="18.5">
+    <row r="218" spans="1:5">
       <c r="A218" s="8" t="s">
         <v>882</v>
       </c>
@@ -26890,7 +26745,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="18.5">
+    <row r="219" spans="1:5">
       <c r="A219" s="8" t="s">
         <v>884</v>
       </c>
@@ -26907,7 +26762,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="18.5">
+    <row r="220" spans="1:5">
       <c r="A220" s="8" t="s">
         <v>886</v>
       </c>
@@ -26924,7 +26779,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="18.5">
+    <row r="221" spans="1:5">
       <c r="A221" s="8" t="s">
         <v>889</v>
       </c>
@@ -26941,7 +26796,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="18.5">
+    <row r="222" spans="1:5">
       <c r="A222" s="8" t="s">
         <v>892</v>
       </c>
@@ -26958,7 +26813,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="18.5">
+    <row r="223" spans="1:5">
       <c r="A223" s="8" t="s">
         <v>895</v>
       </c>
@@ -26975,7 +26830,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="18.5">
+    <row r="224" spans="1:5">
       <c r="A224" s="8" t="s">
         <v>898</v>
       </c>
@@ -26992,7 +26847,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="18.5">
+    <row r="225" spans="1:5">
       <c r="A225" s="8" t="s">
         <v>901</v>
       </c>
@@ -27009,7 +26864,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="18.5">
+    <row r="226" spans="1:5">
       <c r="A226" s="8" t="s">
         <v>904</v>
       </c>
@@ -27026,7 +26881,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="18.5">
+    <row r="227" spans="1:5">
       <c r="A227" s="8" t="s">
         <v>906</v>
       </c>
@@ -27043,7 +26898,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="18.5">
+    <row r="228" spans="1:5">
       <c r="A228" s="8" t="s">
         <v>908</v>
       </c>
@@ -27060,7 +26915,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="18.5">
+    <row r="229" spans="1:5">
       <c r="A229" s="8" t="s">
         <v>910</v>
       </c>
@@ -27077,7 +26932,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="18.5">
+    <row r="230" spans="1:5">
       <c r="A230" s="8" t="s">
         <v>913</v>
       </c>
@@ -27094,7 +26949,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="18.5">
+    <row r="231" spans="1:5">
       <c r="A231" s="8" t="s">
         <v>916</v>
       </c>
@@ -27111,7 +26966,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="18.5">
+    <row r="232" spans="1:5">
       <c r="A232" s="8" t="s">
         <v>919</v>
       </c>
@@ -27128,7 +26983,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="18.5">
+    <row r="233" spans="1:5">
       <c r="A233" s="8" t="s">
         <v>922</v>
       </c>
@@ -27145,7 +27000,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="18.5">
+    <row r="234" spans="1:5">
       <c r="A234" s="8" t="s">
         <v>925</v>
       </c>
@@ -27162,7 +27017,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="18.5">
+    <row r="235" spans="1:5">
       <c r="A235" s="8" t="s">
         <v>928</v>
       </c>
@@ -27179,7 +27034,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="18.5">
+    <row r="236" spans="1:5">
       <c r="A236" s="8" t="s">
         <v>930</v>
       </c>
@@ -27196,7 +27051,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="18.5">
+    <row r="237" spans="1:5">
       <c r="A237" s="8" t="s">
         <v>932</v>
       </c>
@@ -27213,7 +27068,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="18.5">
+    <row r="238" spans="1:5">
       <c r="A238" s="8" t="s">
         <v>935</v>
       </c>
@@ -27230,7 +27085,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="18.5">
+    <row r="239" spans="1:5">
       <c r="A239" s="8" t="s">
         <v>937</v>
       </c>
@@ -27247,7 +27102,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="18.5">
+    <row r="240" spans="1:5">
       <c r="A240" s="8" t="s">
         <v>940</v>
       </c>
@@ -27264,7 +27119,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="18.5">
+    <row r="241" spans="1:5">
       <c r="A241" s="8" t="s">
         <v>943</v>
       </c>
@@ -27281,7 +27136,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="18.5">
+    <row r="242" spans="1:5">
       <c r="A242" s="8" t="s">
         <v>946</v>
       </c>
@@ -27298,7 +27153,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="18.5">
+    <row r="243" spans="1:5">
       <c r="A243" s="8" t="s">
         <v>948</v>
       </c>
@@ -27315,7 +27170,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="18.5">
+    <row r="244" spans="1:5">
       <c r="A244" s="8" t="s">
         <v>950</v>
       </c>
@@ -27332,7 +27187,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="18.5">
+    <row r="245" spans="1:5">
       <c r="A245" s="8" t="s">
         <v>952</v>
       </c>
@@ -27349,7 +27204,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="18.5">
+    <row r="246" spans="1:5">
       <c r="A246" s="8" t="s">
         <v>954</v>
       </c>
@@ -27366,7 +27221,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="18.5">
+    <row r="247" spans="1:5">
       <c r="A247" s="8" t="s">
         <v>957</v>
       </c>
@@ -27383,7 +27238,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="18.5">
+    <row r="248" spans="1:5">
       <c r="A248" s="8" t="s">
         <v>960</v>
       </c>
@@ -27400,7 +27255,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="18.5">
+    <row r="249" spans="1:5">
       <c r="A249" s="8" t="s">
         <v>962</v>
       </c>
@@ -27417,7 +27272,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="18.5">
+    <row r="250" spans="1:5">
       <c r="A250" s="8" t="s">
         <v>965</v>
       </c>
@@ -27434,7 +27289,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="18.5">
+    <row r="251" spans="1:5">
       <c r="A251" s="8" t="s">
         <v>968</v>
       </c>
@@ -27451,7 +27306,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="18.5">
+    <row r="252" spans="1:5">
       <c r="A252" s="8" t="s">
         <v>971</v>
       </c>
@@ -27468,7 +27323,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="18.5">
+    <row r="253" spans="1:5">
       <c r="A253" s="8" t="s">
         <v>973</v>
       </c>
@@ -27485,7 +27340,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="18.5">
+    <row r="254" spans="1:5">
       <c r="A254" s="8" t="s">
         <v>976</v>
       </c>
@@ -27502,7 +27357,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="18.5">
+    <row r="255" spans="1:5">
       <c r="A255" s="8" t="s">
         <v>979</v>
       </c>
@@ -27519,7 +27374,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="18.5">
+    <row r="256" spans="1:5">
       <c r="A256" s="8" t="s">
         <v>982</v>
       </c>
@@ -27536,7 +27391,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="18.5">
+    <row r="257" spans="1:5">
       <c r="A257" s="8" t="s">
         <v>985</v>
       </c>
@@ -27553,7 +27408,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="18.5">
+    <row r="258" spans="1:5">
       <c r="A258" s="8" t="s">
         <v>988</v>
       </c>
@@ -27570,7 +27425,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="18.5">
+    <row r="259" spans="1:5">
       <c r="A259" s="8" t="s">
         <v>991</v>
       </c>
@@ -27587,7 +27442,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="18.5">
+    <row r="260" spans="1:5">
       <c r="A260" s="8" t="s">
         <v>994</v>
       </c>
@@ -27604,7 +27459,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="18.5">
+    <row r="261" spans="1:5">
       <c r="A261" s="8" t="s">
         <v>997</v>
       </c>
@@ -27621,7 +27476,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="18.5">
+    <row r="262" spans="1:5">
       <c r="A262" s="8" t="s">
         <v>999</v>
       </c>
@@ -27638,7 +27493,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="18.5">
+    <row r="263" spans="1:5">
       <c r="A263" s="8" t="s">
         <v>1002</v>
       </c>
@@ -27655,7 +27510,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="18.5">
+    <row r="264" spans="1:5">
       <c r="A264" s="8" t="s">
         <v>1005</v>
       </c>
@@ -27672,7 +27527,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="18.5">
+    <row r="265" spans="1:5">
       <c r="A265" s="8" t="s">
         <v>1008</v>
       </c>
@@ -27689,7 +27544,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="18.5">
+    <row r="266" spans="1:5">
       <c r="A266" s="8" t="s">
         <v>1011</v>
       </c>
@@ -27706,7 +27561,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="18.5">
+    <row r="267" spans="1:5">
       <c r="A267" s="8" t="s">
         <v>1014</v>
       </c>
@@ -27723,7 +27578,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="18.5">
+    <row r="268" spans="1:5">
       <c r="A268" s="8" t="s">
         <v>1017</v>
       </c>
@@ -27740,7 +27595,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="18.5">
+    <row r="269" spans="1:5">
       <c r="A269" s="8" t="s">
         <v>1020</v>
       </c>
@@ -27757,7 +27612,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="18.5">
+    <row r="270" spans="1:5">
       <c r="A270" s="8" t="s">
         <v>1023</v>
       </c>
@@ -27774,7 +27629,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="18.5">
+    <row r="271" spans="1:5">
       <c r="A271" s="8" t="s">
         <v>1026</v>
       </c>
@@ -27791,7 +27646,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="18.5">
+    <row r="272" spans="1:5">
       <c r="A272" s="8" t="s">
         <v>1028</v>
       </c>
@@ -27808,7 +27663,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="18.5">
+    <row r="273" spans="1:5">
       <c r="A273" s="8" t="s">
         <v>1031</v>
       </c>
@@ -27825,7 +27680,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="18.5">
+    <row r="274" spans="1:5">
       <c r="A274" s="8" t="s">
         <v>1033</v>
       </c>
@@ -27842,7 +27697,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="18.5">
+    <row r="275" spans="1:5">
       <c r="A275" s="8" t="s">
         <v>1036</v>
       </c>
@@ -27859,7 +27714,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="18.5">
+    <row r="276" spans="1:5">
       <c r="A276" s="8" t="s">
         <v>1039</v>
       </c>
@@ -27876,7 +27731,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="18.5">
+    <row r="277" spans="1:5">
       <c r="A277" s="8" t="s">
         <v>1042</v>
       </c>
@@ -27893,7 +27748,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="18.5">
+    <row r="278" spans="1:5">
       <c r="A278" s="8" t="s">
         <v>1045</v>
       </c>
@@ -27910,7 +27765,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="18.5">
+    <row r="279" spans="1:5">
       <c r="A279" s="8" t="s">
         <v>1048</v>
       </c>
@@ -27927,7 +27782,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="18.5">
+    <row r="280" spans="1:5">
       <c r="A280" s="8" t="s">
         <v>1051</v>
       </c>
@@ -27944,7 +27799,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="18.5">
+    <row r="281" spans="1:5">
       <c r="A281" s="8" t="s">
         <v>1053</v>
       </c>
@@ -27961,7 +27816,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="18.5">
+    <row r="282" spans="1:5">
       <c r="A282" s="8" t="s">
         <v>1056</v>
       </c>
@@ -27978,7 +27833,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="18.5">
+    <row r="283" spans="1:5">
       <c r="A283" s="8" t="s">
         <v>1058</v>
       </c>
@@ -27995,7 +27850,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="18.5">
+    <row r="284" spans="1:5">
       <c r="A284" s="8" t="s">
         <v>1061</v>
       </c>
@@ -28012,7 +27867,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="18.5">
+    <row r="285" spans="1:5">
       <c r="A285" s="8" t="s">
         <v>1064</v>
       </c>
@@ -28029,7 +27884,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="18.5">
+    <row r="286" spans="1:5">
       <c r="A286" s="8" t="s">
         <v>1067</v>
       </c>
@@ -28046,7 +27901,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="18.5">
+    <row r="287" spans="1:5">
       <c r="A287" s="8" t="s">
         <v>1069</v>
       </c>
@@ -28063,7 +27918,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="18.5">
+    <row r="288" spans="1:5">
       <c r="A288" s="8" t="s">
         <v>1072</v>
       </c>
@@ -28080,7 +27935,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="18.5">
+    <row r="289" spans="1:5">
       <c r="A289" s="8" t="s">
         <v>1074</v>
       </c>
@@ -28097,7 +27952,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="18.5">
+    <row r="290" spans="1:5">
       <c r="A290" s="8" t="s">
         <v>1077</v>
       </c>
@@ -28114,7 +27969,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="18.5">
+    <row r="291" spans="1:5">
       <c r="A291" s="8" t="s">
         <v>1080</v>
       </c>
@@ -28131,7 +27986,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="18.5">
+    <row r="292" spans="1:5">
       <c r="A292" s="8" t="s">
         <v>1083</v>
       </c>
@@ -28148,7 +28003,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="18.5">
+    <row r="293" spans="1:5">
       <c r="A293" s="8" t="s">
         <v>1086</v>
       </c>
@@ -28165,7 +28020,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="18.5">
+    <row r="294" spans="1:5">
       <c r="A294" s="8" t="s">
         <v>1089</v>
       </c>
@@ -28182,7 +28037,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="18.5">
+    <row r="295" spans="1:5">
       <c r="A295" s="8" t="s">
         <v>1091</v>
       </c>
@@ -28199,7 +28054,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="18.5">
+    <row r="296" spans="1:5">
       <c r="A296" s="8" t="s">
         <v>1094</v>
       </c>
@@ -28216,7 +28071,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="18.5">
+    <row r="297" spans="1:5">
       <c r="A297" s="8" t="s">
         <v>1096</v>
       </c>
@@ -28233,7 +28088,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="18.5">
+    <row r="298" spans="1:5">
       <c r="A298" s="8" t="s">
         <v>1099</v>
       </c>
@@ -28250,7 +28105,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="18.5">
+    <row r="299" spans="1:5">
       <c r="A299" s="8" t="s">
         <v>1101</v>
       </c>
@@ -28267,7 +28122,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="18.5">
+    <row r="300" spans="1:5">
       <c r="A300" s="8" t="s">
         <v>1103</v>
       </c>
@@ -28284,7 +28139,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="18.5">
+    <row r="301" spans="1:5">
       <c r="A301" s="8" t="s">
         <v>1105</v>
       </c>
@@ -28301,7 +28156,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="18.5">
+    <row r="302" spans="1:5">
       <c r="A302" s="8" t="s">
         <v>1108</v>
       </c>
@@ -28318,7 +28173,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="18.5">
+    <row r="303" spans="1:5">
       <c r="A303" s="8" t="s">
         <v>1111</v>
       </c>
@@ -28335,7 +28190,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="18.5">
+    <row r="304" spans="1:5">
       <c r="A304" s="8" t="s">
         <v>1113</v>
       </c>
@@ -28352,7 +28207,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="18.5">
+    <row r="305" spans="1:5">
       <c r="A305" s="8" t="s">
         <v>1116</v>
       </c>
@@ -28369,7 +28224,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="18.5">
+    <row r="306" spans="1:5">
       <c r="A306" s="8" t="s">
         <v>1119</v>
       </c>
@@ -28386,7 +28241,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="18.5">
+    <row r="307" spans="1:5">
       <c r="A307" s="8" t="s">
         <v>1122</v>
       </c>
@@ -28403,7 +28258,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="18.5">
+    <row r="308" spans="1:5">
       <c r="A308" s="8" t="s">
         <v>1124</v>
       </c>
@@ -28420,7 +28275,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="18.5">
+    <row r="309" spans="1:5">
       <c r="A309" s="8" t="s">
         <v>1127</v>
       </c>
@@ -28437,7 +28292,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="18.5">
+    <row r="310" spans="1:5">
       <c r="A310" s="8" t="s">
         <v>1130</v>
       </c>
@@ -28454,7 +28309,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="18.5">
+    <row r="311" spans="1:5">
       <c r="A311" s="8" t="s">
         <v>1133</v>
       </c>
@@ -28471,7 +28326,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="18.5">
+    <row r="312" spans="1:5">
       <c r="A312" s="8" t="s">
         <v>1135</v>
       </c>
@@ -28488,7 +28343,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="18.5">
+    <row r="313" spans="1:5">
       <c r="A313" s="8" t="s">
         <v>1137</v>
       </c>
@@ -28505,7 +28360,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="18.5">
+    <row r="314" spans="1:5">
       <c r="A314" s="8" t="s">
         <v>1140</v>
       </c>
@@ -28522,7 +28377,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="18.5">
+    <row r="315" spans="1:5">
       <c r="A315" s="8" t="s">
         <v>1143</v>
       </c>
@@ -28539,7 +28394,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="18.5">
+    <row r="316" spans="1:5">
       <c r="A316" s="8" t="s">
         <v>1146</v>
       </c>
@@ -28556,7 +28411,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="18.5">
+    <row r="317" spans="1:5">
       <c r="A317" s="8" t="s">
         <v>1148</v>
       </c>
@@ -28573,7 +28428,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="18.5">
+    <row r="318" spans="1:5">
       <c r="A318" s="8" t="s">
         <v>1150</v>
       </c>
@@ -28590,7 +28445,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="18.5">
+    <row r="319" spans="1:5">
       <c r="A319" s="8" t="s">
         <v>1152</v>
       </c>
@@ -28607,7 +28462,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="18.5">
+    <row r="320" spans="1:5">
       <c r="A320" s="8" t="s">
         <v>1155</v>
       </c>
@@ -28666,7 +28521,7 @@
     <row r="2" spans="1:3" s="17" customFormat="1">
       <c r="A2" s="16"/>
     </row>
-    <row r="3" spans="1:3" ht="18.5">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>299</v>
       </c>
@@ -28677,7 +28532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.5">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>300</v>
       </c>
@@ -28688,7 +28543,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.5">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>301</v>
       </c>
@@ -28699,7 +28554,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.5">
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>302</v>
       </c>
@@ -28710,7 +28565,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.5">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>303</v>
       </c>
@@ -28721,7 +28576,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.5">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>304</v>
       </c>
@@ -28732,7 +28587,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.5">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>305</v>
       </c>
@@ -28743,7 +28598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.5">
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>306</v>
       </c>
@@ -28754,7 +28609,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.5">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>307</v>
       </c>
@@ -28765,7 +28620,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.5">
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>308</v>
       </c>
@@ -28776,7 +28631,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.5">
+    <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>309</v>
       </c>
@@ -28787,7 +28642,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.5">
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>310</v>
       </c>
@@ -28798,7 +28653,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.5">
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>311</v>
       </c>
@@ -28809,7 +28664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.5">
+    <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>312</v>
       </c>
@@ -28820,7 +28675,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.5">
+    <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>313</v>
       </c>
@@ -28831,7 +28686,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.5">
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>314</v>
       </c>
@@ -28842,7 +28697,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.5">
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>315</v>
       </c>
@@ -28853,7 +28708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.5">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>316</v>
       </c>
@@ -28864,7 +28719,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.5">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>317</v>
       </c>
@@ -28875,7 +28730,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.5">
+    <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>318</v>
       </c>
@@ -28886,7 +28741,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.5">
+    <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>319</v>
       </c>
@@ -28897,7 +28752,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.5">
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>320</v>
       </c>
@@ -28908,7 +28763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.5">
+    <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>321</v>
       </c>
@@ -28919,7 +28774,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.5">
+    <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>322</v>
       </c>
@@ -28930,7 +28785,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.5">
+    <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>323</v>
       </c>
@@ -28941,7 +28796,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.5">
+    <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>324</v>
       </c>
@@ -28952,7 +28807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.5">
+    <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>325</v>
       </c>
@@ -28963,7 +28818,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.5">
+    <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>326</v>
       </c>
@@ -28974,7 +28829,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.5">
+    <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>327</v>
       </c>
@@ -28985,7 +28840,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.5">
+    <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>328</v>
       </c>
@@ -28996,7 +28851,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.5">
+    <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>329</v>
       </c>
@@ -29007,7 +28862,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.5">
+    <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>330</v>
       </c>
@@ -29018,7 +28873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.5">
+    <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>331</v>
       </c>
@@ -29029,7 +28884,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.5">
+    <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>332</v>
       </c>
@@ -29040,7 +28895,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.5">
+    <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>333</v>
       </c>
@@ -29051,7 +28906,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.5">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>334</v>
       </c>
@@ -29062,7 +28917,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.5">
+    <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>335</v>
       </c>
@@ -29073,7 +28928,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.5">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>336</v>
       </c>
@@ -29084,7 +28939,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.5">
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>337</v>
       </c>
@@ -29095,7 +28950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18.5">
+    <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>338</v>
       </c>
@@ -29106,7 +28961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18.5">
+    <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
         <v>339</v>
       </c>
@@ -29117,7 +28972,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18.5">
+    <row r="44" spans="1:3">
       <c r="A44" s="6" t="s">
         <v>340</v>
       </c>
@@ -29128,7 +28983,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18.5">
+    <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
         <v>341</v>
       </c>
@@ -29139,7 +28994,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18.5">
+    <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
         <v>342</v>
       </c>
@@ -29150,7 +29005,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18.5">
+    <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
         <v>343</v>
       </c>
@@ -29161,7 +29016,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18.5">
+    <row r="48" spans="1:3">
       <c r="A48" s="6" t="s">
         <v>344</v>
       </c>
@@ -29172,7 +29027,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18.5">
+    <row r="49" spans="1:3">
       <c r="A49" s="6" t="s">
         <v>345</v>
       </c>
@@ -29183,7 +29038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.5">
+    <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
         <v>346</v>
       </c>
@@ -29194,7 +29049,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.5">
+    <row r="51" spans="1:3">
       <c r="A51" s="6" t="s">
         <v>347</v>
       </c>
@@ -29205,7 +29060,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18.5">
+    <row r="52" spans="1:3">
       <c r="A52" s="6" t="s">
         <v>348</v>
       </c>
@@ -29216,7 +29071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18.5">
+    <row r="53" spans="1:3">
       <c r="A53" s="6" t="s">
         <v>349</v>
       </c>
@@ -29227,7 +29082,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.5">
+    <row r="54" spans="1:3">
       <c r="A54" s="6" t="s">
         <v>350</v>
       </c>
@@ -29238,7 +29093,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18.5">
+    <row r="55" spans="1:3">
       <c r="A55" s="6" t="s">
         <v>351</v>
       </c>
@@ -29249,7 +29104,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.5">
+    <row r="56" spans="1:3">
       <c r="A56" s="6" t="s">
         <v>352</v>
       </c>
@@ -29260,7 +29115,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18.5">
+    <row r="57" spans="1:3">
       <c r="A57" s="6" t="s">
         <v>353</v>
       </c>
@@ -29271,7 +29126,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18.5">
+    <row r="58" spans="1:3">
       <c r="A58" s="6" t="s">
         <v>354</v>
       </c>
@@ -29282,7 +29137,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.5">
+    <row r="59" spans="1:3">
       <c r="A59" s="6" t="s">
         <v>355</v>
       </c>
@@ -29293,7 +29148,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="37">
+    <row r="60" spans="1:3" ht="29">
       <c r="A60" s="6" t="s">
         <v>356</v>
       </c>
@@ -29304,7 +29159,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18.5">
+    <row r="61" spans="1:3">
       <c r="A61" s="6" t="s">
         <v>357</v>
       </c>
@@ -29315,7 +29170,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18.5">
+    <row r="62" spans="1:3">
       <c r="A62" s="6" t="s">
         <v>358</v>
       </c>
@@ -29326,7 +29181,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18.5">
+    <row r="63" spans="1:3">
       <c r="A63" s="6" t="s">
         <v>359</v>
       </c>
@@ -29337,7 +29192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18.5">
+    <row r="64" spans="1:3">
       <c r="A64" s="6" t="s">
         <v>360</v>
       </c>
@@ -29348,7 +29203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18.5">
+    <row r="65" spans="1:3">
       <c r="A65" s="6" t="s">
         <v>361</v>
       </c>
@@ -29359,7 +29214,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18.5">
+    <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
         <v>362</v>
       </c>
@@ -29370,7 +29225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.5">
+    <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>363</v>
       </c>
@@ -29381,7 +29236,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18.5">
+    <row r="68" spans="1:3">
       <c r="A68" s="6" t="s">
         <v>364</v>
       </c>
@@ -29392,7 +29247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18.5">
+    <row r="69" spans="1:3">
       <c r="A69" s="6" t="s">
         <v>365</v>
       </c>
@@ -29403,7 +29258,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18.5">
+    <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
         <v>366</v>
       </c>
@@ -29414,7 +29269,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.5">
+    <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
         <v>367</v>
       </c>
@@ -29425,7 +29280,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18.5">
+    <row r="72" spans="1:3">
       <c r="A72" s="6" t="s">
         <v>368</v>
       </c>
@@ -29436,7 +29291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18.5">
+    <row r="73" spans="1:3">
       <c r="A73" s="6" t="s">
         <v>369</v>
       </c>
@@ -29447,7 +29302,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18.5">
+    <row r="74" spans="1:3">
       <c r="A74" s="6" t="s">
         <v>370</v>
       </c>
@@ -29458,7 +29313,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18.5">
+    <row r="75" spans="1:3">
       <c r="A75" s="6" t="s">
         <v>371</v>
       </c>
@@ -29469,7 +29324,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18.5">
+    <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
         <v>372</v>
       </c>
@@ -29480,7 +29335,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18.5">
+    <row r="77" spans="1:3">
       <c r="A77" s="6" t="s">
         <v>373</v>
       </c>
@@ -29491,7 +29346,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18.5">
+    <row r="78" spans="1:3">
       <c r="A78" s="6" t="s">
         <v>374</v>
       </c>
@@ -29502,7 +29357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18.5">
+    <row r="79" spans="1:3">
       <c r="A79" s="6" t="s">
         <v>375</v>
       </c>
@@ -29513,7 +29368,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="18.5">
+    <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
         <v>376</v>
       </c>
@@ -29524,7 +29379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18.5">
+    <row r="81" spans="1:3">
       <c r="A81" s="6" t="s">
         <v>377</v>
       </c>
@@ -29535,7 +29390,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="18.5">
+    <row r="82" spans="1:3">
       <c r="A82" s="6" t="s">
         <v>378</v>
       </c>
@@ -29546,7 +29401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18.5">
+    <row r="83" spans="1:3">
       <c r="A83" s="6" t="s">
         <v>379</v>
       </c>
@@ -29557,7 +29412,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18.5">
+    <row r="84" spans="1:3">
       <c r="A84" s="6" t="s">
         <v>380</v>
       </c>
@@ -29568,7 +29423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18.5">
+    <row r="85" spans="1:3">
       <c r="A85" s="6" t="s">
         <v>381</v>
       </c>
@@ -29579,7 +29434,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18.5">
+    <row r="86" spans="1:3">
       <c r="A86" s="6" t="s">
         <v>382</v>
       </c>
@@ -29590,7 +29445,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="18.5">
+    <row r="87" spans="1:3">
       <c r="A87" s="6" t="s">
         <v>383</v>
       </c>
@@ -29601,7 +29456,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18.5">
+    <row r="88" spans="1:3">
       <c r="A88" s="6" t="s">
         <v>384</v>
       </c>
@@ -29612,7 +29467,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18.5">
+    <row r="89" spans="1:3">
       <c r="A89" s="6" t="s">
         <v>385</v>
       </c>
@@ -29623,7 +29478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18.5">
+    <row r="90" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>386</v>
       </c>
@@ -29634,7 +29489,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="18.5">
+    <row r="91" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>387</v>
       </c>
@@ -29645,7 +29500,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="18.5">
+    <row r="92" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>388</v>
       </c>
@@ -29656,7 +29511,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18.5">
+    <row r="93" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>389</v>
       </c>
@@ -29667,7 +29522,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18.5">
+    <row r="94" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>390</v>
       </c>
@@ -29678,7 +29533,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="18.5">
+    <row r="95" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>391</v>
       </c>
@@ -29689,7 +29544,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="18.5">
+    <row r="96" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>392</v>
       </c>
@@ -29700,7 +29555,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="18.5">
+    <row r="97" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>393</v>
       </c>
@@ -29711,7 +29566,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="18.5">
+    <row r="98" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>394</v>
       </c>
@@ -29722,7 +29577,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="18.5">
+    <row r="99" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>395</v>
       </c>
@@ -29733,7 +29588,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="18.5">
+    <row r="100" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>396</v>
       </c>
@@ -29744,7 +29599,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18.5">
+    <row r="101" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>397</v>
       </c>
@@ -29755,7 +29610,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="18.5">
+    <row r="102" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>398</v>
       </c>
@@ -29766,7 +29621,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18.5">
+    <row r="103" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>399</v>
       </c>
@@ -29777,7 +29632,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="18.5">
+    <row r="104" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>400</v>
       </c>
@@ -29788,7 +29643,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="18.5">
+    <row r="105" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>401</v>
       </c>
@@ -29799,7 +29654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="18.5">
+    <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>402</v>
       </c>
@@ -29810,7 +29665,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="18.5">
+    <row r="107" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>403</v>
       </c>
@@ -29821,7 +29676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="18.5">
+    <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>404</v>
       </c>
@@ -29832,7 +29687,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="18.5">
+    <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>405</v>
       </c>
@@ -29843,7 +29698,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="18.5">
+    <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>406</v>
       </c>
@@ -29854,7 +29709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="18.5">
+    <row r="111" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>407</v>
       </c>
@@ -29865,7 +29720,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="18.5">
+    <row r="112" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>408</v>
       </c>
@@ -29876,7 +29731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18.5">
+    <row r="113" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>409</v>
       </c>
@@ -29887,7 +29742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="18.5">
+    <row r="114" spans="1:3">
       <c r="A114" s="6" t="s">
         <v>410</v>
       </c>
@@ -29898,7 +29753,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="18.5">
+    <row r="115" spans="1:3">
       <c r="A115" s="6" t="s">
         <v>411</v>
       </c>
@@ -29909,7 +29764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="18.5">
+    <row r="116" spans="1:3">
       <c r="A116" s="6" t="s">
         <v>412</v>
       </c>
@@ -29920,7 +29775,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="18.5">
+    <row r="117" spans="1:3">
       <c r="A117" s="6" t="s">
         <v>413</v>
       </c>
@@ -29931,7 +29786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="18.5">
+    <row r="118" spans="1:3">
       <c r="A118" s="6" t="s">
         <v>414</v>
       </c>
@@ -29942,7 +29797,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="18.5">
+    <row r="119" spans="1:3">
       <c r="A119" s="6" t="s">
         <v>415</v>
       </c>
@@ -29953,7 +29808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="18.5">
+    <row r="120" spans="1:3">
       <c r="A120" s="6" t="s">
         <v>416</v>
       </c>
@@ -29964,7 +29819,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="18.5">
+    <row r="121" spans="1:3">
       <c r="A121" s="6" t="s">
         <v>417</v>
       </c>
@@ -29975,7 +29830,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="18.5">
+    <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
         <v>418</v>
       </c>
@@ -29986,7 +29841,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="18.5">
+    <row r="123" spans="1:3">
       <c r="A123" s="6" t="s">
         <v>419</v>
       </c>
@@ -29997,7 +29852,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18.5">
+    <row r="124" spans="1:3">
       <c r="A124" s="6" t="s">
         <v>420</v>
       </c>
@@ -30008,7 +29863,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="18.5">
+    <row r="125" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>421</v>
       </c>
@@ -30019,7 +29874,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="18.5">
+    <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
         <v>422</v>
       </c>
@@ -30030,7 +29885,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="18.5">
+    <row r="127" spans="1:3">
       <c r="A127" s="6" t="s">
         <v>423</v>
       </c>
@@ -30041,7 +29896,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="18.5">
+    <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
         <v>424</v>
       </c>
@@ -30052,7 +29907,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="18.5">
+    <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
         <v>425</v>
       </c>
@@ -30063,7 +29918,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="18.5">
+    <row r="130" spans="1:3">
       <c r="A130" s="6" t="s">
         <v>426</v>
       </c>
@@ -30074,7 +29929,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="18.5">
+    <row r="131" spans="1:3">
       <c r="A131" s="6" t="s">
         <v>427</v>
       </c>
@@ -30085,7 +29940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="18.5">
+    <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
         <v>428</v>
       </c>
@@ -30096,7 +29951,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="37">
+    <row r="133" spans="1:3" ht="29">
       <c r="A133" s="6" t="s">
         <v>429</v>
       </c>
@@ -30107,7 +29962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="18.5">
+    <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
         <v>430</v>
       </c>
@@ -30118,7 +29973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="18.5">
+    <row r="135" spans="1:3">
       <c r="A135" s="6" t="s">
         <v>431</v>
       </c>
@@ -30129,7 +29984,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="18.5">
+    <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
         <v>432</v>
       </c>
@@ -30140,7 +29995,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="18.5">
+    <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
         <v>433</v>
       </c>
@@ -30151,7 +30006,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="18.5">
+    <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
         <v>434</v>
       </c>
@@ -30162,7 +30017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="18.5">
+    <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
         <v>435</v>
       </c>
@@ -30173,7 +30028,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="18.5">
+    <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
         <v>436</v>
       </c>
@@ -30184,7 +30039,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="18.5">
+    <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
         <v>437</v>
       </c>
@@ -30195,7 +30050,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="18.5">
+    <row r="142" spans="1:3">
       <c r="A142" s="6" t="s">
         <v>438</v>
       </c>
@@ -30206,7 +30061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="18.5">
+    <row r="143" spans="1:3">
       <c r="A143" s="6" t="s">
         <v>439</v>
       </c>
@@ -30217,7 +30072,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="18.5">
+    <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
         <v>440</v>
       </c>
@@ -30228,7 +30083,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="18.5">
+    <row r="145" spans="1:3">
       <c r="A145" s="6" t="s">
         <v>441</v>
       </c>
@@ -30239,7 +30094,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="18.5">
+    <row r="146" spans="1:3">
       <c r="A146" s="6" t="s">
         <v>442</v>
       </c>
@@ -30250,7 +30105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="18.5">
+    <row r="147" spans="1:3">
       <c r="A147" s="6" t="s">
         <v>443</v>
       </c>
@@ -30261,7 +30116,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="18.5">
+    <row r="148" spans="1:3">
       <c r="A148" s="6" t="s">
         <v>444</v>
       </c>
@@ -30272,7 +30127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="18.5">
+    <row r="149" spans="1:3">
       <c r="A149" s="6" t="s">
         <v>445</v>
       </c>
@@ -30283,7 +30138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="18.5">
+    <row r="150" spans="1:3">
       <c r="A150" s="6" t="s">
         <v>446</v>
       </c>
@@ -30294,7 +30149,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="18.5">
+    <row r="151" spans="1:3">
       <c r="A151" s="6" t="s">
         <v>447</v>
       </c>
@@ -30305,7 +30160,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="18.5">
+    <row r="152" spans="1:3">
       <c r="A152" s="6" t="s">
         <v>448</v>
       </c>
@@ -30316,7 +30171,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="18.5">
+    <row r="153" spans="1:3">
       <c r="A153" s="6" t="s">
         <v>449</v>
       </c>
@@ -30327,7 +30182,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="18.5">
+    <row r="154" spans="1:3">
       <c r="A154" s="6" t="s">
         <v>450</v>
       </c>
@@ -30338,7 +30193,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="18.5">
+    <row r="155" spans="1:3">
       <c r="A155" s="6" t="s">
         <v>451</v>
       </c>
@@ -30349,7 +30204,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="18.5">
+    <row r="156" spans="1:3">
       <c r="A156" s="6" t="s">
         <v>452</v>
       </c>
@@ -30360,7 +30215,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="18.5">
+    <row r="157" spans="1:3">
       <c r="A157" s="6" t="s">
         <v>453</v>
       </c>
@@ -30371,7 +30226,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="18.5">
+    <row r="158" spans="1:3">
       <c r="A158" s="6" t="s">
         <v>454</v>
       </c>
@@ -30382,7 +30237,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="18.5">
+    <row r="159" spans="1:3">
       <c r="A159" s="6" t="s">
         <v>455</v>
       </c>
@@ -30393,7 +30248,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="18.5">
+    <row r="160" spans="1:3">
       <c r="A160" s="6" t="s">
         <v>456</v>
       </c>
@@ -30404,7 +30259,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="18.5">
+    <row r="161" spans="1:3">
       <c r="A161" s="6" t="s">
         <v>457</v>
       </c>
@@ -30415,7 +30270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="18.5">
+    <row r="162" spans="1:3">
       <c r="A162" s="6" t="s">
         <v>458</v>
       </c>
@@ -30426,7 +30281,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="18.5">
+    <row r="163" spans="1:3">
       <c r="A163" s="6" t="s">
         <v>459</v>
       </c>
@@ -30437,7 +30292,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="18.5">
+    <row r="164" spans="1:3">
       <c r="A164" s="6" t="s">
         <v>460</v>
       </c>
@@ -30448,7 +30303,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="18.5">
+    <row r="165" spans="1:3">
       <c r="A165" s="6" t="s">
         <v>461</v>
       </c>
@@ -30459,7 +30314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="18.5">
+    <row r="166" spans="1:3">
       <c r="A166" s="6" t="s">
         <v>462</v>
       </c>
@@ -30470,7 +30325,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="18.5">
+    <row r="167" spans="1:3">
       <c r="A167" s="6" t="s">
         <v>463</v>
       </c>
@@ -30481,7 +30336,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="18.5">
+    <row r="168" spans="1:3">
       <c r="A168" s="6" t="s">
         <v>464</v>
       </c>
@@ -30492,7 +30347,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="18.5">
+    <row r="169" spans="1:3">
       <c r="A169" s="6" t="s">
         <v>465</v>
       </c>
@@ -30503,7 +30358,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="18.5">
+    <row r="170" spans="1:3">
       <c r="A170" s="6" t="s">
         <v>466</v>
       </c>
@@ -30514,7 +30369,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="18.5">
+    <row r="171" spans="1:3">
       <c r="A171" s="6" t="s">
         <v>467</v>
       </c>
@@ -30525,7 +30380,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="18.5">
+    <row r="172" spans="1:3">
       <c r="A172" s="6" t="s">
         <v>468</v>
       </c>
@@ -30536,7 +30391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="18.5">
+    <row r="173" spans="1:3">
       <c r="A173" s="6" t="s">
         <v>469</v>
       </c>
@@ -30547,7 +30402,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="18.5">
+    <row r="174" spans="1:3">
       <c r="A174" s="6" t="s">
         <v>470</v>
       </c>
@@ -30558,7 +30413,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="18.5">
+    <row r="175" spans="1:3">
       <c r="A175" s="6" t="s">
         <v>471</v>
       </c>
@@ -30569,7 +30424,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="18.5">
+    <row r="176" spans="1:3">
       <c r="A176" s="6" t="s">
         <v>472</v>
       </c>
@@ -30580,7 +30435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="18.5">
+    <row r="177" spans="1:3">
       <c r="A177" s="6" t="s">
         <v>473</v>
       </c>
@@ -30591,7 +30446,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="18.5">
+    <row r="178" spans="1:3">
       <c r="A178" s="6" t="s">
         <v>474</v>
       </c>
@@ -30602,7 +30457,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="18.5">
+    <row r="179" spans="1:3">
       <c r="A179" s="6" t="s">
         <v>475</v>
       </c>
@@ -30613,7 +30468,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="18.5">
+    <row r="180" spans="1:3">
       <c r="A180" s="6" t="s">
         <v>476</v>
       </c>
@@ -30624,7 +30479,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="18.5">
+    <row r="181" spans="1:3">
       <c r="A181" s="6" t="s">
         <v>477</v>
       </c>
@@ -30635,7 +30490,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="18.5">
+    <row r="182" spans="1:3">
       <c r="A182" s="6" t="s">
         <v>478</v>
       </c>
@@ -30646,7 +30501,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="18.5">
+    <row r="183" spans="1:3">
       <c r="A183" s="6" t="s">
         <v>479</v>
       </c>
@@ -30657,7 +30512,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="18.5">
+    <row r="184" spans="1:3">
       <c r="A184" s="6" t="s">
         <v>480</v>
       </c>
@@ -30668,7 +30523,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="18.5">
+    <row r="185" spans="1:3">
       <c r="A185" s="6" t="s">
         <v>481</v>
       </c>
@@ -30679,7 +30534,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="18.5">
+    <row r="186" spans="1:3">
       <c r="A186" s="6" t="s">
         <v>482</v>
       </c>
@@ -30690,7 +30545,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="18.5">
+    <row r="187" spans="1:3">
       <c r="A187" s="6" t="s">
         <v>483</v>
       </c>
@@ -30701,7 +30556,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="18.5">
+    <row r="188" spans="1:3">
       <c r="A188" s="6" t="s">
         <v>484</v>
       </c>
@@ -30712,7 +30567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="18.5">
+    <row r="189" spans="1:3">
       <c r="A189" s="6" t="s">
         <v>485</v>
       </c>
@@ -30723,7 +30578,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="18.5">
+    <row r="190" spans="1:3">
       <c r="A190" s="6" t="s">
         <v>486</v>
       </c>
@@ -30734,7 +30589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="18.5">
+    <row r="191" spans="1:3">
       <c r="A191" s="6" t="s">
         <v>487</v>
       </c>
@@ -30745,7 +30600,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="18.5">
+    <row r="192" spans="1:3">
       <c r="A192" s="6" t="s">
         <v>488</v>
       </c>
@@ -30756,7 +30611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="18.5">
+    <row r="193" spans="1:3">
       <c r="A193" s="6" t="s">
         <v>489</v>
       </c>
@@ -30767,7 +30622,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="18.5">
+    <row r="194" spans="1:3">
       <c r="A194" s="6" t="s">
         <v>490</v>
       </c>
@@ -30778,7 +30633,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="18.5">
+    <row r="195" spans="1:3">
       <c r="A195" s="6" t="s">
         <v>491</v>
       </c>
@@ -30789,7 +30644,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="18.5">
+    <row r="196" spans="1:3">
       <c r="A196" s="6" t="s">
         <v>492</v>
       </c>
@@ -30800,7 +30655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="18.5">
+    <row r="197" spans="1:3">
       <c r="A197" s="6" t="s">
         <v>493</v>
       </c>
@@ -30811,7 +30666,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="18.5">
+    <row r="198" spans="1:3">
       <c r="A198" s="6" t="s">
         <v>494</v>
       </c>
@@ -30822,7 +30677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="18.5">
+    <row r="199" spans="1:3">
       <c r="A199" s="6" t="s">
         <v>495</v>
       </c>
@@ -30833,7 +30688,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="18.5">
+    <row r="200" spans="1:3">
       <c r="A200" s="6" t="s">
         <v>496</v>
       </c>
@@ -30844,7 +30699,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="18.5">
+    <row r="201" spans="1:3">
       <c r="A201" s="6" t="s">
         <v>497</v>
       </c>
@@ -30855,7 +30710,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="18.5">
+    <row r="202" spans="1:3">
       <c r="A202" s="6" t="s">
         <v>498</v>
       </c>
@@ -30866,7 +30721,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="18.5">
+    <row r="203" spans="1:3">
       <c r="A203" s="6" t="s">
         <v>499</v>
       </c>
@@ -30877,7 +30732,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="18.5">
+    <row r="204" spans="1:3">
       <c r="A204" s="6" t="s">
         <v>500</v>
       </c>
@@ -30888,7 +30743,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="18.5">
+    <row r="205" spans="1:3">
       <c r="A205" s="6" t="s">
         <v>501</v>
       </c>
@@ -30899,7 +30754,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="18.5">
+    <row r="206" spans="1:3">
       <c r="A206" s="6" t="s">
         <v>502</v>
       </c>
@@ -30910,7 +30765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="18.5">
+    <row r="207" spans="1:3">
       <c r="A207" s="6" t="s">
         <v>503</v>
       </c>
@@ -30921,7 +30776,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="18.5">
+    <row r="208" spans="1:3">
       <c r="A208" s="6" t="s">
         <v>504</v>
       </c>
@@ -30932,7 +30787,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="18.5">
+    <row r="209" spans="1:3">
       <c r="A209" s="6" t="s">
         <v>505</v>
       </c>
@@ -30943,7 +30798,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="18.5">
+    <row r="210" spans="1:3">
       <c r="A210" s="6" t="s">
         <v>506</v>
       </c>
@@ -30954,7 +30809,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="18.5">
+    <row r="211" spans="1:3">
       <c r="A211" s="6" t="s">
         <v>507</v>
       </c>
@@ -30965,7 +30820,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="18.5">
+    <row r="212" spans="1:3">
       <c r="A212" s="6" t="s">
         <v>508</v>
       </c>
@@ -30976,7 +30831,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="18.5">
+    <row r="213" spans="1:3">
       <c r="A213" s="6" t="s">
         <v>509</v>
       </c>
@@ -30987,7 +30842,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="18.5">
+    <row r="214" spans="1:3">
       <c r="A214" s="6" t="s">
         <v>510</v>
       </c>
@@ -31562,7 +31417,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" ht="18.5">
+    <row r="2" spans="1:5" s="16" customFormat="1">
       <c r="A2" s="16" t="s">
         <v>1330</v>
       </c>
@@ -31576,7 +31431,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="82.5">
+    <row r="3" spans="1:5" ht="72.5">
       <c r="A3" s="7" t="s">
         <v>1189</v>
       </c>
@@ -31593,7 +31448,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="74.5">
+    <row r="4" spans="1:5" ht="72.5">
       <c r="A4" s="7" t="s">
         <v>1191</v>
       </c>
@@ -31610,7 +31465,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="188">
+    <row r="5" spans="1:5" ht="174">
       <c r="A5" s="7" t="s">
         <v>1193</v>
       </c>
@@ -31627,7 +31482,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="95">
+    <row r="6" spans="1:5" ht="87">
       <c r="A6" s="7" t="s">
         <v>1195</v>
       </c>
@@ -31644,7 +31499,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="89">
+    <row r="7" spans="1:5" ht="87">
       <c r="A7" s="7" t="s">
         <v>1197</v>
       </c>
@@ -31661,7 +31516,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="91">
+    <row r="8" spans="1:5" ht="87">
       <c r="A8" s="7" t="s">
         <v>1199</v>
       </c>
@@ -31678,7 +31533,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="91">
+    <row r="9" spans="1:5" ht="87">
       <c r="A9" s="7" t="s">
         <v>1201</v>
       </c>
@@ -31695,7 +31550,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="194.5">
+    <row r="10" spans="1:5" ht="188.5">
       <c r="A10" s="7" t="s">
         <v>1203</v>
       </c>
@@ -31712,7 +31567,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="190.5">
+    <row r="11" spans="1:5" ht="188.5">
       <c r="A11" s="7" t="s">
         <v>1205</v>
       </c>
@@ -31729,7 +31584,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="275">
+    <row r="12" spans="1:5" ht="261">
       <c r="A12" s="7" t="s">
         <v>1207</v>
       </c>
@@ -31824,7 +31679,7 @@
       </c>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:8" ht="62">
+    <row r="3" spans="1:8" ht="58">
       <c r="A3" s="5" t="s">
         <v>1275</v>
       </c>
@@ -31848,7 +31703,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="62">
+    <row r="4" spans="1:8" ht="58">
       <c r="A4" s="5" t="s">
         <v>1257</v>
       </c>
@@ -31871,7 +31726,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="62">
+    <row r="5" spans="1:8" ht="58">
       <c r="A5" s="5" t="s">
         <v>1242</v>
       </c>
@@ -31892,7 +31747,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="62">
+    <row r="6" spans="1:8" ht="58">
       <c r="A6" s="5" t="s">
         <v>1224</v>
       </c>
@@ -31915,7 +31770,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="62">
+    <row r="7" spans="1:8" ht="58">
       <c r="A7" s="5" t="s">
         <v>1297</v>
       </c>
@@ -31941,7 +31796,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="62">
+    <row r="8" spans="1:8" ht="58">
       <c r="A8" s="5" t="s">
         <v>1209</v>
       </c>
@@ -32037,7 +31892,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.08203125" style="1" customWidth="1"/>
@@ -32068,7 +31923,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31">
+    <row r="4" spans="1:3" ht="29">
       <c r="A4" s="1" t="s">
         <v>1163</v>
       </c>
@@ -32106,7 +31961,7 @@
         <v>2628000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="219.5">
+    <row r="8" spans="1:3" ht="217.5">
       <c r="A8" s="1" t="s">
         <v>1449</v>
       </c>
